--- a/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>13.5041111022428</v>
+        <v>10.1054208</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>14.10597739220272</v>
+        <v>10.6488464</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>14.74460739904307</v>
+        <v>11.2250248</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>15.42251424380703</v>
+        <v>11.8360834</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>16.1422584747589</v>
+        <v>12.4842068</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>16.9064027051029</v>
+        <v>13.1716023</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>17.71745437241247</v>
+        <v>13.9004552</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>18.57779604289975</v>
+        <v>14.6728732</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>19.48960331779224</v>
+        <v>15.4908179</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>20.45475123917618</v>
+        <v>16.356026</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>21.47471112407419</v>
+        <v>17.2699193</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -532,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>22.55044093385215</v>
+        <v>18.233507</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>23.68227353246882</v>
+        <v>19.2472831</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>24.86980838812974</v>
+        <v>20.311124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>26.11181328664708</v>
+        <v>21.4241912</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>27.40614329447383</v>
+        <v>22.5848463</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -587,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>28.74968438412029</v>
+        <v>23.7905841</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -598,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>30.13832869501492</v>
+        <v>25.0379917</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>31.56698728667378</v>
+        <v>26.3227385</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -620,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>33.02964446403679</v>
+        <v>27.6396014</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -631,7 +631,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>34.51945542033728</v>
+        <v>28.9825292</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -642,7 +642,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>36.02888623645283</v>
+        <v>30.3447445</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -653,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>37.54989244400223</v>
+        <v>31.7188824</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -664,7 +664,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>39.07412967637513</v>
+        <v>33.0971601</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>40.59318765847635</v>
+        <v>34.4715717</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>42.09883713272002</v>
+        <v>35.8340982</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -697,7 +697,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>43.58327841802902</v>
+        <v>37.176925</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -708,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>45.03938019214334</v>
+        <v>38.4926556</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -719,7 +719,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>46.4608977310604</v>
+        <v>39.7745129</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -730,7 +730,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>47.84266112015773</v>
+        <v>41.0165199</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -741,7 +741,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>49.18072571402265</v>
+        <v>42.2136523</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -752,7 +752,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>50.47247919511008</v>
+        <v>43.3619594</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>51.71670180105881</v>
+        <v>44.4586477</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -774,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>52.91357851508997</v>
+        <v>45.502129</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -785,7 +785,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>54.06466413074894</v>
+        <v>46.4920309</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -796,7 +796,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>55.1728040275985</v>
+        <v>47.4291733</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -807,7 +807,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>56.24201516894132</v>
+        <v>48.3155136</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -818,7 +818,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>57.27733321510057</v>
+        <v>49.1540654</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>58.28463270798416</v>
+        <v>49.9487942</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -840,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>59.27042800602661</v>
+        <v>50.7044969</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -851,7 +851,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>60.24166302341035</v>
+        <v>51.4266684</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -862,7 +862,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>61.20549785393951</v>
+        <v>52.1213615</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -873,7 +873,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>62.16910005035765</v>
+        <v>52.7950433</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -884,7 +884,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>63.13944771056779</v>
+        <v>53.4544526</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -895,7 +895,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>64.12315063434538</v>
+        <v>54.1064611</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -906,7 +906,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>65.12629471304767</v>
+        <v>54.7579413</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -917,7 +917,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>66.15431346719278</v>
+        <v>55.4156427</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -928,7 +928,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>67.21188932617771</v>
+        <v>56.0860783</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -939,7 +939,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>68.30288592560788</v>
+        <v>56.775422</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -950,7 +950,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>69.43031145056206</v>
+        <v>57.4894192</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -961,7 +961,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>70.59631193674042</v>
+        <v>58.2333101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -972,7 +972,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>71.80219249963822</v>
+        <v>59.0117673</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -983,7 +983,7 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>73.0484637203094</v>
+        <v>59.8288489</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -994,7 +994,7 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>74.33490988183102</v>
+        <v>60.6879668</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>75.66067541299444</v>
+        <v>61.5918722</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>77.02436573121534</v>
+        <v>62.542658</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>78.4241586528163</v>
+        <v>63.5417793</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>79.85792262043341</v>
+        <v>64.59009039999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>81.32333815163446</v>
+        <v>65.6878995</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>82.818019114137</v>
+        <v>66.8350384</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>84.33963066512301</v>
+        <v>68.0309458</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>85.88600094910566</v>
+        <v>69.27476160000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>87.45522393332512</v>
+        <v>70.56543000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>89.0457510798138</v>
+        <v>71.90180549999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>90.65646991806909</v>
+        <v>73.28276150000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>92.28676799690444</v>
+        <v>74.7072938</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>93.93658115587866</v>
+        <v>76.1746189</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>95.60642555273036</v>
+        <v>77.6842616</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>97.29741338972528</v>
+        <v>79.2361293</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>99.01125276627985</v>
+        <v>80.830572</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>100.750232510699</v>
+        <v>82.468425</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>102.5171931748182</v>
+        <v>84.1510341</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>104.3154855843142</v>
+        <v>85.880263</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>106.1489184112937</v>
+        <v>87.6584828</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>108.0216961803388</v>
+        <v>89.4885432</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>109.9383489613955</v>
+        <v>91.373728</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>111.9036547895198</v>
+        <v>93.3176935</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>113.9225556444976</v>
+        <v>95.32439239999999</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>116.0000676919402</v>
+        <v>97.3979835</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>118.1411864979217</v>
+        <v>99.5427292</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>120.3507881336897</v>
+        <v>101.7628827</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>122.6335275127394</v>
+        <v>104.0625668</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>124.993735943588</v>
+        <v>106.4456494</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>127.4353206939168</v>
+        <v>108.9156182</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>129.9616702633344</v>
+        <v>111.4754608</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>132.57556993829</v>
+        <v>114.1275558</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>135.2791329169922</v>
+        <v>116.8735825</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>138.0737527007398</v>
+        <v>119.7144548</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>140.9600824174795</v>
+        <v>122.6502862</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>143.9380461691552</v>
+        <v>125.6803925</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>147.0068863178883</v>
+        <v>128.8033355</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>150.165248847812</v>
+        <v>132.0170097</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>153.4113066270303</v>
+        <v>135.3187729</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>156.742917682955</v>
+        <v>138.705615</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>160.1578126902904</v>
+        <v>142.1743612</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>163.6538029967674</v>
+        <v>145.7218972</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>167.2289979456419</v>
+        <v>149.3454064</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>170.8820182646021</v>
+        <v>153.0426034</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>174.6121911195723</v>
+        <v>156.8119494</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>178.419712266568</v>
+        <v>160.6528329</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>182.305761685899</v>
+        <v>164.5657027</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>186.2725611674281</v>
+        <v>168.5521405</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>190.3233654480889</v>
+        <v>172.6148637</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1544,7 +1544,7 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>194.4623824976633</v>
+        <v>176.7576554</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1555,7 +1555,7 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>198.6946231314899</v>
+        <v>180.9852199</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1566,7 +1566,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>203.0256849574977</v>
+        <v>185.302971</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>207.4614803596272</v>
+        <v>189.7167603</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1588,7 +1588,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>212.0079223961702</v>
+        <v>194.2325626</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>216.6705857975135</v>
+        <v>198.8561331</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>221.4543623967852</v>
+        <v>203.5926577</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>226.3631311268247</v>
+        <v>208.4464156</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1632,7 +1632,7 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>231.3994620896381</v>
+        <v>213.4204743</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1643,7 +1643,7 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>236.5643721947582</v>
+        <v>218.5164342</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1654,7 +1654,7 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>241.8571466347969</v>
+        <v>223.7342366</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1665,7 +1665,7 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>247.2752362880968</v>
+        <v>229.0720459</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>252.8142363560391</v>
+        <v>234.5262103</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>258.467946547022</v>
+        <v>240.0913024</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>264.2285083077169</v>
+        <v>245.7602344</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>270.0866103408568</v>
+        <v>251.5244405</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>276.0317502378919</v>
+        <v>257.374114</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>282.052537702994</v>
+        <v>263.2984864</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1742,7 +1742,7 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>288.1370236528886</v>
+        <v>269.2861327</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1753,7 +1753,7 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>294.2730394339994</v>
+        <v>275.3252896</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1764,7 +1764,7 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>300.4485313899459</v>
+        <v>281.4041709</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1775,7 +1775,7 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>306.6518778394716</v>
+        <v>287.5112714</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>312.872177930813</v>
+        <v>293.6356464</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1797,7 +1797,7 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>319.0995045411953</v>
+        <v>299.7671624</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1808,7 +1808,7 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>325.3251161144406</v>
+        <v>305.8967133</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1819,7 +1819,7 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>331.541624837167</v>
+        <v>312.0164</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>337.7431206658841</v>
+        <v>318.1196728</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1841,7 +1841,7 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>343.9252523282906</v>
+        <v>324.2014367</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>350.085267504604</v>
+        <v>330.2581222</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1863,7 +1863,7 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>356.2220149924092</v>
+        <v>336.2877213</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1874,7 +1874,7 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>362.3359118714301</v>
+        <v>342.2897922</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1885,7 +1885,7 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>368.4288786485091</v>
+        <v>348.2654314</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>374.5042452252669</v>
+        <v>354.2172173</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1907,7 +1907,7 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>380.5666304271592</v>
+        <v>360.1491231</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1918,7 +1918,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>386.6217978670526</v>
+        <v>366.0664025</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1929,7 +1929,7 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>392.6764911480082</v>
+        <v>371.9754479</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>398.7382518461945</v>
+        <v>377.8836246</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>404.8152243138328</v>
+        <v>383.7990837</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1962,7 +1962,7 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>410.9159520212571</v>
+        <v>389.7305573</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>417.0491708081581</v>
+        <v>395.6871437</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1984,7 +1984,7 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>423.2236049201335</v>
+        <v>401.6780856</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>429.44777196092</v>
+        <v>407.7125521</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>435.7298028122424</v>
+        <v>413.7994278</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2017,7 +2017,7 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>442.0772821188771</v>
+        <v>419.9471202</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2028,7 +2028,7 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>448.4971141071364</v>
+        <v>426.1633879</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2039,7 +2039,7 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>454.9954173453914</v>
+        <v>432.4551984</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2050,7 +2050,7 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>461.577450648718</v>
+        <v>438.8286166</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2061,7 +2061,7 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>468.2475707872752</v>
+        <v>445.288728</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>475.009221105028</v>
+        <v>451.8395967</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2083,7 +2083,7 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>481.8649487168413</v>
+        <v>458.4842566</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>488.816446738386</v>
+        <v>465.2247337</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>495.8646170994429</v>
+        <v>472.0620954</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2116,7 +2116,7 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>503.0096489480099</v>
+        <v>478.9965221</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2127,7 +2127,7 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>510.2511074838275</v>
+        <v>486.0273964</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2138,7 +2138,7 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>517.5880282428345</v>
+        <v>493.1534042</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>525.0190123345313</v>
+        <v>500.3726428</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2160,7 +2160,7 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <v>532.5423188346419</v>
+        <v>507.6827323</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2171,7 +2171,7 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>540.1559513649279</v>
+        <v>515.0809261000001</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2182,7 +2182,7 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>547.8577367570117</v>
+        <v>522.5642172</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2193,7 +2193,7 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>555.6453945120797</v>
+        <v>530.129439</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2204,7 +2204,7 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>563.516596464458</v>
+        <v>537.7733586000001</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>571.469016588642</v>
+        <v>545.4927613</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>579.5003712373469</v>
+        <v>553.2845261</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2237,7 +2237,7 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>587.6084502703067</v>
+        <v>561.1456908</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2248,7 +2248,7 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>595.7911395615408</v>
+        <v>569.0735074</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>604.0464353063696</v>
+        <v>577.0654853999999</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2270,7 +2270,7 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>612.3724504485962</v>
+        <v>585.1194235</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2281,7 +2281,7 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>620.7674134742031</v>
+        <v>593.2334289</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2292,7 +2292,7 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>629.2296598239457</v>
+        <v>601.4059228</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2303,7 +2303,7 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>637.757616300663</v>
+        <v>609.6356325</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2314,7 +2314,7 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>646.3497791032321</v>
+        <v>617.9215696</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>655.0046864979942</v>
+        <v>626.2629957</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2336,7 +2336,7 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>663.7208876054484</v>
+        <v>634.6593764</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>672.4969092793463</v>
+        <v>643.1103266</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2358,7 +2358,7 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>681.3312235171695</v>
+        <v>651.6155497</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>690.2222181906393</v>
+        <v>660.174775</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2380,7 +2380,7 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>699.1681740530892</v>
+        <v>668.7876973</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2391,7 +2391,7 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>708.1672509133664</v>
+        <v>677.4539236000001</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2402,7 +2402,7 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>717.2174855333569</v>
+        <v>686.1729301</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2413,7 +2413,7 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>726.3168032074186</v>
+        <v>694.9440356</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>735.463044147185</v>
+        <v>703.7663907</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>744.6540047834001</v>
+        <v>712.6389884</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2446,7 +2446,7 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>753.8874929894753</v>
+        <v>721.5606935</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>763.1613951250375</v>
+        <v>730.5302913</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>772.4737517906971</v>
+        <v>739.5465525</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>781.8228383684731</v>
+        <v>748.6083106999999</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>791.2072458687894</v>
+        <v>757.7145487</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>800.6259573622092</v>
+        <v>766.8644861</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>810.0784153598192</v>
+        <v>776.0576649</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>819.5645759076169</v>
+        <v>785.2940261</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>829.0849458369114</v>
+        <v>794.5739724</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2545,7 +2545,7 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>838.6406005021601</v>
+        <v>803.8984137</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2556,7 +2556,7 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>848.2331803630904</v>
+        <v>813.2687899</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>857.8648658469011</v>
+        <v>822.6870723</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>867.5383309787599</v>
+        <v>832.1557392</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>877.2566772242634</v>
+        <v>841.677729</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>200</v>
       </c>
       <c r="C201">
-        <v>887.0233497902339</v>
+        <v>851.2563706</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>201</v>
       </c>
       <c r="C202">
-        <v>896.842039242266</v>
+        <v>860.8952942</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>202</v>
       </c>
       <c r="C203">
-        <v>906.7165716995657</v>
+        <v>870.5983265</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>203</v>
       </c>
       <c r="C204">
-        <v>916.6507910585091</v>
+        <v>880.3693719</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>204</v>
       </c>
       <c r="C205">
-        <v>926.6484366903426</v>
+        <v>890.2122859999999</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>205</v>
       </c>
       <c r="C206">
-        <v>936.7130198825161</v>
+        <v>900.1307441</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>206</v>
       </c>
       <c r="C207">
-        <v>946.8477019836419</v>
+        <v>910.1281082</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>207</v>
       </c>
       <c r="C208">
-        <v>957.0551768110743</v>
+        <v>920.2072959</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>208</v>
       </c>
       <c r="C209">
-        <v>967.3375594324376</v>
+        <v>930.3706549</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>209</v>
       </c>
       <c r="C210">
-        <v>977.6962829822481</v>
+        <v>940.6198441</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>210</v>
       </c>
       <c r="C211">
-        <v>988.1320047630003</v>
+        <v>950.955723</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>211</v>
       </c>
       <c r="C212">
-        <v>998.6445225413581</v>
+        <v>961.3782521000001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>212</v>
       </c>
       <c r="C213">
-        <v>1009.232701710407</v>
+        <v>971.8864038</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>213</v>
       </c>
       <c r="C214">
-        <v>1019.894413863145</v>
+        <v>982.4780847</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>214</v>
       </c>
       <c r="C215">
-        <v>1030.626487312595</v>
+        <v>993.1500708999999</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>215</v>
       </c>
       <c r="C216">
-        <v>1041.424670188224</v>
+        <v>1003.8979573</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>216</v>
       </c>
       <c r="C217">
-        <v>1052.283606911038</v>
+        <v>1014.7161209</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>217</v>
       </c>
       <c r="C218">
-        <v>1063.196829062624</v>
+        <v>1025.597702</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>218</v>
       </c>
       <c r="C219">
-        <v>1074.156761868634</v>
+        <v>1036.5346028</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>219</v>
       </c>
       <c r="C220">
-        <v>1085.154747661603</v>
+        <v>1047.5175087</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>220</v>
       </c>
       <c r="C221">
-        <v>1096.181087718368</v>
+        <v>1058.5359329</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>221</v>
       </c>
       <c r="C222">
-        <v>1107.225103736858</v>
+        <v>1069.5782868</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>222</v>
       </c>
       <c r="C223">
-        <v>1118.275219891438</v>
+        <v>1080.63198</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>223</v>
       </c>
       <c r="C224">
-        <v>1129.319065869524</v>
+        <v>1091.6835492</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>224</v>
       </c>
       <c r="C225">
-        <v>1140.343600552155</v>
+        <v>1102.7188182</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>225</v>
       </c>
       <c r="C226">
-        <v>1151.335255090642</v>
+        <v>1113.723086</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>226</v>
       </c>
       <c r="C227">
-        <v>1162.280093108967</v>
+        <v>1124.6813427</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>227</v>
       </c>
       <c r="C228">
-        <v>1173.163984709348</v>
+        <v>1135.5785073</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>228</v>
       </c>
       <c r="C229">
-        <v>1183.972789975194</v>
+        <v>1146.399682</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>229</v>
       </c>
       <c r="C230">
-        <v>1194.692546859652</v>
+        <v>1157.1304162</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>230</v>
       </c>
       <c r="C231">
-        <v>1205.309657824497</v>
+        <v>1167.7569711</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>231</v>
       </c>
       <c r="C232">
-        <v>1215.811069444477</v>
+        <v>1178.2665754</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2952,7 +2952,7 @@
         <v>232</v>
       </c>
       <c r="C233">
-        <v>1226.184439480051</v>
+        <v>1188.6476631</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>233</v>
       </c>
       <c r="C234">
-        <v>1236.418286671841</v>
+        <v>1198.8900837</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>234</v>
       </c>
       <c r="C235">
-        <v>1246.502119700601</v>
+        <v>1208.9852756</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>235</v>
       </c>
       <c r="C236">
-        <v>1256.426543312527</v>
+        <v>1218.9263966</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>236</v>
       </c>
       <c r="C237">
-        <v>1266.183341406652</v>
+        <v>1228.7084059</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>237</v>
       </c>
       <c r="C238">
-        <v>1275.765538751418</v>
+        <v>1238.328094</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3018,7 +3018,7 @@
         <v>238</v>
       </c>
       <c r="C239">
-        <v>1285.167444747129</v>
+        <v>1247.7840598</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>239</v>
       </c>
       <c r="C240">
-        <v>1294.384684079073</v>
+        <v>1257.0766369</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>240</v>
       </c>
       <c r="C241">
-        <v>1303.414220031576</v>
+        <v>1266.2077728</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>241</v>
       </c>
       <c r="C242">
-        <v>1312.254376519559</v>
+        <v>1275.1808664</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>242</v>
       </c>
       <c r="C243">
-        <v>1320.90486447301</v>
+        <v>1284.0005708</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>243</v>
       </c>
       <c r="C244">
-        <v>1329.366817094726</v>
+        <v>1292.6725704</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3084,7 +3084,7 @@
         <v>244</v>
       </c>
       <c r="C245">
-        <v>1337.642836802279</v>
+        <v>1301.2033404</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>245</v>
       </c>
       <c r="C246">
-        <v>1345.737054535105</v>
+        <v>1309.5998964</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="C247">
-        <v>1353.655199780973</v>
+        <v>1317.8695449</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>247</v>
       </c>
       <c r="C248">
-        <v>1361.404677392603</v>
+        <v>1326.0196386</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3128,7 +3128,7 @@
         <v>248</v>
       </c>
       <c r="C249">
-        <v>1368.994645240728</v>
+        <v>1334.0573466</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>249</v>
       </c>
       <c r="C250">
-        <v>1376.436085142128</v>
+        <v>1341.9894427</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>250</v>
       </c>
       <c r="C251">
-        <v>1383.741858383582</v>
+        <v>1349.8221186</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>251</v>
       </c>
       <c r="C252">
-        <v>1390.926736517818</v>
+        <v>1357.5608246</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>252</v>
       </c>
       <c r="C253">
-        <v>1398.007397837128</v>
+        <v>1365.2101441</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>253</v>
       </c>
       <c r="C254">
-        <v>1405.002379885214</v>
+        <v>1372.7737029</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>254</v>
       </c>
       <c r="C255">
-        <v>1411.931978390274</v>
+        <v>1380.254119</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>255</v>
       </c>
       <c r="C256">
-        <v>1418.818082976444</v>
+        <v>1387.6529956</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>256</v>
       </c>
       <c r="C257">
-        <v>1425.683939912732</v>
+        <v>1394.9709595</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>257</v>
       </c>
       <c r="C258">
-        <v>1432.553832100562</v>
+        <v>1402.2077478</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>258</v>
       </c>
       <c r="C259">
-        <v>1439.452666762049</v>
+        <v>1409.362344</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>259</v>
       </c>
       <c r="C260">
-        <v>1446.405462328169</v>
+        <v>1416.4331614</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>260</v>
       </c>
       <c r="C261">
-        <v>1453.436728456475</v>
+        <v>1423.4182731</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>261</v>
       </c>
       <c r="C262">
-        <v>1460.569737651768</v>
+        <v>1430.3156801</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>262</v>
       </c>
       <c r="C263">
-        <v>1467.825694330143</v>
+        <v>1437.1236122</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>263</v>
       </c>
       <c r="C264">
-        <v>1475.222817877487</v>
+        <v>1443.8408491</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>264</v>
       </c>
       <c r="C265">
-        <v>1482.775370391746</v>
+        <v>1450.4670492</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>265</v>
       </c>
       <c r="C266">
-        <v>1490.492676716405</v>
+        <v>1457.0030725</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>266</v>
       </c>
       <c r="C267">
-        <v>1498.37820241233</v>
+        <v>1463.4512802</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>267</v>
       </c>
       <c r="C268">
-        <v>1506.428771647994</v>
+        <v>1469.8157986</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>268</v>
       </c>
       <c r="C269">
-        <v>1514.634017724881</v>
+        <v>1476.1027297</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>269</v>
       </c>
       <c r="C270">
-        <v>1522.976159662112</v>
+        <v>1482.3202981</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>270</v>
       </c>
       <c r="C271">
-        <v>1531.430184952558</v>
+        <v>1488.4789212</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>271</v>
       </c>
       <c r="C272">
-        <v>1539.964489078689</v>
+        <v>1494.5911937</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>272</v>
       </c>
       <c r="C273">
-        <v>1548.541977614873</v>
+        <v>1500.6717783</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>273</v>
       </c>
       <c r="C274">
-        <v>1557.121581743901</v>
+        <v>1506.7371967</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>274</v>
       </c>
       <c r="C275">
-        <v>1565.660081582383</v>
+        <v>1512.8055134</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>275</v>
       </c>
       <c r="C276">
-        <v>1574.114084853234</v>
+        <v>1518.8959108</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>276</v>
       </c>
       <c r="C277">
-        <v>1582.441981640392</v>
+        <v>1525.0281486</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>277</v>
       </c>
       <c r="C278">
-        <v>1590.605696076687</v>
+        <v>1531.2219088</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>278</v>
       </c>
       <c r="C279">
-        <v>1598.572083826403</v>
+        <v>1537.4960286</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>279</v>
       </c>
       <c r="C280">
-        <v>1606.31387468436</v>
+        <v>1543.8676286</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>280</v>
       </c>
       <c r="C281">
-        <v>1613.810122152999</v>
+        <v>1550.3511564</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>281</v>
       </c>
       <c r="C282">
-        <v>1621.046184151547</v>
+        <v>1556.9573759</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>282</v>
       </c>
       <c r="C283">
-        <v>1628.013310087847</v>
+        <v>1563.6923485</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>283</v>
       </c>
       <c r="C284">
-        <v>1634.707942275154</v>
+        <v>1570.556473</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>284</v>
       </c>
       <c r="C285">
-        <v>1641.130851860705</v>
+        <v>1577.5436651</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>285</v>
       </c>
       <c r="C286">
-        <v>1647.28622317166</v>
+        <v>1584.6407714</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>286</v>
       </c>
       <c r="C287">
-        <v>1653.18078066442</v>
+        <v>1591.8273202</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>287</v>
       </c>
       <c r="C288">
-        <v>1658.823025551431</v>
+        <v>1599.0756975</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>288</v>
       </c>
       <c r="C289">
-        <v>1664.222620323204</v>
+        <v>1606.3518173</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>289</v>
       </c>
       <c r="C290">
-        <v>1669.389933098785</v>
+        <v>1613.616307</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>290</v>
       </c>
       <c r="C291">
-        <v>1674.335732696386</v>
+        <v>1620.8261738</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>291</v>
       </c>
       <c r="C292">
-        <v>1679.071010668621</v>
+        <v>1627.9368537</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>292</v>
       </c>
       <c r="C293">
-        <v>1683.606898283114</v>
+        <v>1634.9044834</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>293</v>
       </c>
       <c r="C294">
-        <v>1687.95464378801</v>
+        <v>1641.6881929</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>294</v>
       </c>
       <c r="C295">
-        <v>1692.125617130709</v>
+        <v>1648.2522035</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>295</v>
       </c>
       <c r="C296">
-        <v>1696.13131431656</v>
+        <v>1654.5675294</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>296</v>
       </c>
       <c r="C297">
-        <v>1699.983340561296</v>
+        <v>1660.6131354</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>297</v>
       </c>
       <c r="C298">
-        <v>1703.693359200125</v>
+        <v>1666.3764686</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>298</v>
       </c>
       <c r="C299">
-        <v>1707.273001042219</v>
+        <v>1671.8533624</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>299</v>
       </c>
       <c r="C300">
-        <v>1710.73373577729</v>
+        <v>1677.0473829</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>300</v>
       </c>
       <c r="C301">
-        <v>1714.086712632975</v>
+        <v>1681.9687392</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>301</v>
       </c>
       <c r="C302">
-        <v>1717.342581433311</v>
+        <v>1686.6329081</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>302</v>
       </c>
       <c r="C303">
-        <v>1720.511307397709</v>
+        <v>1691.0591297</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>303</v>
       </c>
       <c r="C304">
-        <v>1723.601993499955</v>
+        <v>1695.2689117</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>304</v>
       </c>
       <c r="C305">
-        <v>1726.622723179564</v>
+        <v>1699.2846529</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>305</v>
       </c>
       <c r="C306">
-        <v>1729.580433978933</v>
+        <v>1703.1284614</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>306</v>
       </c>
       <c r="C307">
-        <v>1732.480829658149</v>
+        <v>1706.8212088</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>307</v>
       </c>
       <c r="C308">
-        <v>1735.328334933068</v>
+        <v>1710.3818303</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>308</v>
       </c>
       <c r="C309">
-        <v>1738.126093594472</v>
+        <v>1713.8268627</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>309</v>
       </c>
       <c r="C310">
-        <v>1740.876007746059</v>
+        <v>1717.1701924</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>310</v>
       </c>
       <c r="C311">
-        <v>1743.578813510304</v>
+        <v>1720.4229797</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>311</v>
       </c>
       <c r="C312">
-        <v>1746.234186952484</v>
+        <v>1723.5937226</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>312</v>
       </c>
       <c r="C313">
-        <v>1748.840873209738</v>
+        <v>1726.6884254</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>313</v>
       </c>
       <c r="C314">
-        <v>1751.396831823433</v>
+        <v>1729.7108381</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>314</v>
       </c>
       <c r="C315">
-        <v>1753.899391909503</v>
+        <v>1732.6627419</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>315</v>
       </c>
       <c r="C316">
-        <v>1756.345411852724</v>
+        <v>1735.544258</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>316</v>
       </c>
       <c r="C317">
-        <v>1758.731439438418</v>
+        <v>1738.3541652</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>317</v>
       </c>
       <c r="C318">
-        <v>1761.053869507648</v>
+        <v>1741.0902149</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>318</v>
       </c>
       <c r="C319">
-        <v>1763.309097145989</v>
+        <v>1743.7494347</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>319</v>
       </c>
       <c r="C320">
-        <v>1765.493664961012</v>
+        <v>1746.3284183</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>320</v>
       </c>
       <c r="C321">
-        <v>1767.604403116346</v>
+        <v>1748.8235963</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>321</v>
       </c>
       <c r="C322">
-        <v>1769.638560497729</v>
+        <v>1751.2314862</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>322</v>
       </c>
       <c r="C323">
-        <v>1771.593924788278</v>
+        <v>1753.5489198</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>323</v>
       </c>
       <c r="C324">
-        <v>1773.468928480323</v>
+        <v>1755.7732435</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>324</v>
       </c>
       <c r="C325">
-        <v>1775.262737133244</v>
+        <v>1757.9024901</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>325</v>
       </c>
       <c r="C326">
-        <v>1776.975315686714</v>
+        <v>1759.9355165</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>326</v>
       </c>
       <c r="C327">
-        <v>1778.607468517054</v>
+        <v>1761.8721042</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>327</v>
       </c>
       <c r="C328">
-        <v>1780.160849294054</v>
+        <v>1763.7130197</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>328</v>
       </c>
       <c r="C329">
-        <v>1781.637937605734</v>
+        <v>1765.46003</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>329</v>
       </c>
       <c r="C330">
-        <v>1783.041980748065</v>
+        <v>1767.115875</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>330</v>
       </c>
       <c r="C331">
-        <v>1784.376900936435</v>
+        <v>1768.6841938</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>331</v>
       </c>
       <c r="C332">
-        <v>1785.647170338535</v>
+        <v>1770.1694115</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>332</v>
       </c>
       <c r="C333">
-        <v>1786.857658566217</v>
+        <v>1771.5765883</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>333</v>
       </c>
       <c r="C334">
-        <v>1788.013459388053</v>
+        <v>1772.9112396</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>334</v>
       </c>
       <c r="C335">
-        <v>1789.119705226895</v>
+        <v>1774.179137</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>335</v>
       </c>
       <c r="C336">
-        <v>1790.181379301325</v>
+        <v>1775.386099</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>336</v>
       </c>
       <c r="C337">
-        <v>1791.203135909129</v>
+        <v>1776.5377839</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>337</v>
       </c>
       <c r="C338">
-        <v>1792.189139239555</v>
+        <v>1777.6394959</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>338</v>
       </c>
       <c r="C339">
-        <v>1793.142930206038</v>
+        <v>1778.6960158</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>339</v>
       </c>
       <c r="C340">
-        <v>1794.067329145294</v>
+        <v>1779.7114645</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>340</v>
       </c>
       <c r="C341">
-        <v>1794.964379932894</v>
+        <v>1780.6892072</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>341</v>
       </c>
       <c r="C342">
-        <v>1795.835338282955</v>
+        <v>1781.631803</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>342</v>
       </c>
       <c r="C343">
-        <v>1796.680703948059</v>
+        <v>1782.541</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>343</v>
       </c>
       <c r="C344">
-        <v>1797.500293470515</v>
+        <v>1783.4177759</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>344</v>
       </c>
       <c r="C345">
-        <v>1798.293347329847</v>
+        <v>1784.2624181</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>345</v>
       </c>
       <c r="C346">
-        <v>1799.058663044357</v>
+        <v>1785.0746364</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>346</v>
       </c>
       <c r="C347">
-        <v>1799.794744235011</v>
+        <v>1785.8536997</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>347</v>
       </c>
       <c r="C348">
-        <v>1800.499954993182</v>
+        <v>1786.5985841</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>348</v>
       </c>
       <c r="C349">
-        <v>1801.17266916023</v>
+        <v>1787.3081255</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>349</v>
       </c>
       <c r="C350">
-        <v>1801.811405270213</v>
+        <v>1787.9811619</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>350</v>
       </c>
       <c r="C351">
-        <v>1802.414939770486</v>
+        <v>1788.6166621</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>351</v>
       </c>
       <c r="C352">
-        <v>1802.982393482955</v>
+        <v>1789.2138296</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>352</v>
       </c>
       <c r="C353">
-        <v>1803.513288821835</v>
+        <v>1789.7721814</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4283,7 +4283,7 @@
         <v>353</v>
       </c>
       <c r="C354">
-        <v>1804.007577761108</v>
+        <v>1790.2915979</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4294,7 +4294,7 @@
         <v>354</v>
       </c>
       <c r="C355">
-        <v>1804.465642702259</v>
+        <v>1790.7723457</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4305,7 +4305,7 @@
         <v>355</v>
       </c>
       <c r="C356">
-        <v>1804.888274055057</v>
+        <v>1791.215075</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4316,7 +4316,7 @@
         <v>356</v>
       </c>
       <c r="C357">
-        <v>1805.276629418654</v>
+        <v>1791.6207972</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4327,7 +4327,7 @@
         <v>357</v>
       </c>
       <c r="C358">
-        <v>1805.632179729051</v>
+        <v>1791.9908455</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4338,7 +4338,7 @@
         <v>358</v>
       </c>
       <c r="C359">
-        <v>1805.956647684192</v>
+        <v>1792.3268251</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4349,7 +4349,7 @@
         <v>359</v>
       </c>
       <c r="C360">
-        <v>1806.251943280618</v>
+        <v>1792.6305569</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>360</v>
       </c>
       <c r="C361">
-        <v>1806.520100530466</v>
+        <v>1792.9040192</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4371,7 +4371,7 @@
         <v>361</v>
       </c>
       <c r="C362">
-        <v>1806.763218510566</v>
+        <v>1793.1492913</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4382,7 +4382,7 @@
         <v>362</v>
       </c>
       <c r="C363">
-        <v>1806.983408945581</v>
+        <v>1793.368501</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4393,7 +4393,7 @@
         <v>363</v>
       </c>
       <c r="C364">
-        <v>1807.182751637489</v>
+        <v>1793.5637784</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4404,7 +4404,7 @@
         <v>364</v>
       </c>
       <c r="C365">
-        <v>1807.363258285583</v>
+        <v>1793.7372166</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4415,7 +4415,7 @@
         <v>365</v>
       </c>
       <c r="C366">
-        <v>1807.526844627547</v>
+        <v>1793.89084</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -2809,7 +2809,7 @@
         <v>219</v>
       </c>
       <c r="C220">
-        <v>1047.5175087</v>
+        <v>1047.5175088</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>220</v>
       </c>
       <c r="C221">
-        <v>1058.5359329</v>
+        <v>1058.535933</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>221</v>
       </c>
       <c r="C222">
-        <v>1069.5782868</v>
+        <v>1069.5782869</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>222</v>
       </c>
       <c r="C223">
-        <v>1080.63198</v>
+        <v>1080.6319802</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>223</v>
       </c>
       <c r="C224">
-        <v>1091.6835492</v>
+        <v>1091.6835496</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>224</v>
       </c>
       <c r="C225">
-        <v>1102.7188182</v>
+        <v>1102.7188188</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>225</v>
       </c>
       <c r="C226">
-        <v>1113.723086</v>
+        <v>1113.7230871</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>226</v>
       </c>
       <c r="C227">
-        <v>1124.6813427</v>
+        <v>1124.6813447</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>227</v>
       </c>
       <c r="C228">
-        <v>1135.5785073</v>
+        <v>1135.5785107</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>228</v>
       </c>
       <c r="C229">
-        <v>1146.399682</v>
+        <v>1146.3996876</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>229</v>
       </c>
       <c r="C230">
-        <v>1157.1304162</v>
+        <v>1157.1304256</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>230</v>
       </c>
       <c r="C231">
-        <v>1167.7569711</v>
+        <v>1167.7569866</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>231</v>
       </c>
       <c r="C232">
-        <v>1178.2665754</v>
+        <v>1178.2666007</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2952,7 +2952,7 @@
         <v>232</v>
       </c>
       <c r="C233">
-        <v>1188.6476631</v>
+        <v>1188.647704</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>233</v>
       </c>
       <c r="C234">
-        <v>1198.8900837</v>
+        <v>1198.890149</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>234</v>
       </c>
       <c r="C235">
-        <v>1208.9852756</v>
+        <v>1208.9853788</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>235</v>
       </c>
       <c r="C236">
-        <v>1218.9263966</v>
+        <v>1218.9265581</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>236</v>
       </c>
       <c r="C237">
-        <v>1228.7084059</v>
+        <v>1228.708656</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>237</v>
       </c>
       <c r="C238">
-        <v>1238.328094</v>
+        <v>1238.3284772</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3018,7 +3018,7 @@
         <v>238</v>
       </c>
       <c r="C239">
-        <v>1247.7840598</v>
+        <v>1247.7846407</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>239</v>
       </c>
       <c r="C240">
-        <v>1257.0766369</v>
+        <v>1257.0775085</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>240</v>
       </c>
       <c r="C241">
-        <v>1266.2077728</v>
+        <v>1266.2090669</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>241</v>
       </c>
       <c r="C242">
-        <v>1275.1808664</v>
+        <v>1275.1827675</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>242</v>
       </c>
       <c r="C243">
-        <v>1284.0005708</v>
+        <v>1284.0033345</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>243</v>
       </c>
       <c r="C244">
-        <v>1292.6725704</v>
+        <v>1292.6765456</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3084,7 +3084,7 @@
         <v>244</v>
       </c>
       <c r="C245">
-        <v>1301.2033404</v>
+        <v>1301.2089974</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>245</v>
       </c>
       <c r="C246">
-        <v>1309.5998964</v>
+        <v>1309.607861</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="C247">
-        <v>1317.8695449</v>
+        <v>1317.8806378</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>247</v>
       </c>
       <c r="C248">
-        <v>1326.0196386</v>
+        <v>1326.0349216</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3128,7 +3128,7 @@
         <v>248</v>
       </c>
       <c r="C249">
-        <v>1334.0573466</v>
+        <v>1334.0781729</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>249</v>
       </c>
       <c r="C250">
-        <v>1341.9894427</v>
+        <v>1342.0175113</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>250</v>
       </c>
       <c r="C251">
-        <v>1349.8221186</v>
+        <v>1349.8595285</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>251</v>
       </c>
       <c r="C252">
-        <v>1357.5608246</v>
+        <v>1357.6101269</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>252</v>
       </c>
       <c r="C253">
-        <v>1365.2101441</v>
+        <v>1365.2743853</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>253</v>
       </c>
       <c r="C254">
-        <v>1372.7737029</v>
+        <v>1372.8564538</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>254</v>
       </c>
       <c r="C255">
-        <v>1380.254119</v>
+        <v>1380.3594824</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>255</v>
       </c>
       <c r="C256">
-        <v>1387.6529956</v>
+        <v>1387.785584</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>256</v>
       </c>
       <c r="C257">
-        <v>1394.9709595</v>
+        <v>1395.1358346</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>257</v>
       </c>
       <c r="C258">
-        <v>1402.2077478</v>
+        <v>1402.4103156</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>258</v>
       </c>
       <c r="C259">
-        <v>1409.362344</v>
+        <v>1409.6081963</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>259</v>
       </c>
       <c r="C260">
-        <v>1416.4331614</v>
+        <v>1416.7278629</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>260</v>
       </c>
       <c r="C261">
-        <v>1423.4182731</v>
+        <v>1423.7670894</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>261</v>
       </c>
       <c r="C262">
-        <v>1430.3156801</v>
+        <v>1430.7232523</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>262</v>
       </c>
       <c r="C263">
-        <v>1437.1236122</v>
+        <v>1437.5935819</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>263</v>
       </c>
       <c r="C264">
-        <v>1443.8408491</v>
+        <v>1444.3754466</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>264</v>
       </c>
       <c r="C265">
-        <v>1450.4670492</v>
+        <v>1451.0666585</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>265</v>
       </c>
       <c r="C266">
-        <v>1457.0030725</v>
+        <v>1457.66579</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>266</v>
       </c>
       <c r="C267">
-        <v>1463.4512802</v>
+        <v>1464.1724887</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>267</v>
       </c>
       <c r="C268">
-        <v>1469.8157986</v>
+        <v>1470.5877758</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>268</v>
       </c>
       <c r="C269">
-        <v>1476.1027297</v>
+        <v>1476.9143126</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>269</v>
       </c>
       <c r="C270">
-        <v>1482.3202981</v>
+        <v>1483.1566233</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>270</v>
       </c>
       <c r="C271">
-        <v>1488.4789212</v>
+        <v>1489.3212593</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>271</v>
       </c>
       <c r="C272">
-        <v>1494.5911937</v>
+        <v>1495.4168946</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>272</v>
       </c>
       <c r="C273">
-        <v>1500.6717783</v>
+        <v>1501.4543441</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>273</v>
       </c>
       <c r="C274">
-        <v>1506.7371967</v>
+        <v>1507.4464959</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>274</v>
       </c>
       <c r="C275">
-        <v>1512.8055134</v>
+        <v>1513.4081532</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>275</v>
       </c>
       <c r="C276">
-        <v>1518.8959108</v>
+        <v>1519.355781</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>276</v>
       </c>
       <c r="C277">
-        <v>1525.0281486</v>
+        <v>1525.3071537</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>277</v>
       </c>
       <c r="C278">
-        <v>1531.2219088</v>
+        <v>1531.2809023</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>278</v>
       </c>
       <c r="C279">
-        <v>1537.4960286</v>
+        <v>1537.2959586</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>279</v>
       </c>
       <c r="C280">
-        <v>1543.8676286</v>
+        <v>1543.3708979</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>280</v>
       </c>
       <c r="C281">
-        <v>1550.3511564</v>
+        <v>1549.5231851</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>281</v>
       </c>
       <c r="C282">
-        <v>1556.9573759</v>
+        <v>1555.7683354</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>282</v>
       </c>
       <c r="C283">
-        <v>1563.6923485</v>
+        <v>1562.1190095</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>283</v>
       </c>
       <c r="C284">
-        <v>1570.556473</v>
+        <v>1568.5840757</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>284</v>
       </c>
       <c r="C285">
-        <v>1577.5436651</v>
+        <v>1575.1676859</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>285</v>
       </c>
       <c r="C286">
-        <v>1584.6407714</v>
+        <v>1581.8684297</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>286</v>
       </c>
       <c r="C287">
-        <v>1591.8273202</v>
+        <v>1588.678643</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>287</v>
       </c>
       <c r="C288">
-        <v>1599.0756975</v>
+        <v>1595.5839611</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>288</v>
       </c>
       <c r="C289">
-        <v>1606.3518173</v>
+        <v>1602.5632056</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>289</v>
       </c>
       <c r="C290">
-        <v>1613.616307</v>
+        <v>1609.5886846</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>290</v>
       </c>
       <c r="C291">
-        <v>1620.8261738</v>
+        <v>1616.6269556</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>291</v>
       </c>
       <c r="C292">
-        <v>1627.9368537</v>
+        <v>1623.6400627</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>292</v>
       </c>
       <c r="C293">
-        <v>1634.9044834</v>
+        <v>1630.5871985</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>293</v>
       </c>
       <c r="C294">
-        <v>1641.6881929</v>
+        <v>1637.426687</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>294</v>
       </c>
       <c r="C295">
-        <v>1648.2522035</v>
+        <v>1644.1181261</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>295</v>
       </c>
       <c r="C296">
-        <v>1654.5675294</v>
+        <v>1650.6244966</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>296</v>
       </c>
       <c r="C297">
-        <v>1660.6131354</v>
+        <v>1656.9140361</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>297</v>
       </c>
       <c r="C298">
-        <v>1666.3764686</v>
+        <v>1662.9616992</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>298</v>
       </c>
       <c r="C299">
-        <v>1671.8533624</v>
+        <v>1668.7500769</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>299</v>
       </c>
       <c r="C300">
-        <v>1677.0473829</v>
+        <v>1674.2697188</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>300</v>
       </c>
       <c r="C301">
-        <v>1681.9687392</v>
+        <v>1679.5188728</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>301</v>
       </c>
       <c r="C302">
-        <v>1686.6329081</v>
+        <v>1684.5027252</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>302</v>
       </c>
       <c r="C303">
-        <v>1691.0591297</v>
+        <v>1689.2322657</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>303</v>
       </c>
       <c r="C304">
-        <v>1695.2689117</v>
+        <v>1693.7229275</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>304</v>
       </c>
       <c r="C305">
-        <v>1699.2846529</v>
+        <v>1697.9931473</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>305</v>
       </c>
       <c r="C306">
-        <v>1703.1284614</v>
+        <v>1702.0629745</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>306</v>
       </c>
       <c r="C307">
-        <v>1706.8212088</v>
+        <v>1705.9528234</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>307</v>
       </c>
       <c r="C308">
-        <v>1710.3818303</v>
+        <v>1709.6824334</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>308</v>
       </c>
       <c r="C309">
-        <v>1713.8268627</v>
+        <v>1713.2700639</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>309</v>
       </c>
       <c r="C310">
-        <v>1717.1701924</v>
+        <v>1716.7319282</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>310</v>
       </c>
       <c r="C311">
-        <v>1720.4229797</v>
+        <v>1720.0818497</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>311</v>
       </c>
       <c r="C312">
-        <v>1723.5937226</v>
+        <v>1723.3311083</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>312</v>
       </c>
       <c r="C313">
-        <v>1726.6884254</v>
+        <v>1726.4884454</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>313</v>
       </c>
       <c r="C314">
-        <v>1729.7108381</v>
+        <v>1729.5601887</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>314</v>
       </c>
       <c r="C315">
-        <v>1732.6627419</v>
+        <v>1732.5504637</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>315</v>
       </c>
       <c r="C316">
-        <v>1735.544258</v>
+        <v>1735.4614647</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>316</v>
       </c>
       <c r="C317">
-        <v>1738.3541652</v>
+        <v>1738.2937585</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>317</v>
       </c>
       <c r="C318">
-        <v>1741.0902149</v>
+        <v>1741.0466056</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>318</v>
       </c>
       <c r="C319">
-        <v>1743.7494347</v>
+        <v>1743.7182826</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>319</v>
       </c>
       <c r="C320">
-        <v>1746.3284183</v>
+        <v>1746.3063985</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>320</v>
       </c>
       <c r="C321">
-        <v>1748.8235963</v>
+        <v>1748.8081947</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>321</v>
       </c>
       <c r="C322">
-        <v>1751.2314862</v>
+        <v>1751.2208265</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>322</v>
       </c>
       <c r="C323">
-        <v>1753.5489198</v>
+        <v>1753.5416192</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>323</v>
       </c>
       <c r="C324">
-        <v>1755.7732435</v>
+        <v>1755.7682959</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>324</v>
       </c>
       <c r="C325">
-        <v>1757.9024901</v>
+        <v>1757.8991721</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>325</v>
       </c>
       <c r="C326">
-        <v>1759.9355165</v>
+        <v>1759.9333145</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>326</v>
       </c>
       <c r="C327">
-        <v>1761.8721042</v>
+        <v>1761.8706581</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>327</v>
       </c>
       <c r="C328">
-        <v>1763.7130197</v>
+        <v>1763.7120799</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>328</v>
       </c>
       <c r="C329">
-        <v>1765.46003</v>
+        <v>1765.4594256</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>329</v>
       </c>
       <c r="C330">
-        <v>1767.115875</v>
+        <v>1767.1154903</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>330</v>
       </c>
       <c r="C331">
-        <v>1768.6841938</v>
+        <v>1768.6839515</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>331</v>
       </c>
       <c r="C332">
-        <v>1770.1694115</v>
+        <v>1770.1692605</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>332</v>
       </c>
       <c r="C333">
-        <v>1771.5765883</v>
+        <v>1771.576495</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>333</v>
       </c>
       <c r="C334">
-        <v>1772.9112396</v>
+        <v>1772.9111826</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>334</v>
       </c>
       <c r="C335">
-        <v>1774.179137</v>
+        <v>1774.1791026</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>335</v>
       </c>
       <c r="C336">
-        <v>1775.386099</v>
+        <v>1775.3860785</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>336</v>
       </c>
       <c r="C337">
-        <v>1776.5377839</v>
+        <v>1776.5377717</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>337</v>
       </c>
       <c r="C338">
-        <v>1777.6394959</v>
+        <v>1777.6394888</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>338</v>
       </c>
       <c r="C339">
-        <v>1778.6960158</v>
+        <v>1778.6960116</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>339</v>
       </c>
       <c r="C340">
-        <v>1779.7114645</v>
+        <v>1779.7114621</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>340</v>
       </c>
       <c r="C341">
-        <v>1780.6892072</v>
+        <v>1780.6892059</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>341</v>
       </c>
       <c r="C342">
-        <v>1781.631803</v>
+        <v>1781.6318023</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>342</v>
       </c>
       <c r="C343">
-        <v>1782.541</v>
+        <v>1782.5409996</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>343</v>
       </c>
       <c r="C344">
-        <v>1783.4177759</v>
+        <v>1783.4177757</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>344</v>
       </c>
       <c r="C345">
-        <v>1784.2624181</v>
+        <v>1784.2624179</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>346</v>
       </c>
       <c r="C347">
-        <v>1785.8536997</v>
+        <v>1785.8536996</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>348</v>
       </c>
       <c r="C349">
-        <v>1787.3081255</v>
+        <v>1787.3081254</v>
       </c>
     </row>
     <row r="350" spans="1:3">

--- a/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -1,52 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>season_day</t>
+    <t xml:space="preserve">wrapped_date</t>
   </si>
   <si>
-    <t>smoothed_cumul_gdd</t>
+    <t xml:space="preserve">season_day</t>
   </si>
   <si>
-    <t>wrapped_date</t>
+    <t xml:space="preserve">smoothed_cumul_gdd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,4367 +80,4123 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>42917</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>10.1054208</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>42918</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>10.6488464</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>42919</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>11.2250248</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>42920</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>11.8360834</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>42921</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>12.4842068</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>42922</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>13.1716023</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>42923</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>13.9004552</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>42924</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>14.6728732</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>42925</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>15.4908179</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>42926</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>16.356026</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>42927</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>17.2699193</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>42928</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>18.233507</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>42929</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>19.2472831</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>42930</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>20.311124</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>42931</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>21.4241912</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>42932</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>22.5848463</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>42933</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>23.7905841</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>42934</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>25.0379917</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>42935</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>26.3227385</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>42936</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>27.6396014</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>42937</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>28.9825292</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>42938</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>30.3447445</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>42939</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>31.7188824</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>42940</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>33.0971601</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>42941</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>34.4715717</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>42942</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>35.8340982</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>42943</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>37.176925</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>42944</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>38.4926556</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>42945</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>39.7745129</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>42946</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>41.0165199</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>42947</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>42.2136523</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>43.3619594</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>42949</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>44.4586477</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>42950</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>45.502129</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>42951</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>46.4920309</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>42952</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>47.4291733</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>42953</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>48.3155136</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>42954</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>49.1540654</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>42955</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>49.9487942</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>42956</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>50.7044969</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>42957</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>51.4266684</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>42958</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>52.1213615</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>42959</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>52.7950433</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>42960</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>53.4544526</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>42961</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>54.1064611</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>42962</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>54.7579413</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>42963</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>55.4156427</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>42964</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>56.0860783</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>42965</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>56.775422</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>42966</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>57.4894192</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>42967</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>58.2333101</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>42968</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>59.0117673</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>42969</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>59.8288489</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>42970</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>60.6879668</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>42971</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>61.5918722</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>42972</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>62.542658</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>42973</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>63.5417793</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>42974</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C59">
-        <v>64.59009039999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
+      <c r="C59" s="0" t="n">
+        <v>64.5900904</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>42975</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>65.6878995</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>42976</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>66.8350384</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>42977</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>68.0309458</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>42978</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C63">
-        <v>69.27476160000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2">
+      <c r="C63" s="0" t="n">
+        <v>69.2747616</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C64">
-        <v>70.56543000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2">
+      <c r="C64" s="0" t="n">
+        <v>70.56543</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
         <v>42980</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="C65">
-        <v>71.90180549999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2">
+      <c r="C65" s="0" t="n">
+        <v>71.9018055</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
         <v>42981</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="C66">
-        <v>73.28276150000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2">
+      <c r="C66" s="0" t="n">
+        <v>73.2827615</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
         <v>42982</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>74.7072938</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
         <v>42983</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>76.1746189</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
         <v>42984</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>77.6842616</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
         <v>42985</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>79.2361293</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
         <v>42986</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>80.830572</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
         <v>42987</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>82.468425</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
         <v>42988</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>84.1510341</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>42989</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>85.880263</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
         <v>42990</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>87.6584828</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>42991</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>89.4885432</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>42992</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>91.373728</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>42993</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>93.3176935</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>42994</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C79">
-        <v>95.32439239999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2">
+      <c r="C79" s="0" t="n">
+        <v>95.3243924</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>42995</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>97.3979835</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>42996</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>99.5427292</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>42997</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>101.7628827</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>42998</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>104.0625668</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>42999</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>106.4456494</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>108.9156182</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
         <v>43001</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>111.4754608</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
         <v>43002</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>114.1275558</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
         <v>43003</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>116.8735825</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
         <v>43004</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>119.7144548</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
         <v>43005</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>122.6502862</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
         <v>43006</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>125.6803925</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
         <v>43007</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>128.8033355</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>132.0170097</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>135.3187729</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
         <v>43010</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>138.705615</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
         <v>43011</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>142.1743612</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
         <v>43012</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>145.7218972</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
         <v>43013</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>149.3454064</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
         <v>43014</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>153.0426034</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
         <v>43015</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>156.8119494</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
         <v>43016</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>160.6528329</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
         <v>43017</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>164.5657027</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
         <v>43018</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>168.5521405</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>172.6148637</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
         <v>43020</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>176.7576554</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
         <v>43021</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0" t="n">
         <v>180.9852199</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
         <v>43022</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0" t="n">
         <v>185.302971</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
         <v>43023</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0" t="n">
         <v>189.7167603</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
         <v>43024</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>194.2325626</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
         <v>43025</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>198.8561331</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
         <v>43026</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0" t="n">
         <v>203.5926577</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
         <v>43027</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0" t="n">
         <v>208.4464156</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
         <v>43028</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0" t="n">
         <v>213.4204743</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
         <v>43029</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0" t="n">
         <v>218.5164342</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
         <v>43030</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0" t="n">
         <v>223.7342366</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
         <v>43031</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0" t="n">
         <v>229.0720459</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
         <v>43032</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0" t="n">
         <v>234.5262103</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
         <v>43033</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0" t="n">
         <v>240.0913024</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
         <v>43034</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0" t="n">
         <v>245.7602344</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
         <v>43035</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0" t="n">
         <v>251.5244405</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
         <v>43036</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0" t="n">
         <v>257.374114</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
         <v>43037</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0" t="n">
         <v>263.2984864</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
         <v>43038</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0" t="n">
         <v>269.2861327</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
         <v>43039</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0" t="n">
         <v>275.3252896</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0" t="n">
         <v>281.4041709</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
         <v>43041</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0" t="n">
         <v>287.5112714</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
         <v>43042</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0" t="n">
         <v>293.6356464</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
         <v>43043</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0" t="n">
         <v>299.7671624</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
         <v>43044</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0" t="n">
         <v>305.8967133</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
         <v>43045</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0" t="n">
         <v>312.0164</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
         <v>43046</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0" t="n">
         <v>318.1196728</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
         <v>43047</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0" t="n">
         <v>324.2014367</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
         <v>43048</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0" t="n">
         <v>330.2581222</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
         <v>43049</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0" t="n">
         <v>336.2877213</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
         <v>43050</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0" t="n">
         <v>342.2897922</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
         <v>43051</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0" t="n">
         <v>348.2654314</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
         <v>43052</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0" t="n">
         <v>354.2172173</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
         <v>43053</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0" t="n">
         <v>360.1491231</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
         <v>43054</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0" t="n">
         <v>366.0664025</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
         <v>43055</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0" t="n">
         <v>371.9754479</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
         <v>43056</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0" t="n">
         <v>377.8836246</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
         <v>43057</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0" t="n">
         <v>383.7990837</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
         <v>43058</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0" t="n">
         <v>389.7305573</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
         <v>43059</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0" t="n">
         <v>395.6871437</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
         <v>43060</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0" t="n">
         <v>401.6780856</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
         <v>43061</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0" t="n">
         <v>407.7125521</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
         <v>43062</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0" t="n">
         <v>413.7994278</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
         <v>43063</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0" t="n">
         <v>419.9471202</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
         <v>43064</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0" t="n">
         <v>426.1633879</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
         <v>43065</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0" t="n">
         <v>432.4551984</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
         <v>43066</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0" t="n">
         <v>438.8286166</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
         <v>43067</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0" t="n">
         <v>445.288728</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
         <v>43068</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0" t="n">
         <v>451.8395967</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
         <v>43069</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0" t="n">
         <v>458.4842566</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="2">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0" t="n">
         <v>465.2247337</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
         <v>43071</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0" t="n">
         <v>472.0620954</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
         <v>43072</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0" t="n">
         <v>478.9965221</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="2">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
         <v>43073</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0" t="n">
         <v>486.0273964</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="2">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
         <v>43074</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0" t="n">
         <v>493.1534042</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
         <v>43075</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0" t="n">
         <v>500.3726428</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="2">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
         <v>43076</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0" t="n">
         <v>507.6827323</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="2">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
         <v>43077</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="C162">
-        <v>515.0809261000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="2">
+      <c r="C162" s="0" t="n">
+        <v>515.0809261</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
         <v>43078</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0" t="n">
         <v>522.5642172</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
         <v>43079</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0" t="n">
         <v>530.129439</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
         <v>43080</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="C165">
-        <v>537.7733586000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2">
+      <c r="C165" s="0" t="n">
+        <v>537.7733586</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
         <v>43081</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0" t="n">
         <v>545.4927613</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
         <v>43082</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0" t="n">
         <v>553.2845261</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
         <v>43083</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0" t="n">
         <v>561.1456908</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
         <v>43084</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0" t="n">
         <v>569.0735074</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
         <v>43085</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="C170">
-        <v>577.0654853999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2">
+      <c r="C170" s="0" t="n">
+        <v>577.0654854</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
         <v>43086</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0" t="n">
         <v>585.1194235</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
         <v>43087</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0" t="n">
         <v>593.2334289</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
         <v>43088</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0" t="n">
         <v>601.4059228</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
         <v>43089</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0" t="n">
         <v>609.6356325</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
         <v>43090</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0" t="n">
         <v>617.9215696</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
         <v>43091</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0" t="n">
         <v>626.2629957</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
         <v>43092</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0" t="n">
         <v>634.6593764</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
         <v>43093</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0" t="n">
         <v>643.1103266</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
         <v>43094</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0" t="n">
         <v>651.6155497</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
         <v>43095</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0" t="n">
         <v>660.174775</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="2">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
         <v>43096</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0" t="n">
         <v>668.7876973</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
         <v>43097</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="C182">
-        <v>677.4539236000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2">
+      <c r="C182" s="0" t="n">
+        <v>677.4539236</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
         <v>43098</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0" t="n">
         <v>686.1729301</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="2">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
         <v>43099</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0" t="n">
         <v>694.9440356</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0" t="n">
         <v>703.7663907</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="2">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0" t="n">
         <v>712.6389884</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
         <v>43102</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0" t="n">
         <v>721.5606935</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="2">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="n">
         <v>43103</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0" t="n">
         <v>730.5302913</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="n">
         <v>43104</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0" t="n">
         <v>739.5465525</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="n">
         <v>43105</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="C190">
-        <v>748.6083106999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2">
+      <c r="C190" s="0" t="n">
+        <v>748.6083107</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="n">
         <v>43106</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0" t="n">
         <v>757.7145487</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="n">
         <v>43107</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0" t="n">
         <v>766.8644861</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="n">
         <v>43108</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0" t="n">
         <v>776.0576649</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="n">
         <v>43109</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0" t="n">
         <v>785.2940261</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
         <v>43110</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0" t="n">
         <v>794.5739724</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
         <v>43111</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0" t="n">
         <v>803.8984137</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
         <v>43112</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0" t="n">
         <v>813.2687899</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="2">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="n">
         <v>43113</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0" t="n">
         <v>822.6870723</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
         <v>43114</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0" t="n">
         <v>832.1557392</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="n">
         <v>43115</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0" t="n">
         <v>841.677729</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="n">
         <v>43116</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0" t="n">
         <v>851.2563706</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="n">
         <v>43117</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0" t="n">
         <v>860.8952942</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
         <v>43118</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0" t="n">
         <v>870.5983265</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="n">
         <v>43119</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0" t="n">
         <v>880.3693719</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="n">
         <v>43120</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="C205">
-        <v>890.2122859999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2">
+      <c r="C205" s="0" t="n">
+        <v>890.212286</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="n">
         <v>43121</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0" t="n">
         <v>900.1307441</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="n">
         <v>43122</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0" t="n">
         <v>910.1281082</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="n">
         <v>43123</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0" t="n">
         <v>920.2072959</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="n">
         <v>43124</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0" t="n">
         <v>930.3706549</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="n">
         <v>43125</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0" t="n">
         <v>940.6198441</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="n">
         <v>43126</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0" t="n">
         <v>950.955723</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="n">
         <v>43127</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="C212">
-        <v>961.3782521000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2">
+      <c r="C212" s="0" t="n">
+        <v>961.3782521</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="n">
         <v>43128</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0" t="n">
         <v>971.8864038</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="2">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="n">
         <v>43129</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0" t="n">
         <v>982.4780847</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="2">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="n">
         <v>43130</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="C215">
-        <v>993.1500708999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="2">
+      <c r="C215" s="0" t="n">
+        <v>993.1500709</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0" t="n">
         <v>1003.8979573</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="2">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0" t="n">
         <v>1014.7161209</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="2">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="n">
         <v>43133</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0" t="n">
         <v>1025.597702</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="2">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="n">
         <v>43134</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0" t="n">
         <v>1036.5346028</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="2">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="n">
         <v>43135</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0" t="n">
         <v>1047.5175088</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="2">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
         <v>43136</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0" t="n">
         <v>1058.535933</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="2">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
         <v>43137</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0" t="n">
         <v>1069.5782869</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="2">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
         <v>43138</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0" t="n">
         <v>1080.6319802</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="2">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
         <v>43139</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0" t="n">
         <v>1091.6835496</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="2">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
         <v>43140</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0" t="n">
         <v>1102.7188188</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="2">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
         <v>43141</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0" t="n">
         <v>1113.7230871</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="2">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="n">
         <v>43142</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0" t="n">
         <v>1124.6813447</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="2">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="n">
         <v>43143</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0" t="n">
         <v>1135.5785107</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="2">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="n">
         <v>43144</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0" t="n">
         <v>1146.3996876</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="2">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="n">
         <v>43145</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0" t="n">
         <v>1157.1304256</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="2">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="n">
         <v>43146</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0" t="n">
         <v>1167.7569866</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="2">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="n">
         <v>43147</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0" t="n">
         <v>1178.2666007</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="2">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="n">
         <v>43148</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0" t="n">
         <v>1188.647704</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="2">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
         <v>43149</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0" t="n">
         <v>1198.890149</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="2">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
         <v>43150</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0" t="n">
         <v>1208.9853788</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="2">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
         <v>43151</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0" t="n">
         <v>1218.9265581</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="2">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
         <v>43152</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0" t="n">
         <v>1228.708656</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="2">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
         <v>43153</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0" t="n">
         <v>1238.3284772</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="2">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
         <v>43154</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0" t="n">
         <v>1247.7846407</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="2">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
         <v>43155</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0" t="n">
         <v>1257.0775085</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="2">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
         <v>43156</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0" t="n">
         <v>1266.2090669</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="2">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
         <v>43157</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0" t="n">
         <v>1275.1827675</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="2">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
         <v>43158</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0" t="n">
         <v>1284.0033345</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="2">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
         <v>43159</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0" t="n">
         <v>1292.6765456</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="2">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0" t="n">
         <v>1301.2089974</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="2">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
         <v>43161</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0" t="n">
         <v>1309.607861</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="2">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="n">
         <v>43162</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0" t="n">
         <v>1317.8806378</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="2">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="n">
         <v>43163</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0" t="n">
         <v>1326.0349216</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="2">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="n">
         <v>43164</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0" t="n">
         <v>1334.0781729</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="2">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="n">
         <v>43165</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0" t="n">
         <v>1342.0175113</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="2">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="n">
         <v>43166</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0" t="n">
         <v>1349.8595285</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="2">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="n">
         <v>43167</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0" t="n">
         <v>1357.6101269</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="2">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
         <v>43168</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0" t="n">
         <v>1365.2743853</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="2">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
         <v>43169</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0" t="n">
         <v>1372.8564538</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="2">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
         <v>43170</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0" t="n">
         <v>1380.3594824</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="2">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
         <v>43171</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0" t="n">
         <v>1387.785584</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="2">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
         <v>43172</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0" t="n">
         <v>1395.1358346</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="2">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
         <v>43173</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0" t="n">
         <v>1402.4103156</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="2">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
         <v>43174</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0" t="n">
         <v>1409.6081963</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="2">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
         <v>43175</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0" t="n">
         <v>1416.7278629</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="2">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
         <v>43176</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0" t="n">
         <v>1423.7670894</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="2">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
         <v>43177</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="0" t="n">
         <v>1430.7232523</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="2">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
         <v>43178</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="0" t="n">
         <v>1437.5935819</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="2">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
         <v>43179</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0" t="n">
         <v>1444.3754466</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="2">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
         <v>43180</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="0" t="n">
         <v>1451.0666585</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="2">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
         <v>43181</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0" t="n">
         <v>1457.66579</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="2">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
         <v>43182</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="0" t="n">
         <v>1464.1724887</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="2">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
         <v>43183</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0" t="n">
         <v>1470.5877758</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="2">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
         <v>43184</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0" t="n">
         <v>1476.9143126</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="2">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
         <v>43185</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0" t="n">
         <v>1483.1566233</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="2">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
         <v>43186</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0" t="n">
         <v>1489.3212593</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="2">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
         <v>43187</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0" t="n">
         <v>1495.4168946</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="2">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
         <v>43188</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0" t="n">
         <v>1501.4543441</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="2">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
         <v>43189</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0" t="n">
         <v>1507.4464959</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="2">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0" t="n">
         <v>1513.4081532</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="2">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0" t="n">
         <v>1519.355781</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="2">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
         <v>43192</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0" t="n">
         <v>1525.3071537</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="2">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
         <v>43193</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0" t="n">
         <v>1531.2809023</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="2">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
         <v>43194</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0" t="n">
         <v>1537.2959586</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="2">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
         <v>43195</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0" t="n">
         <v>1543.3708979</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="2">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
         <v>43196</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0" t="n">
         <v>1549.5231851</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="2">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
         <v>43197</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0" t="n">
         <v>1555.7683354</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="2">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
         <v>43198</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0" t="n">
         <v>1562.1190095</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="2">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
         <v>43199</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="0" t="n">
         <v>1568.5840757</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="2">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
         <v>43200</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0" t="n">
         <v>1575.1676859</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="2">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
         <v>43201</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0" t="n">
         <v>1581.8684297</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="2">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
         <v>43202</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0" t="n">
         <v>1588.678643</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="2">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
         <v>43203</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0" t="n">
         <v>1595.5839611</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="2">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
         <v>43204</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0" t="n">
         <v>1602.5632056</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="2">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
         <v>43205</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0" t="n">
         <v>1609.5886846</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="2">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
         <v>43206</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0" t="n">
         <v>1616.6269556</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="2">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
         <v>43207</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0" t="n">
         <v>1623.6400627</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="2">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
         <v>43208</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="0" t="n">
         <v>1630.5871985</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="2">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
         <v>43209</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0" t="n">
         <v>1637.426687</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="2">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
         <v>43210</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0" t="n">
         <v>1644.1181261</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="2">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
         <v>43211</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="0" t="n">
         <v>1650.6244966</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="2">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
         <v>43212</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="0" t="n">
         <v>1656.9140361</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="2">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
         <v>43213</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="0" t="n">
         <v>1662.9616992</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="2">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
         <v>43214</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="0" t="n">
         <v>1668.7500769</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="2">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
         <v>43215</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="0" t="n">
         <v>299</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="0" t="n">
         <v>1674.2697188</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="2">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
         <v>43216</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="0" t="n">
         <v>1679.5188728</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="2">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
         <v>43217</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="0" t="n">
         <v>1684.5027252</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="2">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
         <v>43218</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="0" t="n">
         <v>1689.2322657</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="2">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
         <v>43219</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="0" t="n">
         <v>1693.7229275</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="2">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
         <v>43220</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="0" t="n">
         <v>1697.9931473</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="2">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="0" t="n">
         <v>1702.0629745</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="2">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
         <v>43222</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="0" t="n">
         <v>306</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="0" t="n">
         <v>1705.9528234</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="2">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
         <v>43223</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="0" t="n">
         <v>1709.6824334</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="2">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
         <v>43224</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="0" t="n">
         <v>1713.2700639</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="2">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
         <v>43225</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="0" t="n">
         <v>309</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="0" t="n">
         <v>1716.7319282</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="2">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
         <v>43226</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="0" t="n">
         <v>310</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="0" t="n">
         <v>1720.0818497</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="2">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
         <v>43227</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="0" t="n">
         <v>1723.3311083</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="2">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
         <v>43228</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="0" t="n">
         <v>1726.4884454</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="2">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
         <v>43229</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="0" t="n">
         <v>1729.5601887</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="2">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
         <v>43230</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="0" t="n">
         <v>1732.5504637</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="2">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
         <v>43231</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="0" t="n">
         <v>1735.4614647</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="2">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
         <v>43232</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="0" t="n">
         <v>1738.2937585</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="2">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
         <v>43233</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="0" t="n">
         <v>1741.0466056</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="2">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
         <v>43234</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="0" t="n">
         <v>1743.7182826</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="2">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
         <v>43235</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="0" t="n">
         <v>319</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="0" t="n">
         <v>1746.3063985</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="2">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
         <v>43236</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="0" t="n">
         <v>1748.8081947</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="2">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
         <v>43237</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="0" t="n">
         <v>1751.2208265</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="2">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
         <v>43238</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="0" t="n">
         <v>1753.5416192</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="2">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
         <v>43239</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="0" t="n">
         <v>323</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="0" t="n">
         <v>1755.7682959</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="2">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
         <v>43240</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="0" t="n">
         <v>1757.8991721</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="2">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
         <v>43241</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="0" t="n">
         <v>1759.9333145</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="2">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
         <v>43242</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="0" t="n">
         <v>1761.8706581</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="2">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
         <v>43243</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="0" t="n">
         <v>1763.7120799</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="2">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
         <v>43244</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="0" t="n">
         <v>1765.4594256</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="2">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
         <v>43245</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="0" t="n">
         <v>329</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="0" t="n">
         <v>1767.1154903</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="2">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
         <v>43246</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="0" t="n">
         <v>1768.6839515</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="2">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
         <v>43247</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="0" t="n">
         <v>331</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="0" t="n">
         <v>1770.1692605</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="2">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
         <v>43248</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="0" t="n">
         <v>1771.576495</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="2">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
         <v>43249</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="0" t="n">
         <v>1772.9111826</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="2">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
         <v>43250</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="0" t="n">
         <v>1774.1791026</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="2">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
         <v>43251</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="0" t="n">
         <v>1775.3860785</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="2">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="0" t="n">
         <v>336</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="0" t="n">
         <v>1776.5377717</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="2">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
         <v>43253</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="0" t="n">
         <v>1777.6394888</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="2">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
         <v>43254</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="0" t="n">
         <v>338</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="0" t="n">
         <v>1778.6960116</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="2">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
         <v>43255</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="0" t="n">
         <v>1779.7114621</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="2">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
         <v>43256</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="0" t="n">
         <v>1780.6892059</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="2">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
         <v>43257</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="0" t="n">
         <v>1781.6318023</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="2">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
         <v>43258</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="0" t="n">
         <v>1782.5409996</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="2">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
         <v>43259</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="0" t="n">
         <v>1783.4177757</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="2">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
         <v>43260</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="0" t="n">
         <v>1784.2624179</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="2">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
         <v>43261</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="0" t="n">
         <v>1785.0746364</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="2">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
         <v>43262</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="0" t="n">
         <v>1785.8536996</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="2">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
         <v>43263</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="0" t="n">
         <v>347</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="0" t="n">
         <v>1786.5985841</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="2">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
         <v>43264</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="0" t="n">
         <v>348</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="0" t="n">
         <v>1787.3081254</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="2">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
         <v>43265</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="0" t="n">
         <v>349</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="0" t="n">
         <v>1787.9811619</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="2">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
         <v>43266</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="0" t="n">
         <v>1788.6166621</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="2">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
         <v>43267</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="0" t="n">
         <v>351</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="0" t="n">
         <v>1789.2138296</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="2">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
         <v>43268</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="0" t="n">
         <v>352</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="0" t="n">
         <v>1789.7721814</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="2">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="n">
         <v>43269</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="0" t="n">
         <v>353</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="0" t="n">
         <v>1790.2915979</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="2">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="n">
         <v>43270</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="0" t="n">
         <v>354</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="0" t="n">
         <v>1790.7723457</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="2">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="n">
         <v>43271</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="0" t="n">
         <v>1791.215075</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="2">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
         <v>43272</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="0" t="n">
         <v>356</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="0" t="n">
         <v>1791.6207972</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="2">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
         <v>43273</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="0" t="n">
         <v>357</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="0" t="n">
         <v>1791.9908455</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="2">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
         <v>43274</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="0" t="n">
         <v>358</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="0" t="n">
         <v>1792.3268251</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="2">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
         <v>43275</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="0" t="n">
         <v>359</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="0" t="n">
         <v>1792.6305569</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="2">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
         <v>43276</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="0" t="n">
         <v>1792.9040192</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="2">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
         <v>43277</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="0" t="n">
         <v>1793.1492913</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="2">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
         <v>43278</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="0" t="n">
         <v>362</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="0" t="n">
         <v>1793.368501</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="2">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
         <v>43279</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="0" t="n">
         <v>363</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="0" t="n">
         <v>1793.5637784</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="2">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
         <v>43280</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="0" t="n">
         <v>364</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="0" t="n">
         <v>1793.7372166</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="2">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="0" t="n">
         <v>365</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="0" t="n">
         <v>1793.89084</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -1,74 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">wrapped_date</t>
+    <t>season_day</t>
   </si>
   <si>
-    <t xml:space="preserve">season_day</t>
+    <t>smoothed_cumul_gdd</t>
   </si>
   <si>
-    <t xml:space="preserve">smoothed_cumul_gdd</t>
+    <t>wrapped_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,4123 +58,4367 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10.1054208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42918</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>42917</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>10.1054208</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>42918</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>10.6488464</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
         <v>42919</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>11.2250248</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>42920</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>11.8360834</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>42921</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>12.4842068</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>42922</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>13.1716023</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>42923</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>13.9004552</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>42924</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>14.6728732</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>42925</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>15.4908179</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>42926</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>16.356026</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>42927</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>17.2699193</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>42928</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>18.233507</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>42929</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>19.2472831</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>42930</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>20.311124</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>42931</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>21.4241912</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>42932</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>22.5848463</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>42933</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>23.7905841</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>42934</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>25.0379917</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>42935</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>26.3227385</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>42936</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>27.6396014</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>42937</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>28.9825292</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>42938</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>30.3447445</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>42939</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>31.7188824</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>42940</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>33.0971601</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>42941</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>34.4715717</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>42942</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>35.8340982</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>42943</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>37.176925</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>42944</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>38.4926556</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>42945</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>39.7745129</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>42946</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>41.0165199</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>42947</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>42.2136523</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>42948</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>43.3619594</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
         <v>42949</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>44.4586477</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>42950</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>45.502129</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>42951</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>46.4920309</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>42952</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>47.4291733</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>42953</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>48.3155136</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>42954</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>49.1540654</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>42955</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>49.9487942</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>42956</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>50.7044969</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>42957</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>51.4266684</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>42958</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>52.1213615</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>42959</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>52.7950433</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
         <v>42960</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>53.4544526</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>42961</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>54.1064611</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>42962</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>54.7579413</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>42963</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>55.4156427</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>42964</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>56.0860783</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
         <v>42965</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>56.775422</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>42966</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>57.4894192</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
         <v>42967</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>58.2333101</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
         <v>42968</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>59.0117673</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
         <v>42969</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>59.8288489</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
         <v>42970</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>60.6879668</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
         <v>42971</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>61.5918722</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
         <v>42972</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>62.542658</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
         <v>42973</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>57</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>63.5417793</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
         <v>42974</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>58</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>64.5900904</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+      <c r="C59">
+        <v>64.59009039999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
         <v>42975</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>65.6878995</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
         <v>42976</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>60</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>66.8350384</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
         <v>42977</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>61</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>68.0309458</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
         <v>42978</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>62</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>69.2747616</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+      <c r="C63">
+        <v>69.27476160000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>42979</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>63</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <v>70.56543</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+      <c r="C64">
+        <v>70.56543000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
         <v>42980</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>64</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>71.9018055</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="C65">
+        <v>71.90180549999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
         <v>42981</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>65</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <v>73.2827615</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+      <c r="C66">
+        <v>73.28276150000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
         <v>42982</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>66</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>74.7072938</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
         <v>42983</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>67</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>76.1746189</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
         <v>42984</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>68</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>77.6842616</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
         <v>42985</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>69</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>79.2361293</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
         <v>42986</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>70</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>80.830572</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
         <v>42987</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>71</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>82.468425</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
         <v>42988</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>72</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>84.1510341</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
         <v>42989</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>73</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>85.880263</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
         <v>42990</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>74</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>87.6584828</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
         <v>42991</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>89.4885432</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
         <v>42992</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>76</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>91.373728</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
         <v>42993</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>77</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>93.3176935</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
         <v>42994</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>78</v>
       </c>
-      <c r="C79" s="0" t="n">
-        <v>95.3243924</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+      <c r="C79">
+        <v>95.32439239999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
         <v>42995</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>79</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>97.3979835</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
         <v>42996</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>80</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>99.5427292</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
         <v>42997</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>81</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>101.7628827</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
         <v>42998</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>82</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>104.0625668</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
         <v>42999</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>83</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>106.4456494</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
         <v>43000</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>84</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>108.9156182</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
         <v>43001</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>85</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>111.4754608</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
         <v>43002</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>86</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>114.1275558</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
         <v>43003</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>87</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>116.8735825</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
         <v>43004</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>88</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>119.7144548</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
         <v>43005</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>89</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>122.6502862</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
         <v>43006</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>90</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>125.6803925</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
         <v>43007</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>91</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>128.8033355</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
         <v>43008</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>92</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>132.0170097</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
         <v>43009</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>93</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>135.3187729</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
         <v>43010</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>94</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>138.705615</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
         <v>43011</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>95</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>142.1743612</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
         <v>43012</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>96</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>145.7218972</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
         <v>43013</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>97</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>149.3454064</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
         <v>43014</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>98</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>153.0426034</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
         <v>43015</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>99</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>156.8119494</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
         <v>43016</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>100</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>160.6528329</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
         <v>43017</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>101</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>164.5657027</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
         <v>43018</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>102</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>168.5521405</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
         <v>43019</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>103</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>172.6148637</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
         <v>43020</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>104</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>176.7576554</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
         <v>43021</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>105</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>180.9852199</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
         <v>43022</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>106</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>185.302971</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
         <v>43023</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>107</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>189.7167603</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
         <v>43024</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>108</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109">
         <v>194.2325626</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
         <v>43025</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>109</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>198.8561331</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
         <v>43026</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111">
         <v>110</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>203.5926577</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
         <v>43027</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112">
         <v>111</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>208.4464156</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
         <v>43028</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113">
         <v>112</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>213.4204743</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
         <v>43029</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114">
         <v>113</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114">
         <v>218.5164342</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
         <v>43030</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>114</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115">
         <v>223.7342366</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
         <v>43031</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116">
         <v>115</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116">
         <v>229.0720459</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
         <v>43032</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117">
         <v>116</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117">
         <v>234.5262103</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
         <v>43033</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118">
         <v>117</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118">
         <v>240.0913024</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
         <v>43034</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119">
         <v>118</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119">
         <v>245.7602344</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
         <v>43035</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120">
         <v>119</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120">
         <v>251.5244405</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
         <v>43036</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121">
         <v>120</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121">
         <v>257.374114</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
         <v>43037</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122">
         <v>121</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>263.2984864</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
         <v>43038</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123">
         <v>122</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123">
         <v>269.2861327</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
         <v>43039</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124">
         <v>123</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124">
         <v>275.3252896</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
         <v>43040</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125">
         <v>124</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>281.4041709</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
         <v>43041</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126">
         <v>125</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126">
         <v>287.5112714</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
         <v>43042</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127">
         <v>126</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127">
         <v>293.6356464</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
         <v>43043</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128">
         <v>127</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128">
         <v>299.7671624</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
         <v>43044</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129">
         <v>128</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>305.8967133</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
         <v>43045</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130">
         <v>129</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130">
         <v>312.0164</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
         <v>43046</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131">
         <v>130</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131">
         <v>318.1196728</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
         <v>43047</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132">
         <v>131</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>324.2014367</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
         <v>43048</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133">
         <v>132</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133">
         <v>330.2581222</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
         <v>43049</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134">
         <v>133</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134">
         <v>336.2877213</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
         <v>43050</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135">
         <v>134</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135">
         <v>342.2897922</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
         <v>43051</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136">
         <v>135</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136">
         <v>348.2654314</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
         <v>43052</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137">
         <v>136</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137">
         <v>354.2172173</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
         <v>43053</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138">
         <v>137</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138">
         <v>360.1491231</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
         <v>43054</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139">
         <v>138</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139">
         <v>366.0664025</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
         <v>43055</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140">
         <v>139</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140">
         <v>371.9754479</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
         <v>43056</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141">
         <v>140</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141">
         <v>377.8836246</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
         <v>43057</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142">
         <v>141</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142">
         <v>383.7990837</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
         <v>43058</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143">
         <v>142</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143">
         <v>389.7305573</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
         <v>43059</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144">
         <v>143</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144">
         <v>395.6871437</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
         <v>43060</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145">
         <v>144</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145">
         <v>401.6780856</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
         <v>43061</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146">
         <v>145</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146">
         <v>407.7125521</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
         <v>43062</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147">
         <v>146</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147">
         <v>413.7994278</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
         <v>43063</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148">
         <v>147</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148">
         <v>419.9471202</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
         <v>43064</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149">
         <v>148</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149">
         <v>426.1633879</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
         <v>43065</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150">
         <v>149</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150">
         <v>432.4551984</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
         <v>43066</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151">
         <v>150</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151">
         <v>438.8286166</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
         <v>43067</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152">
         <v>151</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152">
         <v>445.288728</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
         <v>43068</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153">
         <v>152</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153">
         <v>451.8395967</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
         <v>43069</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154">
         <v>153</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154">
         <v>458.4842566</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
         <v>43070</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155">
         <v>154</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155">
         <v>465.2247337</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
         <v>43071</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156">
         <v>155</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156">
         <v>472.0620954</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
         <v>43072</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157">
         <v>156</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157">
         <v>478.9965221</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
         <v>43073</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158">
         <v>157</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158">
         <v>486.0273964</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
         <v>43074</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159">
         <v>158</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159">
         <v>493.1534042</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
         <v>43075</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160">
         <v>159</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160">
         <v>500.3726428</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
         <v>43076</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161">
         <v>160</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161">
         <v>507.6827323</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
         <v>43077</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162">
         <v>161</v>
       </c>
-      <c r="C162" s="0" t="n">
-        <v>515.0809261</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
+      <c r="C162">
+        <v>515.0809261000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
         <v>43078</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163">
         <v>162</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163">
         <v>522.5642172</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
         <v>43079</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164">
         <v>163</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164">
         <v>530.129439</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
         <v>43080</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165">
         <v>164</v>
       </c>
-      <c r="C165" s="0" t="n">
-        <v>537.7733586</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
+      <c r="C165">
+        <v>537.7733586000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
         <v>43081</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166">
         <v>165</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166">
         <v>545.4927613</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
         <v>43082</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167">
         <v>166</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167">
         <v>553.2845261</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
         <v>43083</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168">
         <v>167</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168">
         <v>561.1456908</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
         <v>43084</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169">
         <v>168</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169">
         <v>569.0735074</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
         <v>43085</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170">
         <v>169</v>
       </c>
-      <c r="C170" s="0" t="n">
-        <v>577.0654854</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+      <c r="C170">
+        <v>577.0654853999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
         <v>43086</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171">
         <v>170</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171">
         <v>585.1194235</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
         <v>43087</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172">
         <v>171</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172">
         <v>593.2334289</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
         <v>43088</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173">
         <v>172</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173">
         <v>601.4059228</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
         <v>43089</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174">
         <v>173</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174">
         <v>609.6356325</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
         <v>43090</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175">
         <v>174</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175">
         <v>617.9215696</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
         <v>43091</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176">
         <v>175</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176">
         <v>626.2629957</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
         <v>43092</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177">
         <v>176</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177">
         <v>634.6593764</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
         <v>43093</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178">
         <v>177</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178">
         <v>643.1103266</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
         <v>43094</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179">
         <v>178</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179">
         <v>651.6155497</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
         <v>43095</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180">
         <v>179</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180">
         <v>660.174775</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
         <v>43096</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181">
         <v>180</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181">
         <v>668.7876973</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
         <v>43097</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182">
         <v>181</v>
       </c>
-      <c r="C182" s="0" t="n">
-        <v>677.4539236</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="n">
+      <c r="C182">
+        <v>677.4539236000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
         <v>43098</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183">
         <v>182</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183">
         <v>686.1729301</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
         <v>43099</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184">
         <v>183</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184">
         <v>694.9440356</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
         <v>43100</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185">
         <v>184</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185">
         <v>703.7663907</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
         <v>43101</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186">
         <v>185</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186">
         <v>712.6389884</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
         <v>43102</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187">
         <v>186</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187">
         <v>721.5606935</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
         <v>43103</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188">
         <v>187</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188">
         <v>730.5302913</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
         <v>43104</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189">
         <v>188</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189">
         <v>739.5465525</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
         <v>43105</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190">
         <v>189</v>
       </c>
-      <c r="C190" s="0" t="n">
-        <v>748.6083107</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="n">
+      <c r="C190">
+        <v>748.6083106999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
         <v>43106</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191">
         <v>190</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191">
         <v>757.7145487</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
         <v>43107</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192">
         <v>191</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192">
         <v>766.8644861</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
         <v>43108</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193">
         <v>192</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193">
         <v>776.0576649</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
         <v>43109</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194">
         <v>193</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194">
         <v>785.2940261</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
         <v>43110</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195">
         <v>194</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195">
         <v>794.5739724</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
         <v>43111</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196">
         <v>195</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196">
         <v>803.8984137</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
         <v>43112</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197">
         <v>196</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197">
         <v>813.2687899</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
         <v>43113</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198">
         <v>197</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198">
         <v>822.6870723</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
         <v>43114</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199">
         <v>198</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199">
         <v>832.1557392</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
         <v>43115</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200">
         <v>199</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200">
         <v>841.677729</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
         <v>43116</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201">
         <v>200</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201">
         <v>851.2563706</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
         <v>43117</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202">
         <v>201</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202">
         <v>860.8952942</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
         <v>43118</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203">
         <v>202</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203">
         <v>870.5983265</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
         <v>43119</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204">
         <v>203</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204">
         <v>880.3693719</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
         <v>43120</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205">
         <v>204</v>
       </c>
-      <c r="C205" s="0" t="n">
-        <v>890.212286</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="n">
+      <c r="C205">
+        <v>890.2122859999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
         <v>43121</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206">
         <v>205</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206">
         <v>900.1307441</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
         <v>43122</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207">
         <v>206</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207">
         <v>910.1281082</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
         <v>43123</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208">
         <v>207</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208">
         <v>920.2072959</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
         <v>43124</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209">
         <v>208</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209">
         <v>930.3706549</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
         <v>43125</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210">
         <v>209</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210">
         <v>940.6198441</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
         <v>43126</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211">
         <v>210</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211">
         <v>950.955723</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
         <v>43127</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212">
         <v>211</v>
       </c>
-      <c r="C212" s="0" t="n">
-        <v>961.3782521</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="n">
+      <c r="C212">
+        <v>961.3782521000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
         <v>43128</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213">
         <v>212</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213">
         <v>971.8864038</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
         <v>43129</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214">
         <v>213</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214">
         <v>982.4780847</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
         <v>43130</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215">
         <v>214</v>
       </c>
-      <c r="C215" s="0" t="n">
-        <v>993.1500709</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="n">
+      <c r="C215">
+        <v>993.1500708999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
         <v>43131</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216">
         <v>215</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216">
         <v>1003.8979573</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
         <v>43132</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B217">
         <v>216</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217">
         <v>1014.7161209</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
         <v>43133</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B218">
         <v>217</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218">
         <v>1025.597702</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
         <v>43134</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B219">
         <v>218</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219">
         <v>1036.5346028</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
         <v>43135</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B220">
         <v>219</v>
       </c>
-      <c r="C220" s="0" t="n">
+      <c r="C220">
         <v>1047.5175088</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
         <v>43136</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B221">
         <v>220</v>
       </c>
-      <c r="C221" s="0" t="n">
+      <c r="C221">
         <v>1058.535933</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
         <v>43137</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B222">
         <v>221</v>
       </c>
-      <c r="C222" s="0" t="n">
+      <c r="C222">
         <v>1069.5782869</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
         <v>43138</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B223">
         <v>222</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C223">
         <v>1080.6319802</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
         <v>43139</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B224">
         <v>223</v>
       </c>
-      <c r="C224" s="0" t="n">
+      <c r="C224">
         <v>1091.6835496</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
         <v>43140</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B225">
         <v>224</v>
       </c>
-      <c r="C225" s="0" t="n">
+      <c r="C225">
         <v>1102.7188188</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
         <v>43141</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B226">
         <v>225</v>
       </c>
-      <c r="C226" s="0" t="n">
+      <c r="C226">
         <v>1113.7230871</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
         <v>43142</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B227">
         <v>226</v>
       </c>
-      <c r="C227" s="0" t="n">
+      <c r="C227">
         <v>1124.6813447</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
         <v>43143</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B228">
         <v>227</v>
       </c>
-      <c r="C228" s="0" t="n">
+      <c r="C228">
         <v>1135.5785107</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
         <v>43144</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B229">
         <v>228</v>
       </c>
-      <c r="C229" s="0" t="n">
+      <c r="C229">
         <v>1146.3996876</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
         <v>43145</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B230">
         <v>229</v>
       </c>
-      <c r="C230" s="0" t="n">
+      <c r="C230">
         <v>1157.1304256</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
         <v>43146</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B231">
         <v>230</v>
       </c>
-      <c r="C231" s="0" t="n">
+      <c r="C231">
         <v>1167.7569866</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
         <v>43147</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B232">
         <v>231</v>
       </c>
-      <c r="C232" s="0" t="n">
+      <c r="C232">
         <v>1178.2666007</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
         <v>43148</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B233">
         <v>232</v>
       </c>
-      <c r="C233" s="0" t="n">
+      <c r="C233">
         <v>1188.647704</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
         <v>43149</v>
       </c>
-      <c r="B234" s="0" t="n">
+      <c r="B234">
         <v>233</v>
       </c>
-      <c r="C234" s="0" t="n">
+      <c r="C234">
         <v>1198.890149</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
         <v>43150</v>
       </c>
-      <c r="B235" s="0" t="n">
+      <c r="B235">
         <v>234</v>
       </c>
-      <c r="C235" s="0" t="n">
+      <c r="C235">
         <v>1208.9853788</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
         <v>43151</v>
       </c>
-      <c r="B236" s="0" t="n">
+      <c r="B236">
         <v>235</v>
       </c>
-      <c r="C236" s="0" t="n">
+      <c r="C236">
         <v>1218.9265581</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
         <v>43152</v>
       </c>
-      <c r="B237" s="0" t="n">
+      <c r="B237">
         <v>236</v>
       </c>
-      <c r="C237" s="0" t="n">
+      <c r="C237">
         <v>1228.708656</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
         <v>43153</v>
       </c>
-      <c r="B238" s="0" t="n">
+      <c r="B238">
         <v>237</v>
       </c>
-      <c r="C238" s="0" t="n">
+      <c r="C238">
         <v>1238.3284772</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
         <v>43154</v>
       </c>
-      <c r="B239" s="0" t="n">
+      <c r="B239">
         <v>238</v>
       </c>
-      <c r="C239" s="0" t="n">
+      <c r="C239">
         <v>1247.7846407</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
         <v>43155</v>
       </c>
-      <c r="B240" s="0" t="n">
+      <c r="B240">
         <v>239</v>
       </c>
-      <c r="C240" s="0" t="n">
+      <c r="C240">
         <v>1257.0775085</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
         <v>43156</v>
       </c>
-      <c r="B241" s="0" t="n">
+      <c r="B241">
         <v>240</v>
       </c>
-      <c r="C241" s="0" t="n">
+      <c r="C241">
         <v>1266.2090669</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
         <v>43157</v>
       </c>
-      <c r="B242" s="0" t="n">
+      <c r="B242">
         <v>241</v>
       </c>
-      <c r="C242" s="0" t="n">
+      <c r="C242">
         <v>1275.1827675</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
         <v>43158</v>
       </c>
-      <c r="B243" s="0" t="n">
+      <c r="B243">
         <v>242</v>
       </c>
-      <c r="C243" s="0" t="n">
+      <c r="C243">
         <v>1284.0033345</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
         <v>43159</v>
       </c>
-      <c r="B244" s="0" t="n">
+      <c r="B244">
         <v>243</v>
       </c>
-      <c r="C244" s="0" t="n">
+      <c r="C244">
         <v>1292.6765456</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
         <v>43160</v>
       </c>
-      <c r="B245" s="0" t="n">
+      <c r="B245">
         <v>244</v>
       </c>
-      <c r="C245" s="0" t="n">
+      <c r="C245">
         <v>1301.2089974</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
         <v>43161</v>
       </c>
-      <c r="B246" s="0" t="n">
+      <c r="B246">
         <v>245</v>
       </c>
-      <c r="C246" s="0" t="n">
+      <c r="C246">
         <v>1309.607861</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
         <v>43162</v>
       </c>
-      <c r="B247" s="0" t="n">
+      <c r="B247">
         <v>246</v>
       </c>
-      <c r="C247" s="0" t="n">
+      <c r="C247">
         <v>1317.8806378</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
         <v>43163</v>
       </c>
-      <c r="B248" s="0" t="n">
+      <c r="B248">
         <v>247</v>
       </c>
-      <c r="C248" s="0" t="n">
+      <c r="C248">
         <v>1326.0349216</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
         <v>43164</v>
       </c>
-      <c r="B249" s="0" t="n">
+      <c r="B249">
         <v>248</v>
       </c>
-      <c r="C249" s="0" t="n">
+      <c r="C249">
         <v>1334.0781729</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
         <v>43165</v>
       </c>
-      <c r="B250" s="0" t="n">
+      <c r="B250">
         <v>249</v>
       </c>
-      <c r="C250" s="0" t="n">
+      <c r="C250">
         <v>1342.0175113</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
         <v>43166</v>
       </c>
-      <c r="B251" s="0" t="n">
+      <c r="B251">
         <v>250</v>
       </c>
-      <c r="C251" s="0" t="n">
+      <c r="C251">
         <v>1349.8595285</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
         <v>43167</v>
       </c>
-      <c r="B252" s="0" t="n">
+      <c r="B252">
         <v>251</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C252">
         <v>1357.6101269</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
         <v>43168</v>
       </c>
-      <c r="B253" s="0" t="n">
+      <c r="B253">
         <v>252</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C253">
         <v>1365.2743853</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
         <v>43169</v>
       </c>
-      <c r="B254" s="0" t="n">
+      <c r="B254">
         <v>253</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C254">
         <v>1372.8564538</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
         <v>43170</v>
       </c>
-      <c r="B255" s="0" t="n">
+      <c r="B255">
         <v>254</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C255">
         <v>1380.3594824</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
         <v>43171</v>
       </c>
-      <c r="B256" s="0" t="n">
+      <c r="B256">
         <v>255</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C256">
         <v>1387.785584</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
         <v>43172</v>
       </c>
-      <c r="B257" s="0" t="n">
+      <c r="B257">
         <v>256</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C257">
         <v>1395.1358346</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
         <v>43173</v>
       </c>
-      <c r="B258" s="0" t="n">
+      <c r="B258">
         <v>257</v>
       </c>
-      <c r="C258" s="0" t="n">
+      <c r="C258">
         <v>1402.4103156</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
         <v>43174</v>
       </c>
-      <c r="B259" s="0" t="n">
+      <c r="B259">
         <v>258</v>
       </c>
-      <c r="C259" s="0" t="n">
+      <c r="C259">
         <v>1409.6081963</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
         <v>43175</v>
       </c>
-      <c r="B260" s="0" t="n">
+      <c r="B260">
         <v>259</v>
       </c>
-      <c r="C260" s="0" t="n">
+      <c r="C260">
         <v>1416.7278629</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
         <v>43176</v>
       </c>
-      <c r="B261" s="0" t="n">
+      <c r="B261">
         <v>260</v>
       </c>
-      <c r="C261" s="0" t="n">
+      <c r="C261">
         <v>1423.7670894</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
         <v>43177</v>
       </c>
-      <c r="B262" s="0" t="n">
+      <c r="B262">
         <v>261</v>
       </c>
-      <c r="C262" s="0" t="n">
+      <c r="C262">
         <v>1430.7232523</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
         <v>43178</v>
       </c>
-      <c r="B263" s="0" t="n">
+      <c r="B263">
         <v>262</v>
       </c>
-      <c r="C263" s="0" t="n">
+      <c r="C263">
         <v>1437.5935819</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
         <v>43179</v>
       </c>
-      <c r="B264" s="0" t="n">
+      <c r="B264">
         <v>263</v>
       </c>
-      <c r="C264" s="0" t="n">
+      <c r="C264">
         <v>1444.3754466</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
         <v>43180</v>
       </c>
-      <c r="B265" s="0" t="n">
+      <c r="B265">
         <v>264</v>
       </c>
-      <c r="C265" s="0" t="n">
+      <c r="C265">
         <v>1451.0666585</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
         <v>43181</v>
       </c>
-      <c r="B266" s="0" t="n">
+      <c r="B266">
         <v>265</v>
       </c>
-      <c r="C266" s="0" t="n">
+      <c r="C266">
         <v>1457.66579</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
         <v>43182</v>
       </c>
-      <c r="B267" s="0" t="n">
+      <c r="B267">
         <v>266</v>
       </c>
-      <c r="C267" s="0" t="n">
+      <c r="C267">
         <v>1464.1724887</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
         <v>43183</v>
       </c>
-      <c r="B268" s="0" t="n">
+      <c r="B268">
         <v>267</v>
       </c>
-      <c r="C268" s="0" t="n">
+      <c r="C268">
         <v>1470.5877758</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
         <v>43184</v>
       </c>
-      <c r="B269" s="0" t="n">
+      <c r="B269">
         <v>268</v>
       </c>
-      <c r="C269" s="0" t="n">
+      <c r="C269">
         <v>1476.9143126</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
         <v>43185</v>
       </c>
-      <c r="B270" s="0" t="n">
+      <c r="B270">
         <v>269</v>
       </c>
-      <c r="C270" s="0" t="n">
+      <c r="C270">
         <v>1483.1566233</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
         <v>43186</v>
       </c>
-      <c r="B271" s="0" t="n">
+      <c r="B271">
         <v>270</v>
       </c>
-      <c r="C271" s="0" t="n">
+      <c r="C271">
         <v>1489.3212593</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
         <v>43187</v>
       </c>
-      <c r="B272" s="0" t="n">
+      <c r="B272">
         <v>271</v>
       </c>
-      <c r="C272" s="0" t="n">
+      <c r="C272">
         <v>1495.4168946</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
         <v>43188</v>
       </c>
-      <c r="B273" s="0" t="n">
+      <c r="B273">
         <v>272</v>
       </c>
-      <c r="C273" s="0" t="n">
+      <c r="C273">
         <v>1501.4543441</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
         <v>43189</v>
       </c>
-      <c r="B274" s="0" t="n">
+      <c r="B274">
         <v>273</v>
       </c>
-      <c r="C274" s="0" t="n">
+      <c r="C274">
         <v>1507.4464959</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
         <v>43190</v>
       </c>
-      <c r="B275" s="0" t="n">
+      <c r="B275">
         <v>274</v>
       </c>
-      <c r="C275" s="0" t="n">
+      <c r="C275">
         <v>1513.4081532</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
         <v>43191</v>
       </c>
-      <c r="B276" s="0" t="n">
+      <c r="B276">
         <v>275</v>
       </c>
-      <c r="C276" s="0" t="n">
+      <c r="C276">
         <v>1519.355781</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
         <v>43192</v>
       </c>
-      <c r="B277" s="0" t="n">
+      <c r="B277">
         <v>276</v>
       </c>
-      <c r="C277" s="0" t="n">
+      <c r="C277">
         <v>1525.3071537</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
         <v>43193</v>
       </c>
-      <c r="B278" s="0" t="n">
+      <c r="B278">
         <v>277</v>
       </c>
-      <c r="C278" s="0" t="n">
+      <c r="C278">
         <v>1531.2809023</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
         <v>43194</v>
       </c>
-      <c r="B279" s="0" t="n">
+      <c r="B279">
         <v>278</v>
       </c>
-      <c r="C279" s="0" t="n">
+      <c r="C279">
         <v>1537.2959586</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
         <v>43195</v>
       </c>
-      <c r="B280" s="0" t="n">
+      <c r="B280">
         <v>279</v>
       </c>
-      <c r="C280" s="0" t="n">
+      <c r="C280">
         <v>1543.3708979</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
         <v>43196</v>
       </c>
-      <c r="B281" s="0" t="n">
+      <c r="B281">
         <v>280</v>
       </c>
-      <c r="C281" s="0" t="n">
+      <c r="C281">
         <v>1549.5231851</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
         <v>43197</v>
       </c>
-      <c r="B282" s="0" t="n">
+      <c r="B282">
         <v>281</v>
       </c>
-      <c r="C282" s="0" t="n">
+      <c r="C282">
         <v>1555.7683354</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
         <v>43198</v>
       </c>
-      <c r="B283" s="0" t="n">
+      <c r="B283">
         <v>282</v>
       </c>
-      <c r="C283" s="0" t="n">
+      <c r="C283">
         <v>1562.1190095</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
         <v>43199</v>
       </c>
-      <c r="B284" s="0" t="n">
+      <c r="B284">
         <v>283</v>
       </c>
-      <c r="C284" s="0" t="n">
+      <c r="C284">
         <v>1568.5840757</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
         <v>43200</v>
       </c>
-      <c r="B285" s="0" t="n">
+      <c r="B285">
         <v>284</v>
       </c>
-      <c r="C285" s="0" t="n">
+      <c r="C285">
         <v>1575.1676859</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
         <v>43201</v>
       </c>
-      <c r="B286" s="0" t="n">
+      <c r="B286">
         <v>285</v>
       </c>
-      <c r="C286" s="0" t="n">
+      <c r="C286">
         <v>1581.8684297</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
         <v>43202</v>
       </c>
-      <c r="B287" s="0" t="n">
+      <c r="B287">
         <v>286</v>
       </c>
-      <c r="C287" s="0" t="n">
+      <c r="C287">
         <v>1588.678643</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
         <v>43203</v>
       </c>
-      <c r="B288" s="0" t="n">
+      <c r="B288">
         <v>287</v>
       </c>
-      <c r="C288" s="0" t="n">
+      <c r="C288">
         <v>1595.5839611</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
         <v>43204</v>
       </c>
-      <c r="B289" s="0" t="n">
+      <c r="B289">
         <v>288</v>
       </c>
-      <c r="C289" s="0" t="n">
+      <c r="C289">
         <v>1602.5632056</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
         <v>43205</v>
       </c>
-      <c r="B290" s="0" t="n">
+      <c r="B290">
         <v>289</v>
       </c>
-      <c r="C290" s="0" t="n">
+      <c r="C290">
         <v>1609.5886846</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
         <v>43206</v>
       </c>
-      <c r="B291" s="0" t="n">
+      <c r="B291">
         <v>290</v>
       </c>
-      <c r="C291" s="0" t="n">
+      <c r="C291">
         <v>1616.6269556</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
         <v>43207</v>
       </c>
-      <c r="B292" s="0" t="n">
+      <c r="B292">
         <v>291</v>
       </c>
-      <c r="C292" s="0" t="n">
+      <c r="C292">
         <v>1623.6400627</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
         <v>43208</v>
       </c>
-      <c r="B293" s="0" t="n">
+      <c r="B293">
         <v>292</v>
       </c>
-      <c r="C293" s="0" t="n">
+      <c r="C293">
         <v>1630.5871985</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
         <v>43209</v>
       </c>
-      <c r="B294" s="0" t="n">
+      <c r="B294">
         <v>293</v>
       </c>
-      <c r="C294" s="0" t="n">
+      <c r="C294">
         <v>1637.426687</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
         <v>43210</v>
       </c>
-      <c r="B295" s="0" t="n">
+      <c r="B295">
         <v>294</v>
       </c>
-      <c r="C295" s="0" t="n">
+      <c r="C295">
         <v>1644.1181261</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
         <v>43211</v>
       </c>
-      <c r="B296" s="0" t="n">
+      <c r="B296">
         <v>295</v>
       </c>
-      <c r="C296" s="0" t="n">
+      <c r="C296">
         <v>1650.6244966</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
         <v>43212</v>
       </c>
-      <c r="B297" s="0" t="n">
+      <c r="B297">
         <v>296</v>
       </c>
-      <c r="C297" s="0" t="n">
+      <c r="C297">
         <v>1656.9140361</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
         <v>43213</v>
       </c>
-      <c r="B298" s="0" t="n">
+      <c r="B298">
         <v>297</v>
       </c>
-      <c r="C298" s="0" t="n">
+      <c r="C298">
         <v>1662.9616992</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
         <v>43214</v>
       </c>
-      <c r="B299" s="0" t="n">
+      <c r="B299">
         <v>298</v>
       </c>
-      <c r="C299" s="0" t="n">
+      <c r="C299">
         <v>1668.7500769</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
         <v>43215</v>
       </c>
-      <c r="B300" s="0" t="n">
+      <c r="B300">
         <v>299</v>
       </c>
-      <c r="C300" s="0" t="n">
+      <c r="C300">
         <v>1674.2697188</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
         <v>43216</v>
       </c>
-      <c r="B301" s="0" t="n">
+      <c r="B301">
         <v>300</v>
       </c>
-      <c r="C301" s="0" t="n">
+      <c r="C301">
         <v>1679.5188728</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
         <v>43217</v>
       </c>
-      <c r="B302" s="0" t="n">
+      <c r="B302">
         <v>301</v>
       </c>
-      <c r="C302" s="0" t="n">
+      <c r="C302">
         <v>1684.5027252</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
         <v>43218</v>
       </c>
-      <c r="B303" s="0" t="n">
+      <c r="B303">
         <v>302</v>
       </c>
-      <c r="C303" s="0" t="n">
+      <c r="C303">
         <v>1689.2322657</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
         <v>43219</v>
       </c>
-      <c r="B304" s="0" t="n">
+      <c r="B304">
         <v>303</v>
       </c>
-      <c r="C304" s="0" t="n">
+      <c r="C304">
         <v>1693.7229275</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
         <v>43220</v>
       </c>
-      <c r="B305" s="0" t="n">
+      <c r="B305">
         <v>304</v>
       </c>
-      <c r="C305" s="0" t="n">
+      <c r="C305">
         <v>1697.9931473</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
         <v>43221</v>
       </c>
-      <c r="B306" s="0" t="n">
+      <c r="B306">
         <v>305</v>
       </c>
-      <c r="C306" s="0" t="n">
+      <c r="C306">
         <v>1702.0629745</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
         <v>43222</v>
       </c>
-      <c r="B307" s="0" t="n">
+      <c r="B307">
         <v>306</v>
       </c>
-      <c r="C307" s="0" t="n">
+      <c r="C307">
         <v>1705.9528234</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
         <v>43223</v>
       </c>
-      <c r="B308" s="0" t="n">
+      <c r="B308">
         <v>307</v>
       </c>
-      <c r="C308" s="0" t="n">
+      <c r="C308">
         <v>1709.6824334</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
         <v>43224</v>
       </c>
-      <c r="B309" s="0" t="n">
+      <c r="B309">
         <v>308</v>
       </c>
-      <c r="C309" s="0" t="n">
+      <c r="C309">
         <v>1713.2700639</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
         <v>43225</v>
       </c>
-      <c r="B310" s="0" t="n">
+      <c r="B310">
         <v>309</v>
       </c>
-      <c r="C310" s="0" t="n">
+      <c r="C310">
         <v>1716.7319282</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
         <v>43226</v>
       </c>
-      <c r="B311" s="0" t="n">
+      <c r="B311">
         <v>310</v>
       </c>
-      <c r="C311" s="0" t="n">
+      <c r="C311">
         <v>1720.0818497</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
         <v>43227</v>
       </c>
-      <c r="B312" s="0" t="n">
+      <c r="B312">
         <v>311</v>
       </c>
-      <c r="C312" s="0" t="n">
+      <c r="C312">
         <v>1723.3311083</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
         <v>43228</v>
       </c>
-      <c r="B313" s="0" t="n">
+      <c r="B313">
         <v>312</v>
       </c>
-      <c r="C313" s="0" t="n">
+      <c r="C313">
         <v>1726.4884454</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
         <v>43229</v>
       </c>
-      <c r="B314" s="0" t="n">
+      <c r="B314">
         <v>313</v>
       </c>
-      <c r="C314" s="0" t="n">
+      <c r="C314">
         <v>1729.5601887</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
         <v>43230</v>
       </c>
-      <c r="B315" s="0" t="n">
+      <c r="B315">
         <v>314</v>
       </c>
-      <c r="C315" s="0" t="n">
+      <c r="C315">
         <v>1732.5504637</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
         <v>43231</v>
       </c>
-      <c r="B316" s="0" t="n">
+      <c r="B316">
         <v>315</v>
       </c>
-      <c r="C316" s="0" t="n">
+      <c r="C316">
         <v>1735.4614647</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
         <v>43232</v>
       </c>
-      <c r="B317" s="0" t="n">
+      <c r="B317">
         <v>316</v>
       </c>
-      <c r="C317" s="0" t="n">
+      <c r="C317">
         <v>1738.2937585</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
         <v>43233</v>
       </c>
-      <c r="B318" s="0" t="n">
+      <c r="B318">
         <v>317</v>
       </c>
-      <c r="C318" s="0" t="n">
+      <c r="C318">
         <v>1741.0466056</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
         <v>43234</v>
       </c>
-      <c r="B319" s="0" t="n">
+      <c r="B319">
         <v>318</v>
       </c>
-      <c r="C319" s="0" t="n">
+      <c r="C319">
         <v>1743.7182826</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
         <v>43235</v>
       </c>
-      <c r="B320" s="0" t="n">
+      <c r="B320">
         <v>319</v>
       </c>
-      <c r="C320" s="0" t="n">
+      <c r="C320">
         <v>1746.3063985</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
         <v>43236</v>
       </c>
-      <c r="B321" s="0" t="n">
+      <c r="B321">
         <v>320</v>
       </c>
-      <c r="C321" s="0" t="n">
+      <c r="C321">
         <v>1748.8081947</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
         <v>43237</v>
       </c>
-      <c r="B322" s="0" t="n">
+      <c r="B322">
         <v>321</v>
       </c>
-      <c r="C322" s="0" t="n">
+      <c r="C322">
         <v>1751.2208265</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
         <v>43238</v>
       </c>
-      <c r="B323" s="0" t="n">
+      <c r="B323">
         <v>322</v>
       </c>
-      <c r="C323" s="0" t="n">
+      <c r="C323">
         <v>1753.5416192</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
         <v>43239</v>
       </c>
-      <c r="B324" s="0" t="n">
+      <c r="B324">
         <v>323</v>
       </c>
-      <c r="C324" s="0" t="n">
+      <c r="C324">
         <v>1755.7682959</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
         <v>43240</v>
       </c>
-      <c r="B325" s="0" t="n">
+      <c r="B325">
         <v>324</v>
       </c>
-      <c r="C325" s="0" t="n">
+      <c r="C325">
         <v>1757.8991721</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
         <v>43241</v>
       </c>
-      <c r="B326" s="0" t="n">
+      <c r="B326">
         <v>325</v>
       </c>
-      <c r="C326" s="0" t="n">
+      <c r="C326">
         <v>1759.9333145</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
         <v>43242</v>
       </c>
-      <c r="B327" s="0" t="n">
+      <c r="B327">
         <v>326</v>
       </c>
-      <c r="C327" s="0" t="n">
+      <c r="C327">
         <v>1761.8706581</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
         <v>43243</v>
       </c>
-      <c r="B328" s="0" t="n">
+      <c r="B328">
         <v>327</v>
       </c>
-      <c r="C328" s="0" t="n">
+      <c r="C328">
         <v>1763.7120799</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
         <v>43244</v>
       </c>
-      <c r="B329" s="0" t="n">
+      <c r="B329">
         <v>328</v>
       </c>
-      <c r="C329" s="0" t="n">
+      <c r="C329">
         <v>1765.4594256</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
         <v>43245</v>
       </c>
-      <c r="B330" s="0" t="n">
+      <c r="B330">
         <v>329</v>
       </c>
-      <c r="C330" s="0" t="n">
+      <c r="C330">
         <v>1767.1154903</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
         <v>43246</v>
       </c>
-      <c r="B331" s="0" t="n">
+      <c r="B331">
         <v>330</v>
       </c>
-      <c r="C331" s="0" t="n">
+      <c r="C331">
         <v>1768.6839515</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
         <v>43247</v>
       </c>
-      <c r="B332" s="0" t="n">
+      <c r="B332">
         <v>331</v>
       </c>
-      <c r="C332" s="0" t="n">
+      <c r="C332">
         <v>1770.1692605</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
         <v>43248</v>
       </c>
-      <c r="B333" s="0" t="n">
+      <c r="B333">
         <v>332</v>
       </c>
-      <c r="C333" s="0" t="n">
+      <c r="C333">
         <v>1771.576495</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
         <v>43249</v>
       </c>
-      <c r="B334" s="0" t="n">
+      <c r="B334">
         <v>333</v>
       </c>
-      <c r="C334" s="0" t="n">
+      <c r="C334">
         <v>1772.9111826</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
         <v>43250</v>
       </c>
-      <c r="B335" s="0" t="n">
+      <c r="B335">
         <v>334</v>
       </c>
-      <c r="C335" s="0" t="n">
+      <c r="C335">
         <v>1774.1791026</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
         <v>43251</v>
       </c>
-      <c r="B336" s="0" t="n">
+      <c r="B336">
         <v>335</v>
       </c>
-      <c r="C336" s="0" t="n">
+      <c r="C336">
         <v>1775.3860785</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
         <v>43252</v>
       </c>
-      <c r="B337" s="0" t="n">
+      <c r="B337">
         <v>336</v>
       </c>
-      <c r="C337" s="0" t="n">
+      <c r="C337">
         <v>1776.5377717</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
         <v>43253</v>
       </c>
-      <c r="B338" s="0" t="n">
+      <c r="B338">
         <v>337</v>
       </c>
-      <c r="C338" s="0" t="n">
+      <c r="C338">
         <v>1777.6394888</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
         <v>43254</v>
       </c>
-      <c r="B339" s="0" t="n">
+      <c r="B339">
         <v>338</v>
       </c>
-      <c r="C339" s="0" t="n">
+      <c r="C339">
         <v>1778.6960116</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
         <v>43255</v>
       </c>
-      <c r="B340" s="0" t="n">
+      <c r="B340">
         <v>339</v>
       </c>
-      <c r="C340" s="0" t="n">
+      <c r="C340">
         <v>1779.7114621</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
         <v>43256</v>
       </c>
-      <c r="B341" s="0" t="n">
+      <c r="B341">
         <v>340</v>
       </c>
-      <c r="C341" s="0" t="n">
+      <c r="C341">
         <v>1780.6892059</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
         <v>43257</v>
       </c>
-      <c r="B342" s="0" t="n">
+      <c r="B342">
         <v>341</v>
       </c>
-      <c r="C342" s="0" t="n">
+      <c r="C342">
         <v>1781.6318023</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
         <v>43258</v>
       </c>
-      <c r="B343" s="0" t="n">
+      <c r="B343">
         <v>342</v>
       </c>
-      <c r="C343" s="0" t="n">
+      <c r="C343">
         <v>1782.5409996</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
         <v>43259</v>
       </c>
-      <c r="B344" s="0" t="n">
+      <c r="B344">
         <v>343</v>
       </c>
-      <c r="C344" s="0" t="n">
+      <c r="C344">
         <v>1783.4177757</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
         <v>43260</v>
       </c>
-      <c r="B345" s="0" t="n">
+      <c r="B345">
         <v>344</v>
       </c>
-      <c r="C345" s="0" t="n">
+      <c r="C345">
         <v>1784.2624179</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
         <v>43261</v>
       </c>
-      <c r="B346" s="0" t="n">
+      <c r="B346">
         <v>345</v>
       </c>
-      <c r="C346" s="0" t="n">
+      <c r="C346">
         <v>1785.0746364</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
         <v>43262</v>
       </c>
-      <c r="B347" s="0" t="n">
+      <c r="B347">
         <v>346</v>
       </c>
-      <c r="C347" s="0" t="n">
+      <c r="C347">
         <v>1785.8536996</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
         <v>43263</v>
       </c>
-      <c r="B348" s="0" t="n">
+      <c r="B348">
         <v>347</v>
       </c>
-      <c r="C348" s="0" t="n">
+      <c r="C348">
         <v>1786.5985841</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
         <v>43264</v>
       </c>
-      <c r="B349" s="0" t="n">
+      <c r="B349">
         <v>348</v>
       </c>
-      <c r="C349" s="0" t="n">
+      <c r="C349">
         <v>1787.3081254</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
         <v>43265</v>
       </c>
-      <c r="B350" s="0" t="n">
+      <c r="B350">
         <v>349</v>
       </c>
-      <c r="C350" s="0" t="n">
+      <c r="C350">
         <v>1787.9811619</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
         <v>43266</v>
       </c>
-      <c r="B351" s="0" t="n">
+      <c r="B351">
         <v>350</v>
       </c>
-      <c r="C351" s="0" t="n">
+      <c r="C351">
         <v>1788.6166621</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
         <v>43267</v>
       </c>
-      <c r="B352" s="0" t="n">
+      <c r="B352">
         <v>351</v>
       </c>
-      <c r="C352" s="0" t="n">
+      <c r="C352">
         <v>1789.2138296</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
         <v>43268</v>
       </c>
-      <c r="B353" s="0" t="n">
+      <c r="B353">
         <v>352</v>
       </c>
-      <c r="C353" s="0" t="n">
+      <c r="C353">
         <v>1789.7721814</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
         <v>43269</v>
       </c>
-      <c r="B354" s="0" t="n">
+      <c r="B354">
         <v>353</v>
       </c>
-      <c r="C354" s="0" t="n">
+      <c r="C354">
         <v>1790.2915979</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
         <v>43270</v>
       </c>
-      <c r="B355" s="0" t="n">
+      <c r="B355">
         <v>354</v>
       </c>
-      <c r="C355" s="0" t="n">
+      <c r="C355">
         <v>1790.7723457</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
         <v>43271</v>
       </c>
-      <c r="B356" s="0" t="n">
+      <c r="B356">
         <v>355</v>
       </c>
-      <c r="C356" s="0" t="n">
+      <c r="C356">
         <v>1791.215075</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
         <v>43272</v>
       </c>
-      <c r="B357" s="0" t="n">
+      <c r="B357">
         <v>356</v>
       </c>
-      <c r="C357" s="0" t="n">
+      <c r="C357">
         <v>1791.6207972</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
         <v>43273</v>
       </c>
-      <c r="B358" s="0" t="n">
+      <c r="B358">
         <v>357</v>
       </c>
-      <c r="C358" s="0" t="n">
+      <c r="C358">
         <v>1791.9908455</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
         <v>43274</v>
       </c>
-      <c r="B359" s="0" t="n">
+      <c r="B359">
         <v>358</v>
       </c>
-      <c r="C359" s="0" t="n">
+      <c r="C359">
         <v>1792.3268251</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
         <v>43275</v>
       </c>
-      <c r="B360" s="0" t="n">
+      <c r="B360">
         <v>359</v>
       </c>
-      <c r="C360" s="0" t="n">
+      <c r="C360">
         <v>1792.6305569</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
         <v>43276</v>
       </c>
-      <c r="B361" s="0" t="n">
+      <c r="B361">
         <v>360</v>
       </c>
-      <c r="C361" s="0" t="n">
+      <c r="C361">
         <v>1792.9040192</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
         <v>43277</v>
       </c>
-      <c r="B362" s="0" t="n">
+      <c r="B362">
         <v>361</v>
       </c>
-      <c r="C362" s="0" t="n">
+      <c r="C362">
         <v>1793.1492913</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
         <v>43278</v>
       </c>
-      <c r="B363" s="0" t="n">
+      <c r="B363">
         <v>362</v>
       </c>
-      <c r="C363" s="0" t="n">
+      <c r="C363">
         <v>1793.368501</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
         <v>43279</v>
       </c>
-      <c r="B364" s="0" t="n">
+      <c r="B364">
         <v>363</v>
       </c>
-      <c r="C364" s="0" t="n">
+      <c r="C364">
         <v>1793.5637784</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:3">
+      <c r="A365" s="2">
         <v>43280</v>
       </c>
-      <c r="B365" s="0" t="n">
+      <c r="B365">
         <v>364</v>
       </c>
-      <c r="C365" s="0" t="n">
+      <c r="C365">
         <v>1793.7372166</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:3">
+      <c r="A366" s="2">
         <v>43281</v>
       </c>
-      <c r="B366" s="0" t="n">
+      <c r="B366">
         <v>365</v>
       </c>
-      <c r="C366" s="0" t="n">
+      <c r="C366">
         <v>1793.89084</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -2831,7 +2831,7 @@
         <v>221</v>
       </c>
       <c r="C222">
-        <v>1069.5782869</v>
+        <v>1069.578287</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>222</v>
       </c>
       <c r="C223">
-        <v>1080.6319802</v>
+        <v>1080.6319803</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>223</v>
       </c>
       <c r="C224">
-        <v>1091.6835496</v>
+        <v>1091.6835497</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>224</v>
       </c>
       <c r="C225">
-        <v>1102.7188188</v>
+        <v>1102.7188191</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>225</v>
       </c>
       <c r="C226">
-        <v>1113.7230871</v>
+        <v>1113.7230876</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>226</v>
       </c>
       <c r="C227">
-        <v>1124.6813447</v>
+        <v>1124.6813456</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>227</v>
       </c>
       <c r="C228">
-        <v>1135.5785107</v>
+        <v>1135.5785122</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>228</v>
       </c>
       <c r="C229">
-        <v>1146.3996876</v>
+        <v>1146.3996904</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>229</v>
       </c>
       <c r="C230">
-        <v>1157.1304256</v>
+        <v>1157.1304303</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>230</v>
       </c>
       <c r="C231">
-        <v>1167.7569866</v>
+        <v>1167.7569945</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>231</v>
       </c>
       <c r="C232">
-        <v>1178.2666007</v>
+        <v>1178.266614</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2952,7 +2952,7 @@
         <v>232</v>
       </c>
       <c r="C233">
-        <v>1188.647704</v>
+        <v>1188.6477261</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>233</v>
       </c>
       <c r="C234">
-        <v>1198.890149</v>
+        <v>1198.8901854</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>234</v>
       </c>
       <c r="C235">
-        <v>1208.9853788</v>
+        <v>1208.985438</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>235</v>
       </c>
       <c r="C236">
-        <v>1218.9265581</v>
+        <v>1218.9266535</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>236</v>
       </c>
       <c r="C237">
-        <v>1228.708656</v>
+        <v>1228.7088082</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>237</v>
       </c>
       <c r="C238">
-        <v>1238.3284772</v>
+        <v>1238.3287174</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3018,7 +3018,7 @@
         <v>238</v>
       </c>
       <c r="C239">
-        <v>1247.7846407</v>
+        <v>1247.785016</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>239</v>
       </c>
       <c r="C240">
-        <v>1257.0775085</v>
+        <v>1257.078089</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>240</v>
       </c>
       <c r="C241">
-        <v>1266.2090669</v>
+        <v>1266.2099555</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>241</v>
       </c>
       <c r="C242">
-        <v>1275.1827675</v>
+        <v>1275.184114</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>242</v>
       </c>
       <c r="C243">
-        <v>1284.0033345</v>
+        <v>1284.0053537</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>243</v>
       </c>
       <c r="C244">
-        <v>1292.6765456</v>
+        <v>1292.6795427</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3084,7 +3084,7 @@
         <v>244</v>
       </c>
       <c r="C245">
-        <v>1301.2089974</v>
+        <v>1301.2134002</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>245</v>
       </c>
       <c r="C246">
-        <v>1309.607861</v>
+        <v>1309.614262</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="C247">
-        <v>1317.8806378</v>
+        <v>1317.8898471</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>247</v>
       </c>
       <c r="C248">
-        <v>1326.0349216</v>
+        <v>1326.0480331</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3128,7 +3128,7 @@
         <v>248</v>
       </c>
       <c r="C249">
-        <v>1334.0781729</v>
+        <v>1334.0966439</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>249</v>
       </c>
       <c r="C250">
-        <v>1342.0175113</v>
+        <v>1342.0432577</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>250</v>
       </c>
       <c r="C251">
-        <v>1349.8595285</v>
+        <v>1349.8950344</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>251</v>
       </c>
       <c r="C252">
-        <v>1357.6101269</v>
+        <v>1357.6585675</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>252</v>
       </c>
       <c r="C253">
-        <v>1365.2743853</v>
+        <v>1365.3397597</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>253</v>
       </c>
       <c r="C254">
-        <v>1372.8564538</v>
+        <v>1372.9437229</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>254</v>
       </c>
       <c r="C255">
-        <v>1380.3594824</v>
+        <v>1380.4747028</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>255</v>
       </c>
       <c r="C256">
-        <v>1387.785584</v>
+        <v>1387.9360282</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>256</v>
       </c>
       <c r="C257">
-        <v>1395.1358346</v>
+        <v>1395.3300834</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>257</v>
       </c>
       <c r="C258">
-        <v>1402.4103156</v>
+        <v>1402.658306</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>258</v>
       </c>
       <c r="C259">
-        <v>1409.6081963</v>
+        <v>1409.9212085</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>259</v>
       </c>
       <c r="C260">
-        <v>1416.7278629</v>
+        <v>1417.1184255</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>260</v>
       </c>
       <c r="C261">
-        <v>1423.7670894</v>
+        <v>1424.2487853</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>261</v>
       </c>
       <c r="C262">
-        <v>1430.7232523</v>
+        <v>1431.3104091</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>262</v>
       </c>
       <c r="C263">
-        <v>1437.5935819</v>
+        <v>1438.300834</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>263</v>
       </c>
       <c r="C264">
-        <v>1444.3754466</v>
+        <v>1445.2171625</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>264</v>
       </c>
       <c r="C265">
-        <v>1451.0666585</v>
+        <v>1452.0562341</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>265</v>
       </c>
       <c r="C266">
-        <v>1457.66579</v>
+        <v>1458.8148176</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>266</v>
       </c>
       <c r="C267">
-        <v>1464.1724887</v>
+        <v>1465.4898201</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>267</v>
       </c>
       <c r="C268">
-        <v>1470.5877758</v>
+        <v>1472.0785062</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>268</v>
       </c>
       <c r="C269">
-        <v>1476.9143126</v>
+        <v>1478.5787216</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>269</v>
       </c>
       <c r="C270">
-        <v>1483.1566233</v>
+        <v>1484.9891145</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>270</v>
       </c>
       <c r="C271">
-        <v>1489.3212593</v>
+        <v>1491.3093441</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>271</v>
       </c>
       <c r="C272">
-        <v>1495.4168946</v>
+        <v>1497.5402706</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>272</v>
       </c>
       <c r="C273">
-        <v>1501.4543441</v>
+        <v>1503.6841168</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>273</v>
       </c>
       <c r="C274">
-        <v>1507.4464959</v>
+        <v>1509.7445937</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>274</v>
       </c>
       <c r="C275">
-        <v>1513.4081532</v>
+        <v>1515.7269841</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>275</v>
       </c>
       <c r="C276">
-        <v>1519.355781</v>
+        <v>1521.6381781</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>276</v>
       </c>
       <c r="C277">
-        <v>1525.3071537</v>
+        <v>1527.4866555</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>277</v>
       </c>
       <c r="C278">
-        <v>1531.2809023</v>
+        <v>1533.2824131</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>278</v>
       </c>
       <c r="C279">
-        <v>1537.2959586</v>
+        <v>1539.0368331</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>279</v>
       </c>
       <c r="C280">
-        <v>1543.3708979</v>
+        <v>1544.7624907</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>280</v>
       </c>
       <c r="C281">
-        <v>1549.5231851</v>
+        <v>1550.4729005</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>281</v>
       </c>
       <c r="C282">
-        <v>1555.7683354</v>
+        <v>1556.1821988</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>282</v>
       </c>
       <c r="C283">
-        <v>1562.1190095</v>
+        <v>1561.9047625</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>283</v>
       </c>
       <c r="C284">
-        <v>1568.5840757</v>
+        <v>1567.6547623</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>284</v>
       </c>
       <c r="C285">
-        <v>1575.1676859</v>
+        <v>1573.4456546</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>285</v>
       </c>
       <c r="C286">
-        <v>1581.8684297</v>
+        <v>1579.2896146</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>286</v>
       </c>
       <c r="C287">
-        <v>1588.678643</v>
+        <v>1585.1969217</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>287</v>
       </c>
       <c r="C288">
-        <v>1595.5839611</v>
+        <v>1591.1753137</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>288</v>
       </c>
       <c r="C289">
-        <v>1602.5632056</v>
+        <v>1597.2293352</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>289</v>
       </c>
       <c r="C290">
-        <v>1609.5886846</v>
+        <v>1603.3597178</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>290</v>
       </c>
       <c r="C291">
-        <v>1616.6269556</v>
+        <v>1609.5628387</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>291</v>
       </c>
       <c r="C292">
-        <v>1623.6400627</v>
+        <v>1615.8303139</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>292</v>
       </c>
       <c r="C293">
-        <v>1630.5871985</v>
+        <v>1622.1487902</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>293</v>
       </c>
       <c r="C294">
-        <v>1637.426687</v>
+        <v>1628.4999946</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>294</v>
       </c>
       <c r="C295">
-        <v>1644.1181261</v>
+        <v>1634.861091</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>295</v>
       </c>
       <c r="C296">
-        <v>1650.6244966</v>
+        <v>1641.2053705</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>296</v>
       </c>
       <c r="C297">
-        <v>1656.9140361</v>
+        <v>1647.5032695</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>297</v>
       </c>
       <c r="C298">
-        <v>1662.9616992</v>
+        <v>1653.723667</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>298</v>
       </c>
       <c r="C299">
-        <v>1668.7500769</v>
+        <v>1659.8353736</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>299</v>
       </c>
       <c r="C300">
-        <v>1674.2697188</v>
+        <v>1665.8086876</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>300</v>
       </c>
       <c r="C301">
-        <v>1679.5188728</v>
+        <v>1671.6168765</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>301</v>
       </c>
       <c r="C302">
-        <v>1684.5027252</v>
+        <v>1677.2374406</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>302</v>
       </c>
       <c r="C303">
-        <v>1689.2322657</v>
+        <v>1682.6530403</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>303</v>
       </c>
       <c r="C304">
-        <v>1693.7229275</v>
+        <v>1687.8520115</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>304</v>
       </c>
       <c r="C305">
-        <v>1697.9931473</v>
+        <v>1692.828442</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>305</v>
       </c>
       <c r="C306">
-        <v>1702.0629745</v>
+        <v>1697.5818396</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>306</v>
       </c>
       <c r="C307">
-        <v>1705.9528234</v>
+        <v>1702.1164638</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>307</v>
       </c>
       <c r="C308">
-        <v>1709.6824334</v>
+        <v>1706.44042</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>308</v>
       </c>
       <c r="C309">
-        <v>1713.2700639</v>
+        <v>1710.5646298</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>309</v>
       </c>
       <c r="C310">
-        <v>1716.7319282</v>
+        <v>1714.5017804</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>310</v>
       </c>
       <c r="C311">
-        <v>1720.0818497</v>
+        <v>1718.2653417</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>311</v>
       </c>
       <c r="C312">
-        <v>1723.3311083</v>
+        <v>1721.8687145</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>312</v>
       </c>
       <c r="C313">
-        <v>1726.4884454</v>
+        <v>1725.324546</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>313</v>
       </c>
       <c r="C314">
-        <v>1729.5601887</v>
+        <v>1728.6442289</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>314</v>
       </c>
       <c r="C315">
-        <v>1732.5504637</v>
+        <v>1731.8375798</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>315</v>
       </c>
       <c r="C316">
-        <v>1735.4614647</v>
+        <v>1734.91268</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>316</v>
       </c>
       <c r="C317">
-        <v>1738.2937585</v>
+        <v>1737.8758573</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>317</v>
       </c>
       <c r="C318">
-        <v>1741.0466056</v>
+        <v>1740.7317782</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>318</v>
       </c>
       <c r="C319">
-        <v>1743.7182826</v>
+        <v>1743.4836283</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>319</v>
       </c>
       <c r="C320">
-        <v>1746.3063985</v>
+        <v>1746.1333506</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>320</v>
       </c>
       <c r="C321">
-        <v>1748.8081947</v>
+        <v>1748.6819236</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>321</v>
       </c>
       <c r="C322">
-        <v>1751.2208265</v>
+        <v>1751.1296555</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>322</v>
       </c>
       <c r="C323">
-        <v>1753.5416192</v>
+        <v>1753.4764807</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>323</v>
       </c>
       <c r="C324">
-        <v>1755.7682959</v>
+        <v>1755.7222429</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>324</v>
       </c>
       <c r="C325">
-        <v>1757.8991721</v>
+        <v>1757.8669521</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>325</v>
       </c>
       <c r="C326">
-        <v>1759.9333145</v>
+        <v>1759.911007</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>326</v>
       </c>
       <c r="C327">
-        <v>1761.8706581</v>
+        <v>1761.8553738</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>327</v>
       </c>
       <c r="C328">
-        <v>1763.7120799</v>
+        <v>1763.701716</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>328</v>
       </c>
       <c r="C329">
-        <v>1765.4594256</v>
+        <v>1765.4524707</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>329</v>
       </c>
       <c r="C330">
-        <v>1767.1154903</v>
+        <v>1767.1108711</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>330</v>
       </c>
       <c r="C331">
-        <v>1768.6839515</v>
+        <v>1768.6809151</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>331</v>
       </c>
       <c r="C332">
-        <v>1770.1692605</v>
+        <v>1770.1672849</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>332</v>
       </c>
       <c r="C333">
-        <v>1771.576495</v>
+        <v>1771.5752228</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>333</v>
       </c>
       <c r="C334">
-        <v>1772.9111826</v>
+        <v>1772.9103716</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>334</v>
       </c>
       <c r="C335">
-        <v>1774.1791026</v>
+        <v>1774.1785908</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>335</v>
       </c>
       <c r="C336">
-        <v>1775.3860785</v>
+        <v>1775.3857587</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>336</v>
       </c>
       <c r="C337">
-        <v>1776.5377717</v>
+        <v>1776.5375739</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>337</v>
       </c>
       <c r="C338">
-        <v>1777.6394888</v>
+        <v>1777.6393677</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>338</v>
       </c>
       <c r="C339">
-        <v>1778.6960116</v>
+        <v>1778.6959382</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>339</v>
       </c>
       <c r="C340">
-        <v>1779.7114621</v>
+        <v>1779.711418</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>340</v>
       </c>
       <c r="C341">
-        <v>1780.6892059</v>
+        <v>1780.6891797</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>341</v>
       </c>
       <c r="C342">
-        <v>1781.6318023</v>
+        <v>1781.6317868</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>342</v>
       </c>
       <c r="C343">
-        <v>1782.5409996</v>
+        <v>1782.5409906</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>343</v>
       </c>
       <c r="C344">
-        <v>1783.4177757</v>
+        <v>1783.4177705</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>344</v>
       </c>
       <c r="C345">
-        <v>1784.2624179</v>
+        <v>1784.262415</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>345</v>
       </c>
       <c r="C346">
-        <v>1785.0746364</v>
+        <v>1785.0746347</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>346</v>
       </c>
       <c r="C347">
-        <v>1785.8536996</v>
+        <v>1785.8536987</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>347</v>
       </c>
       <c r="C348">
-        <v>1786.5985841</v>
+        <v>1786.5985836</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>348</v>
       </c>
       <c r="C349">
-        <v>1787.3081254</v>
+        <v>1787.3081252</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>349</v>
       </c>
       <c r="C350">
-        <v>1787.9811619</v>
+        <v>1787.9811617</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>350</v>
       </c>
       <c r="C351">
-        <v>1788.6166621</v>
+        <v>1788.616662</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>351</v>
       </c>
       <c r="C352">
-        <v>1789.2138296</v>
+        <v>1789.2138295</v>
       </c>
     </row>
     <row r="353" spans="1:3">

--- a/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,4005 +416,7173 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42918</v>
+        <v>42917</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>10.6488464</v>
+        <v>10.1054208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42919</v>
+        <v>42918</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>11.2250248</v>
+        <v>10.6488464</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42920</v>
+        <v>42918</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>11.8360834</v>
+        <v>10.6488464</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42921</v>
+        <v>42919</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>12.4842068</v>
+        <v>11.2250248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42922</v>
+        <v>42919</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>13.1716023</v>
+        <v>11.2250248</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42923</v>
+        <v>42920</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>13.9004552</v>
+        <v>11.8360834</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42924</v>
+        <v>42920</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>14.6728732</v>
+        <v>11.8360834</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42925</v>
+        <v>42921</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>15.4908179</v>
+        <v>12.4842068</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42926</v>
+        <v>42921</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>16.356026</v>
+        <v>12.4842068</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42927</v>
+        <v>42922</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>17.2699193</v>
+        <v>13.1716023</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42928</v>
+        <v>42922</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>18.233507</v>
+        <v>13.1716023</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42929</v>
+        <v>42923</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>19.2472831</v>
+        <v>13.9004552</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42930</v>
+        <v>42923</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>20.311124</v>
+        <v>13.9004552</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42931</v>
+        <v>42924</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>21.4241912</v>
+        <v>14.6728732</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42932</v>
+        <v>42924</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>22.5848463</v>
+        <v>14.6728732</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42933</v>
+        <v>42925</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>23.7905841</v>
+        <v>15.4908179</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42934</v>
+        <v>42925</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>25.0379917</v>
+        <v>15.4908179</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42935</v>
+        <v>42926</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>26.3227385</v>
+        <v>16.356026</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42936</v>
+        <v>42926</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>27.6396014</v>
+        <v>16.356026</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42937</v>
+        <v>42927</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>28.9825292</v>
+        <v>17.2699193</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42938</v>
+        <v>42927</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>30.3447445</v>
+        <v>17.2699193</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42939</v>
+        <v>42928</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>31.7188824</v>
+        <v>18.233507</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42940</v>
+        <v>42928</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>33.0971601</v>
+        <v>18.233507</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42941</v>
+        <v>42929</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>34.4715717</v>
+        <v>19.2472831</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42942</v>
+        <v>42929</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>35.8340982</v>
+        <v>19.2472831</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42943</v>
+        <v>42930</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>37.176925</v>
+        <v>20.311124</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42944</v>
+        <v>42930</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>38.4926556</v>
+        <v>20.311124</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42945</v>
+        <v>42931</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>39.7745129</v>
+        <v>21.4241912</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42946</v>
+        <v>42931</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>41.0165199</v>
+        <v>21.4241912</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42947</v>
+        <v>42932</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>42.2136523</v>
+        <v>22.5848463</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42948</v>
+        <v>42932</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>43.3619594</v>
+        <v>22.5848463</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42949</v>
+        <v>42933</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>44.4586477</v>
+        <v>23.7905841</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42950</v>
+        <v>42933</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>45.502129</v>
+        <v>23.7905841</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42951</v>
+        <v>42934</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>46.4920309</v>
+        <v>25.0379917</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42952</v>
+        <v>42934</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>47.4291733</v>
+        <v>25.0379917</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42953</v>
+        <v>42935</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>48.3155136</v>
+        <v>26.3227385</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42954</v>
+        <v>42935</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>49.1540654</v>
+        <v>26.3227385</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42955</v>
+        <v>42936</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>49.9487942</v>
+        <v>27.6396014</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42956</v>
+        <v>42936</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>50.7044969</v>
+        <v>27.6396014</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42957</v>
+        <v>42937</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>51.4266684</v>
+        <v>28.9825292</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42958</v>
+        <v>42937</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>52.1213615</v>
+        <v>28.9825292</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42959</v>
+        <v>42938</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>52.7950433</v>
+        <v>30.3447445</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42960</v>
+        <v>42938</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C45">
-        <v>53.4544526</v>
+        <v>30.3447445</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42961</v>
+        <v>42939</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>54.1064611</v>
+        <v>31.7188824</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42962</v>
+        <v>42939</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C47">
-        <v>54.7579413</v>
+        <v>31.7188824</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42963</v>
+        <v>42940</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C48">
-        <v>55.4156427</v>
+        <v>33.0971601</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42964</v>
+        <v>42940</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>56.0860783</v>
+        <v>33.0971601</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42965</v>
+        <v>42941</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C50">
-        <v>56.775422</v>
+        <v>34.4715717</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42966</v>
+        <v>42941</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>57.4894192</v>
+        <v>34.4715717</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42967</v>
+        <v>42942</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C52">
-        <v>58.2333101</v>
+        <v>35.8340982</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42968</v>
+        <v>42942</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C53">
-        <v>59.0117673</v>
+        <v>35.8340982</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42969</v>
+        <v>42943</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C54">
-        <v>59.8288489</v>
+        <v>37.176925</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42970</v>
+        <v>42943</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C55">
-        <v>60.6879668</v>
+        <v>37.176925</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42971</v>
+        <v>42944</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C56">
-        <v>61.5918722</v>
+        <v>38.4926556</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42972</v>
+        <v>42944</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C57">
-        <v>62.542658</v>
+        <v>38.4926556</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42973</v>
+        <v>42945</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C58">
-        <v>63.5417793</v>
+        <v>39.7745129</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42974</v>
+        <v>42945</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>64.59009039999999</v>
+        <v>39.7745129</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42975</v>
+        <v>42946</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>65.6878995</v>
+        <v>41.0165199</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42976</v>
+        <v>42946</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C61">
-        <v>66.8350384</v>
+        <v>41.0165199</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42977</v>
+        <v>42947</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C62">
-        <v>68.0309458</v>
+        <v>42.2136523</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C63">
-        <v>69.27476160000001</v>
+        <v>42.2136523</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>70.56543000000001</v>
+        <v>43.3619594</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>42980</v>
+        <v>42948</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>71.90180549999999</v>
+        <v>43.3619594</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>42981</v>
+        <v>42949</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C66">
-        <v>73.28276150000001</v>
+        <v>44.4586477</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>42982</v>
+        <v>42949</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C67">
-        <v>74.7072938</v>
+        <v>44.4586477</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>42983</v>
+        <v>42950</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>76.1746189</v>
+        <v>45.502129</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>42984</v>
+        <v>42950</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>77.6842616</v>
+        <v>45.502129</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>42985</v>
+        <v>42951</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C70">
-        <v>79.2361293</v>
+        <v>46.4920309</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>42986</v>
+        <v>42951</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C71">
-        <v>80.830572</v>
+        <v>46.4920309</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>42987</v>
+        <v>42952</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C72">
-        <v>82.468425</v>
+        <v>47.4291733</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>42988</v>
+        <v>42952</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C73">
-        <v>84.1510341</v>
+        <v>47.4291733</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>42989</v>
+        <v>42953</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C74">
-        <v>85.880263</v>
+        <v>48.3155136</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>42990</v>
+        <v>42953</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C75">
-        <v>87.6584828</v>
+        <v>48.3155136</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>42991</v>
+        <v>42954</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C76">
-        <v>89.4885432</v>
+        <v>49.1540654</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>42992</v>
+        <v>42954</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C77">
-        <v>91.373728</v>
+        <v>49.1540654</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>42993</v>
+        <v>42955</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C78">
-        <v>93.3176935</v>
+        <v>49.9487942</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>42994</v>
+        <v>42955</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C79">
-        <v>95.32439239999999</v>
+        <v>49.9487942</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>42995</v>
+        <v>42956</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C80">
-        <v>97.3979835</v>
+        <v>50.7044969</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>42996</v>
+        <v>42956</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C81">
-        <v>99.5427292</v>
+        <v>50.7044969</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>42997</v>
+        <v>42957</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C82">
-        <v>101.7628827</v>
+        <v>51.4266684</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>42998</v>
+        <v>42957</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C83">
-        <v>104.0625668</v>
+        <v>51.4266684</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>42999</v>
+        <v>42958</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C84">
-        <v>106.4456494</v>
+        <v>52.1213615</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>43000</v>
+        <v>42958</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C85">
-        <v>108.9156182</v>
+        <v>52.1213615</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43001</v>
+        <v>42959</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C86">
-        <v>111.4754608</v>
+        <v>52.7950433</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43002</v>
+        <v>42959</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C87">
-        <v>114.1275558</v>
+        <v>52.7950433</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43003</v>
+        <v>42960</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C88">
-        <v>116.8735825</v>
+        <v>53.4544526</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43004</v>
+        <v>42960</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>119.7144548</v>
+        <v>53.4544526</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43005</v>
+        <v>42961</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C90">
-        <v>122.6502862</v>
+        <v>54.1064611</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43006</v>
+        <v>42961</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C91">
-        <v>125.6803925</v>
+        <v>54.1064611</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43007</v>
+        <v>42962</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C92">
-        <v>128.8033355</v>
+        <v>54.7579413</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43008</v>
+        <v>42962</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C93">
-        <v>132.0170097</v>
+        <v>54.7579413</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43009</v>
+        <v>42963</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C94">
-        <v>135.3187729</v>
+        <v>55.4156427</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43010</v>
+        <v>42963</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C95">
-        <v>138.705615</v>
+        <v>55.4156427</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43011</v>
+        <v>42964</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C96">
-        <v>142.1743612</v>
+        <v>56.0860783</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43012</v>
+        <v>42964</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C97">
-        <v>145.7218972</v>
+        <v>56.0860783</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43013</v>
+        <v>42965</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C98">
-        <v>149.3454064</v>
+        <v>56.775422</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43014</v>
+        <v>42965</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C99">
-        <v>153.0426034</v>
+        <v>56.775422</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43015</v>
+        <v>42966</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C100">
-        <v>156.8119494</v>
+        <v>57.4894192</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43016</v>
+        <v>42966</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C101">
-        <v>160.6528329</v>
+        <v>57.4894192</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43017</v>
+        <v>42967</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C102">
-        <v>164.5657027</v>
+        <v>58.2333101</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43018</v>
+        <v>42967</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C103">
-        <v>168.5521405</v>
+        <v>58.2333101</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43019</v>
+        <v>42968</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C104">
-        <v>172.6148637</v>
+        <v>59.0117673</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43020</v>
+        <v>42968</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C105">
-        <v>176.7576554</v>
+        <v>59.0117673</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43021</v>
+        <v>42969</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C106">
-        <v>180.9852199</v>
+        <v>59.8288489</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43022</v>
+        <v>42969</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C107">
-        <v>185.302971</v>
+        <v>59.8288489</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43023</v>
+        <v>42970</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C108">
-        <v>189.7167603</v>
+        <v>60.6879668</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43024</v>
+        <v>42970</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C109">
-        <v>194.2325626</v>
+        <v>60.6879668</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43025</v>
+        <v>42971</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C110">
-        <v>198.8561331</v>
+        <v>61.5918722</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>43026</v>
+        <v>42971</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C111">
-        <v>203.5926577</v>
+        <v>61.5918722</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43027</v>
+        <v>42972</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C112">
-        <v>208.4464156</v>
+        <v>62.542658</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43028</v>
+        <v>42972</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C113">
-        <v>213.4204743</v>
+        <v>62.542658</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43029</v>
+        <v>42973</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C114">
-        <v>218.5164342</v>
+        <v>63.5417793</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43030</v>
+        <v>42973</v>
       </c>
       <c r="B115">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C115">
-        <v>223.7342366</v>
+        <v>63.5417793</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43031</v>
+        <v>42974</v>
       </c>
       <c r="B116">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C116">
-        <v>229.0720459</v>
+        <v>64.59009039999999</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43032</v>
+        <v>42974</v>
       </c>
       <c r="B117">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C117">
-        <v>234.5262103</v>
+        <v>64.59009039999999</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43033</v>
+        <v>42975</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C118">
-        <v>240.0913024</v>
+        <v>65.6878995</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>43034</v>
+        <v>42975</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C119">
-        <v>245.7602344</v>
+        <v>65.6878995</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43035</v>
+        <v>42976</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C120">
-        <v>251.5244405</v>
+        <v>66.8350384</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43036</v>
+        <v>42976</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C121">
-        <v>257.374114</v>
+        <v>66.8350384</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43037</v>
+        <v>42977</v>
       </c>
       <c r="B122">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="C122">
-        <v>263.2984864</v>
+        <v>68.0309458</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43038</v>
+        <v>42977</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C123">
-        <v>269.2861327</v>
+        <v>68.0309458</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43039</v>
+        <v>42978</v>
       </c>
       <c r="B124">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C124">
-        <v>275.3252896</v>
+        <v>69.27476160000001</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43040</v>
+        <v>42978</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="C125">
-        <v>281.4041709</v>
+        <v>69.27476160000001</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43041</v>
+        <v>42979</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="C126">
-        <v>287.5112714</v>
+        <v>70.56543000000001</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43042</v>
+        <v>42979</v>
       </c>
       <c r="B127">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C127">
-        <v>293.6356464</v>
+        <v>70.56543000000001</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43043</v>
+        <v>42980</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C128">
-        <v>299.7671624</v>
+        <v>71.90180549999999</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43044</v>
+        <v>42980</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C129">
-        <v>305.8967133</v>
+        <v>71.90180549999999</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43045</v>
+        <v>42981</v>
       </c>
       <c r="B130">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C130">
-        <v>312.0164</v>
+        <v>73.28276150000001</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43046</v>
+        <v>42981</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="C131">
-        <v>318.1196728</v>
+        <v>73.28276150000001</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43047</v>
+        <v>42982</v>
       </c>
       <c r="B132">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="C132">
-        <v>324.2014367</v>
+        <v>74.7072938</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43048</v>
+        <v>42982</v>
       </c>
       <c r="B133">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C133">
-        <v>330.2581222</v>
+        <v>74.7072938</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43049</v>
+        <v>42983</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C134">
-        <v>336.2877213</v>
+        <v>76.1746189</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43050</v>
+        <v>42983</v>
       </c>
       <c r="B135">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C135">
-        <v>342.2897922</v>
+        <v>76.1746189</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43051</v>
+        <v>42984</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C136">
-        <v>348.2654314</v>
+        <v>77.6842616</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43052</v>
+        <v>42984</v>
       </c>
       <c r="B137">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="C137">
-        <v>354.2172173</v>
+        <v>77.6842616</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43053</v>
+        <v>42985</v>
       </c>
       <c r="B138">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C138">
-        <v>360.1491231</v>
+        <v>79.2361293</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43054</v>
+        <v>42985</v>
       </c>
       <c r="B139">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C139">
-        <v>366.0664025</v>
+        <v>79.2361293</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43055</v>
+        <v>42986</v>
       </c>
       <c r="B140">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="C140">
-        <v>371.9754479</v>
+        <v>80.830572</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>43056</v>
+        <v>42986</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C141">
-        <v>377.8836246</v>
+        <v>80.830572</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>43057</v>
+        <v>42987</v>
       </c>
       <c r="B142">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C142">
-        <v>383.7990837</v>
+        <v>82.468425</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>43058</v>
+        <v>42987</v>
       </c>
       <c r="B143">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="C143">
-        <v>389.7305573</v>
+        <v>82.468425</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>43059</v>
+        <v>42988</v>
       </c>
       <c r="B144">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C144">
-        <v>395.6871437</v>
+        <v>84.1510341</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>43060</v>
+        <v>42988</v>
       </c>
       <c r="B145">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="C145">
-        <v>401.6780856</v>
+        <v>84.1510341</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>43061</v>
+        <v>42989</v>
       </c>
       <c r="B146">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="C146">
-        <v>407.7125521</v>
+        <v>85.880263</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>43062</v>
+        <v>42989</v>
       </c>
       <c r="B147">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C147">
-        <v>413.7994278</v>
+        <v>85.880263</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>43063</v>
+        <v>42990</v>
       </c>
       <c r="B148">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="C148">
-        <v>419.9471202</v>
+        <v>87.6584828</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>43064</v>
+        <v>42990</v>
       </c>
       <c r="B149">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C149">
-        <v>426.1633879</v>
+        <v>87.6584828</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>43065</v>
+        <v>42991</v>
       </c>
       <c r="B150">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C150">
-        <v>432.4551984</v>
+        <v>89.4885432</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>43066</v>
+        <v>42991</v>
       </c>
       <c r="B151">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C151">
-        <v>438.8286166</v>
+        <v>89.4885432</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>43067</v>
+        <v>42992</v>
       </c>
       <c r="B152">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C152">
-        <v>445.288728</v>
+        <v>91.373728</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>43068</v>
+        <v>42992</v>
       </c>
       <c r="B153">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C153">
-        <v>451.8395967</v>
+        <v>91.373728</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>43069</v>
+        <v>42993</v>
       </c>
       <c r="B154">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C154">
-        <v>458.4842566</v>
+        <v>93.3176935</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>43070</v>
+        <v>42993</v>
       </c>
       <c r="B155">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C155">
-        <v>465.2247337</v>
+        <v>93.3176935</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>43071</v>
+        <v>42994</v>
       </c>
       <c r="B156">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="C156">
-        <v>472.0620954</v>
+        <v>95.32439239999999</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>43072</v>
+        <v>42994</v>
       </c>
       <c r="B157">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="C157">
-        <v>478.9965221</v>
+        <v>95.32439239999999</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>43073</v>
+        <v>42995</v>
       </c>
       <c r="B158">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="C158">
-        <v>486.0273964</v>
+        <v>97.3979835</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>43074</v>
+        <v>42995</v>
       </c>
       <c r="B159">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="C159">
-        <v>493.1534042</v>
+        <v>97.3979835</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>43075</v>
+        <v>42996</v>
       </c>
       <c r="B160">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C160">
-        <v>500.3726428</v>
+        <v>99.5427292</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>43076</v>
+        <v>42996</v>
       </c>
       <c r="B161">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C161">
-        <v>507.6827323</v>
+        <v>99.5427292</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>43077</v>
+        <v>42997</v>
       </c>
       <c r="B162">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C162">
-        <v>515.0809261000001</v>
+        <v>101.7628827</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>43078</v>
+        <v>42997</v>
       </c>
       <c r="B163">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C163">
-        <v>522.5642172</v>
+        <v>101.7628827</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>43079</v>
+        <v>42998</v>
       </c>
       <c r="B164">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C164">
-        <v>530.129439</v>
+        <v>104.0625668</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>43080</v>
+        <v>42998</v>
       </c>
       <c r="B165">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="C165">
-        <v>537.7733586000001</v>
+        <v>104.0625668</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>43081</v>
+        <v>42999</v>
       </c>
       <c r="B166">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="C166">
-        <v>545.4927613</v>
+        <v>106.4456494</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>43082</v>
+        <v>42999</v>
       </c>
       <c r="B167">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="C167">
-        <v>553.2845261</v>
+        <v>106.4456494</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>43083</v>
+        <v>43000</v>
       </c>
       <c r="B168">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="C168">
-        <v>561.1456908</v>
+        <v>108.9156182</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>43084</v>
+        <v>43000</v>
       </c>
       <c r="B169">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="C169">
-        <v>569.0735074</v>
+        <v>108.9156182</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>43085</v>
+        <v>43001</v>
       </c>
       <c r="B170">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="C170">
-        <v>577.0654853999999</v>
+        <v>111.4754608</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>43086</v>
+        <v>43001</v>
       </c>
       <c r="B171">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="C171">
-        <v>585.1194235</v>
+        <v>111.4754608</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>43087</v>
+        <v>43002</v>
       </c>
       <c r="B172">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="C172">
-        <v>593.2334289</v>
+        <v>114.1275558</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>43088</v>
+        <v>43002</v>
       </c>
       <c r="B173">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="C173">
-        <v>601.4059228</v>
+        <v>114.1275558</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>43089</v>
+        <v>43003</v>
       </c>
       <c r="B174">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="C174">
-        <v>609.6356325</v>
+        <v>116.8735825</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>43090</v>
+        <v>43003</v>
       </c>
       <c r="B175">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="C175">
-        <v>617.9215696</v>
+        <v>116.8735825</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>43091</v>
+        <v>43004</v>
       </c>
       <c r="B176">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="C176">
-        <v>626.2629957</v>
+        <v>119.7144548</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>43092</v>
+        <v>43004</v>
       </c>
       <c r="B177">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="C177">
-        <v>634.6593764</v>
+        <v>119.7144548</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>43093</v>
+        <v>43005</v>
       </c>
       <c r="B178">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="C178">
-        <v>643.1103266</v>
+        <v>122.6502862</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>43094</v>
+        <v>43005</v>
       </c>
       <c r="B179">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="C179">
-        <v>651.6155497</v>
+        <v>122.6502862</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>43095</v>
+        <v>43006</v>
       </c>
       <c r="B180">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="C180">
-        <v>660.174775</v>
+        <v>125.6803925</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>43096</v>
+        <v>43006</v>
       </c>
       <c r="B181">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="C181">
-        <v>668.7876973</v>
+        <v>125.6803925</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>43097</v>
+        <v>43007</v>
       </c>
       <c r="B182">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="C182">
-        <v>677.4539236000001</v>
+        <v>128.8033355</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>43098</v>
+        <v>43007</v>
       </c>
       <c r="B183">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="C183">
-        <v>686.1729301</v>
+        <v>128.8033355</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>43099</v>
+        <v>43008</v>
       </c>
       <c r="B184">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="C184">
-        <v>694.9440356</v>
+        <v>132.0170097</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>43100</v>
+        <v>43008</v>
       </c>
       <c r="B185">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="C185">
-        <v>703.7663907</v>
+        <v>132.0170097</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="B186">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C186">
-        <v>712.6389884</v>
+        <v>135.3187729</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>43102</v>
+        <v>43009</v>
       </c>
       <c r="B187">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C187">
-        <v>721.5606935</v>
+        <v>135.3187729</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>43103</v>
+        <v>43010</v>
       </c>
       <c r="B188">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="C188">
-        <v>730.5302913</v>
+        <v>138.705615</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>43104</v>
+        <v>43010</v>
       </c>
       <c r="B189">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="C189">
-        <v>739.5465525</v>
+        <v>138.705615</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>43105</v>
+        <v>43011</v>
       </c>
       <c r="B190">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C190">
-        <v>748.6083106999999</v>
+        <v>142.1743612</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>43106</v>
+        <v>43011</v>
       </c>
       <c r="B191">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="C191">
-        <v>757.7145487</v>
+        <v>142.1743612</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>43107</v>
+        <v>43012</v>
       </c>
       <c r="B192">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="C192">
-        <v>766.8644861</v>
+        <v>145.7218972</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>43108</v>
+        <v>43012</v>
       </c>
       <c r="B193">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="C193">
-        <v>776.0576649</v>
+        <v>145.7218972</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2">
-        <v>43109</v>
+        <v>43013</v>
       </c>
       <c r="B194">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="C194">
-        <v>785.2940261</v>
+        <v>149.3454064</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2">
-        <v>43110</v>
+        <v>43013</v>
       </c>
       <c r="B195">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="C195">
-        <v>794.5739724</v>
+        <v>149.3454064</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>43111</v>
+        <v>43014</v>
       </c>
       <c r="B196">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C196">
-        <v>803.8984137</v>
+        <v>153.0426034</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>43112</v>
+        <v>43014</v>
       </c>
       <c r="B197">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="C197">
-        <v>813.2687899</v>
+        <v>153.0426034</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>43113</v>
+        <v>43015</v>
       </c>
       <c r="B198">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="C198">
-        <v>822.6870723</v>
+        <v>156.8119494</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>43114</v>
+        <v>43015</v>
       </c>
       <c r="B199">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C199">
-        <v>832.1557392</v>
+        <v>156.8119494</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>43115</v>
+        <v>43016</v>
       </c>
       <c r="B200">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="C200">
-        <v>841.677729</v>
+        <v>160.6528329</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>43116</v>
+        <v>43016</v>
       </c>
       <c r="B201">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C201">
-        <v>851.2563706</v>
+        <v>160.6528329</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>43117</v>
+        <v>43017</v>
       </c>
       <c r="B202">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C202">
-        <v>860.8952942</v>
+        <v>164.5657027</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2">
-        <v>43118</v>
+        <v>43017</v>
       </c>
       <c r="B203">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="C203">
-        <v>870.5983265</v>
+        <v>164.5657027</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>43119</v>
+        <v>43018</v>
       </c>
       <c r="B204">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="C204">
-        <v>880.3693719</v>
+        <v>168.5521405</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>43120</v>
+        <v>43018</v>
       </c>
       <c r="B205">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C205">
-        <v>890.2122859999999</v>
+        <v>168.5521405</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>43121</v>
+        <v>43019</v>
       </c>
       <c r="B206">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="C206">
-        <v>900.1307441</v>
+        <v>172.6148637</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>43122</v>
+        <v>43019</v>
       </c>
       <c r="B207">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="C207">
-        <v>910.1281082</v>
+        <v>172.6148637</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2">
-        <v>43123</v>
+        <v>43020</v>
       </c>
       <c r="B208">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="C208">
-        <v>920.2072959</v>
+        <v>176.7576554</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>43124</v>
+        <v>43020</v>
       </c>
       <c r="B209">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="C209">
-        <v>930.3706549</v>
+        <v>176.7576554</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2">
-        <v>43125</v>
+        <v>43021</v>
       </c>
       <c r="B210">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="C210">
-        <v>940.6198441</v>
+        <v>180.9852199</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>43126</v>
+        <v>43021</v>
       </c>
       <c r="B211">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="C211">
-        <v>950.955723</v>
+        <v>180.9852199</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2">
-        <v>43127</v>
+        <v>43022</v>
       </c>
       <c r="B212">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="C212">
-        <v>961.3782521000001</v>
+        <v>185.302971</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2">
-        <v>43128</v>
+        <v>43022</v>
       </c>
       <c r="B213">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="C213">
-        <v>971.8864038</v>
+        <v>185.302971</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>43129</v>
+        <v>43023</v>
       </c>
       <c r="B214">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="C214">
-        <v>982.4780847</v>
+        <v>189.7167603</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>43130</v>
+        <v>43023</v>
       </c>
       <c r="B215">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="C215">
-        <v>993.1500708999999</v>
+        <v>189.7167603</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>43131</v>
+        <v>43024</v>
       </c>
       <c r="B216">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="C216">
-        <v>1003.8979573</v>
+        <v>194.2325626</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>43132</v>
+        <v>43024</v>
       </c>
       <c r="B217">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="C217">
-        <v>1014.7161209</v>
+        <v>194.2325626</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>43133</v>
+        <v>43025</v>
       </c>
       <c r="B218">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="C218">
-        <v>1025.597702</v>
+        <v>198.8561331</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>43134</v>
+        <v>43025</v>
       </c>
       <c r="B219">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="C219">
-        <v>1036.5346028</v>
+        <v>198.8561331</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>43135</v>
+        <v>43026</v>
       </c>
       <c r="B220">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C220">
-        <v>1047.5175088</v>
+        <v>203.5926577</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>43136</v>
+        <v>43026</v>
       </c>
       <c r="B221">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C221">
-        <v>1058.535933</v>
+        <v>203.5926577</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2">
-        <v>43137</v>
+        <v>43027</v>
       </c>
       <c r="B222">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="C222">
-        <v>1069.578287</v>
+        <v>208.4464156</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>43138</v>
+        <v>43027</v>
       </c>
       <c r="B223">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="C223">
-        <v>1080.6319803</v>
+        <v>208.4464156</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>43139</v>
+        <v>43028</v>
       </c>
       <c r="B224">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="C224">
-        <v>1091.6835497</v>
+        <v>213.4204743</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>43140</v>
+        <v>43028</v>
       </c>
       <c r="B225">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="C225">
-        <v>1102.7188191</v>
+        <v>213.4204743</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>43141</v>
+        <v>43029</v>
       </c>
       <c r="B226">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="C226">
-        <v>1113.7230876</v>
+        <v>218.5164342</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2">
-        <v>43142</v>
+        <v>43029</v>
       </c>
       <c r="B227">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="C227">
-        <v>1124.6813456</v>
+        <v>218.5164342</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>43143</v>
+        <v>43030</v>
       </c>
       <c r="B228">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="C228">
-        <v>1135.5785122</v>
+        <v>223.7342366</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2">
-        <v>43144</v>
+        <v>43030</v>
       </c>
       <c r="B229">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="C229">
-        <v>1146.3996904</v>
+        <v>223.7342366</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>43145</v>
+        <v>43031</v>
       </c>
       <c r="B230">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="C230">
-        <v>1157.1304303</v>
+        <v>229.0720459</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>43146</v>
+        <v>43031</v>
       </c>
       <c r="B231">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="C231">
-        <v>1167.7569945</v>
+        <v>229.0720459</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>43147</v>
+        <v>43032</v>
       </c>
       <c r="B232">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="C232">
-        <v>1178.266614</v>
+        <v>234.5262103</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>43148</v>
+        <v>43032</v>
       </c>
       <c r="B233">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="C233">
-        <v>1188.6477261</v>
+        <v>234.5262103</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2">
-        <v>43149</v>
+        <v>43033</v>
       </c>
       <c r="B234">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="C234">
-        <v>1198.8901854</v>
+        <v>240.0913024</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>43150</v>
+        <v>43033</v>
       </c>
       <c r="B235">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="C235">
-        <v>1208.985438</v>
+        <v>240.0913024</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>43151</v>
+        <v>43034</v>
       </c>
       <c r="B236">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="C236">
-        <v>1218.9266535</v>
+        <v>245.7602344</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>43152</v>
+        <v>43034</v>
       </c>
       <c r="B237">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="C237">
-        <v>1228.7088082</v>
+        <v>245.7602344</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2">
-        <v>43153</v>
+        <v>43035</v>
       </c>
       <c r="B238">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="C238">
-        <v>1238.3287174</v>
+        <v>251.5244405</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>43154</v>
+        <v>43035</v>
       </c>
       <c r="B239">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="C239">
-        <v>1247.785016</v>
+        <v>251.5244405</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>43155</v>
+        <v>43036</v>
       </c>
       <c r="B240">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="C240">
-        <v>1257.078089</v>
+        <v>257.374114</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>43156</v>
+        <v>43036</v>
       </c>
       <c r="B241">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C241">
-        <v>1266.2099555</v>
+        <v>257.374114</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2">
-        <v>43157</v>
+        <v>43037</v>
       </c>
       <c r="B242">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="C242">
-        <v>1275.184114</v>
+        <v>263.2984864</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2">
-        <v>43158</v>
+        <v>43037</v>
       </c>
       <c r="B243">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="C243">
-        <v>1284.0053537</v>
+        <v>263.2984864</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>43159</v>
+        <v>43038</v>
       </c>
       <c r="B244">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="C244">
-        <v>1292.6795427</v>
+        <v>269.2861327</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>43160</v>
+        <v>43038</v>
       </c>
       <c r="B245">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="C245">
-        <v>1301.2134002</v>
+        <v>269.2861327</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>43161</v>
+        <v>43039</v>
       </c>
       <c r="B246">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="C246">
-        <v>1309.614262</v>
+        <v>275.3252896</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2">
-        <v>43162</v>
+        <v>43039</v>
       </c>
       <c r="B247">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="C247">
-        <v>1317.8898471</v>
+        <v>275.3252896</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2">
-        <v>43163</v>
+        <v>43040</v>
       </c>
       <c r="B248">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="C248">
-        <v>1326.0480331</v>
+        <v>281.4041709</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2">
-        <v>43164</v>
+        <v>43040</v>
       </c>
       <c r="B249">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="C249">
-        <v>1334.0966439</v>
+        <v>281.4041709</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2">
-        <v>43165</v>
+        <v>43041</v>
       </c>
       <c r="B250">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="C250">
-        <v>1342.0432577</v>
+        <v>287.5112714</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2">
-        <v>43166</v>
+        <v>43041</v>
       </c>
       <c r="B251">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C251">
-        <v>1349.8950344</v>
+        <v>287.5112714</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2">
-        <v>43167</v>
+        <v>43042</v>
       </c>
       <c r="B252">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="C252">
-        <v>1357.6585675</v>
+        <v>293.6356464</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2">
-        <v>43168</v>
+        <v>43042</v>
       </c>
       <c r="B253">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="C253">
-        <v>1365.3397597</v>
+        <v>293.6356464</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2">
-        <v>43169</v>
+        <v>43043</v>
       </c>
       <c r="B254">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="C254">
-        <v>1372.9437229</v>
+        <v>299.7671624</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2">
-        <v>43170</v>
+        <v>43043</v>
       </c>
       <c r="B255">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="C255">
-        <v>1380.4747028</v>
+        <v>299.7671624</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2">
-        <v>43171</v>
+        <v>43044</v>
       </c>
       <c r="B256">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="C256">
-        <v>1387.9360282</v>
+        <v>305.8967133</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2">
-        <v>43172</v>
+        <v>43044</v>
       </c>
       <c r="B257">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C257">
-        <v>1395.3300834</v>
+        <v>305.8967133</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2">
-        <v>43173</v>
+        <v>43045</v>
       </c>
       <c r="B258">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="C258">
-        <v>1402.658306</v>
+        <v>312.0164</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2">
-        <v>43174</v>
+        <v>43045</v>
       </c>
       <c r="B259">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="C259">
-        <v>1409.9212085</v>
+        <v>312.0164</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2">
-        <v>43175</v>
+        <v>43046</v>
       </c>
       <c r="B260">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="C260">
-        <v>1417.1184255</v>
+        <v>318.1196728</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2">
-        <v>43176</v>
+        <v>43046</v>
       </c>
       <c r="B261">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="C261">
-        <v>1424.2487853</v>
+        <v>318.1196728</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2">
-        <v>43177</v>
+        <v>43047</v>
       </c>
       <c r="B262">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="C262">
-        <v>1431.3104091</v>
+        <v>324.2014367</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2">
-        <v>43178</v>
+        <v>43047</v>
       </c>
       <c r="B263">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="C263">
-        <v>1438.300834</v>
+        <v>324.2014367</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2">
-        <v>43179</v>
+        <v>43048</v>
       </c>
       <c r="B264">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="C264">
-        <v>1445.2171625</v>
+        <v>330.2581222</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2">
-        <v>43180</v>
+        <v>43048</v>
       </c>
       <c r="B265">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="C265">
-        <v>1452.0562341</v>
+        <v>330.2581222</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2">
-        <v>43181</v>
+        <v>43049</v>
       </c>
       <c r="B266">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="C266">
-        <v>1458.8148176</v>
+        <v>336.2877213</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2">
-        <v>43182</v>
+        <v>43049</v>
       </c>
       <c r="B267">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="C267">
-        <v>1465.4898201</v>
+        <v>336.2877213</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2">
-        <v>43183</v>
+        <v>43050</v>
       </c>
       <c r="B268">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="C268">
-        <v>1472.0785062</v>
+        <v>342.2897922</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2">
-        <v>43184</v>
+        <v>43050</v>
       </c>
       <c r="B269">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="C269">
-        <v>1478.5787216</v>
+        <v>342.2897922</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2">
-        <v>43185</v>
+        <v>43051</v>
       </c>
       <c r="B270">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="C270">
-        <v>1484.9891145</v>
+        <v>348.2654314</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>43186</v>
+        <v>43051</v>
       </c>
       <c r="B271">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="C271">
-        <v>1491.3093441</v>
+        <v>348.2654314</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>43187</v>
+        <v>43052</v>
       </c>
       <c r="B272">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="C272">
-        <v>1497.5402706</v>
+        <v>354.2172173</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2">
-        <v>43188</v>
+        <v>43052</v>
       </c>
       <c r="B273">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="C273">
-        <v>1503.6841168</v>
+        <v>354.2172173</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2">
-        <v>43189</v>
+        <v>43053</v>
       </c>
       <c r="B274">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="C274">
-        <v>1509.7445937</v>
+        <v>360.1491231</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2">
-        <v>43190</v>
+        <v>43053</v>
       </c>
       <c r="B275">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="C275">
-        <v>1515.7269841</v>
+        <v>360.1491231</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2">
-        <v>43191</v>
+        <v>43054</v>
       </c>
       <c r="B276">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="C276">
-        <v>1521.6381781</v>
+        <v>366.0664025</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2">
-        <v>43192</v>
+        <v>43054</v>
       </c>
       <c r="B277">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="C277">
-        <v>1527.4866555</v>
+        <v>366.0664025</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2">
-        <v>43193</v>
+        <v>43055</v>
       </c>
       <c r="B278">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="C278">
-        <v>1533.2824131</v>
+        <v>371.9754479</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2">
-        <v>43194</v>
+        <v>43055</v>
       </c>
       <c r="B279">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="C279">
-        <v>1539.0368331</v>
+        <v>371.9754479</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2">
-        <v>43195</v>
+        <v>43056</v>
       </c>
       <c r="B280">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="C280">
-        <v>1544.7624907</v>
+        <v>377.8836246</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2">
-        <v>43196</v>
+        <v>43056</v>
       </c>
       <c r="B281">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="C281">
-        <v>1550.4729005</v>
+        <v>377.8836246</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2">
-        <v>43197</v>
+        <v>43057</v>
       </c>
       <c r="B282">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C282">
-        <v>1556.1821988</v>
+        <v>383.7990837</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2">
-        <v>43198</v>
+        <v>43057</v>
       </c>
       <c r="B283">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="C283">
-        <v>1561.9047625</v>
+        <v>383.7990837</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2">
-        <v>43199</v>
+        <v>43058</v>
       </c>
       <c r="B284">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="C284">
-        <v>1567.6547623</v>
+        <v>389.7305573</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2">
-        <v>43200</v>
+        <v>43058</v>
       </c>
       <c r="B285">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="C285">
-        <v>1573.4456546</v>
+        <v>389.7305573</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2">
-        <v>43201</v>
+        <v>43059</v>
       </c>
       <c r="B286">
-        <v>285</v>
+        <v>143</v>
       </c>
       <c r="C286">
-        <v>1579.2896146</v>
+        <v>395.6871437</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2">
-        <v>43202</v>
+        <v>43059</v>
       </c>
       <c r="B287">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="C287">
-        <v>1585.1969217</v>
+        <v>395.6871437</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2">
-        <v>43203</v>
+        <v>43060</v>
       </c>
       <c r="B288">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="C288">
-        <v>1591.1753137</v>
+        <v>401.6780856</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2">
-        <v>43204</v>
+        <v>43060</v>
       </c>
       <c r="B289">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="C289">
-        <v>1597.2293352</v>
+        <v>401.6780856</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2">
-        <v>43205</v>
+        <v>43061</v>
       </c>
       <c r="B290">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="C290">
-        <v>1603.3597178</v>
+        <v>407.7125521</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2">
-        <v>43206</v>
+        <v>43061</v>
       </c>
       <c r="B291">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="C291">
-        <v>1609.5628387</v>
+        <v>407.7125521</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2">
-        <v>43207</v>
+        <v>43062</v>
       </c>
       <c r="B292">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="C292">
-        <v>1615.8303139</v>
+        <v>413.7994278</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2">
-        <v>43208</v>
+        <v>43062</v>
       </c>
       <c r="B293">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="C293">
-        <v>1622.1487902</v>
+        <v>413.7994278</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2">
-        <v>43209</v>
+        <v>43063</v>
       </c>
       <c r="B294">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="C294">
-        <v>1628.4999946</v>
+        <v>419.9471202</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2">
-        <v>43210</v>
+        <v>43063</v>
       </c>
       <c r="B295">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="C295">
-        <v>1634.861091</v>
+        <v>419.9471202</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2">
-        <v>43211</v>
+        <v>43064</v>
       </c>
       <c r="B296">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="C296">
-        <v>1641.2053705</v>
+        <v>426.1633879</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2">
-        <v>43212</v>
+        <v>43064</v>
       </c>
       <c r="B297">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="C297">
-        <v>1647.5032695</v>
+        <v>426.1633879</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2">
-        <v>43213</v>
+        <v>43065</v>
       </c>
       <c r="B298">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="C298">
-        <v>1653.723667</v>
+        <v>432.4551984</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2">
-        <v>43214</v>
+        <v>43065</v>
       </c>
       <c r="B299">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="C299">
-        <v>1659.8353736</v>
+        <v>432.4551984</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2">
-        <v>43215</v>
+        <v>43066</v>
       </c>
       <c r="B300">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="C300">
-        <v>1665.8086876</v>
+        <v>438.8286166</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2">
-        <v>43216</v>
+        <v>43066</v>
       </c>
       <c r="B301">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C301">
-        <v>1671.6168765</v>
+        <v>438.8286166</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2">
-        <v>43217</v>
+        <v>43067</v>
       </c>
       <c r="B302">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="C302">
-        <v>1677.2374406</v>
+        <v>445.288728</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2">
-        <v>43218</v>
+        <v>43067</v>
       </c>
       <c r="B303">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="C303">
-        <v>1682.6530403</v>
+        <v>445.288728</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2">
-        <v>43219</v>
+        <v>43068</v>
       </c>
       <c r="B304">
-        <v>303</v>
+        <v>152</v>
       </c>
       <c r="C304">
-        <v>1687.8520115</v>
+        <v>451.8395967</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2">
-        <v>43220</v>
+        <v>43068</v>
       </c>
       <c r="B305">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="C305">
-        <v>1692.828442</v>
+        <v>451.8395967</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2">
-        <v>43221</v>
+        <v>43069</v>
       </c>
       <c r="B306">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="C306">
-        <v>1697.5818396</v>
+        <v>458.4842566</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2">
-        <v>43222</v>
+        <v>43069</v>
       </c>
       <c r="B307">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="C307">
-        <v>1702.1164638</v>
+        <v>458.4842566</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2">
-        <v>43223</v>
+        <v>43070</v>
       </c>
       <c r="B308">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="C308">
-        <v>1706.44042</v>
+        <v>465.2247337</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2">
-        <v>43224</v>
+        <v>43070</v>
       </c>
       <c r="B309">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="C309">
-        <v>1710.5646298</v>
+        <v>465.2247337</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2">
-        <v>43225</v>
+        <v>43071</v>
       </c>
       <c r="B310">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="C310">
-        <v>1714.5017804</v>
+        <v>472.0620954</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2">
-        <v>43226</v>
+        <v>43071</v>
       </c>
       <c r="B311">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="C311">
-        <v>1718.2653417</v>
+        <v>472.0620954</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2">
-        <v>43227</v>
+        <v>43072</v>
       </c>
       <c r="B312">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="C312">
-        <v>1721.8687145</v>
+        <v>478.9965221</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>43228</v>
+        <v>43072</v>
       </c>
       <c r="B313">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="C313">
-        <v>1725.324546</v>
+        <v>478.9965221</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2">
-        <v>43229</v>
+        <v>43073</v>
       </c>
       <c r="B314">
-        <v>313</v>
+        <v>157</v>
       </c>
       <c r="C314">
-        <v>1728.6442289</v>
+        <v>486.0273964</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>43230</v>
+        <v>43073</v>
       </c>
       <c r="B315">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="C315">
-        <v>1731.8375798</v>
+        <v>486.0273964</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>43231</v>
+        <v>43074</v>
       </c>
       <c r="B316">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="C316">
-        <v>1734.91268</v>
+        <v>493.1534042</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>43232</v>
+        <v>43074</v>
       </c>
       <c r="B317">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="C317">
-        <v>1737.8758573</v>
+        <v>493.1534042</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>43233</v>
+        <v>43075</v>
       </c>
       <c r="B318">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="C318">
-        <v>1740.7317782</v>
+        <v>500.3726428</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2">
-        <v>43234</v>
+        <v>43075</v>
       </c>
       <c r="B319">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="C319">
-        <v>1743.4836283</v>
+        <v>500.3726428</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>43235</v>
+        <v>43076</v>
       </c>
       <c r="B320">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="C320">
-        <v>1746.1333506</v>
+        <v>507.6827323</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>43236</v>
+        <v>43076</v>
       </c>
       <c r="B321">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="C321">
-        <v>1748.6819236</v>
+        <v>507.6827323</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>43237</v>
+        <v>43077</v>
       </c>
       <c r="B322">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="C322">
-        <v>1751.1296555</v>
+        <v>515.0809261000001</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>43238</v>
+        <v>43077</v>
       </c>
       <c r="B323">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="C323">
-        <v>1753.4764807</v>
+        <v>515.0809261000001</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2">
-        <v>43239</v>
+        <v>43078</v>
       </c>
       <c r="B324">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="C324">
-        <v>1755.7222429</v>
+        <v>522.5642172</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>43240</v>
+        <v>43078</v>
       </c>
       <c r="B325">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="C325">
-        <v>1757.8669521</v>
+        <v>522.5642172</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>43241</v>
+        <v>43079</v>
       </c>
       <c r="B326">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="C326">
-        <v>1759.911007</v>
+        <v>530.129439</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>43242</v>
+        <v>43079</v>
       </c>
       <c r="B327">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="C327">
-        <v>1761.8553738</v>
+        <v>530.129439</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>43243</v>
+        <v>43080</v>
       </c>
       <c r="B328">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="C328">
-        <v>1763.701716</v>
+        <v>537.7733586000001</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>43244</v>
+        <v>43080</v>
       </c>
       <c r="B329">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="C329">
-        <v>1765.4524707</v>
+        <v>537.7733586000001</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
-        <v>43245</v>
+        <v>43081</v>
       </c>
       <c r="B330">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="C330">
-        <v>1767.1108711</v>
+        <v>545.4927613</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2">
-        <v>43246</v>
+        <v>43081</v>
       </c>
       <c r="B331">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="C331">
-        <v>1768.6809151</v>
+        <v>545.4927613</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2">
-        <v>43247</v>
+        <v>43082</v>
       </c>
       <c r="B332">
-        <v>331</v>
+        <v>166</v>
       </c>
       <c r="C332">
-        <v>1770.1672849</v>
+        <v>553.2845261</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2">
-        <v>43248</v>
+        <v>43082</v>
       </c>
       <c r="B333">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="C333">
-        <v>1771.5752228</v>
+        <v>553.2845261</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2">
-        <v>43249</v>
+        <v>43083</v>
       </c>
       <c r="B334">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="C334">
-        <v>1772.9103716</v>
+        <v>561.1456908</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2">
-        <v>43250</v>
+        <v>43083</v>
       </c>
       <c r="B335">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="C335">
-        <v>1774.1785908</v>
+        <v>561.1456908</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2">
-        <v>43251</v>
+        <v>43084</v>
       </c>
       <c r="B336">
-        <v>335</v>
+        <v>168</v>
       </c>
       <c r="C336">
-        <v>1775.3857587</v>
+        <v>569.0735074</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2">
-        <v>43252</v>
+        <v>43084</v>
       </c>
       <c r="B337">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="C337">
-        <v>1776.5375739</v>
+        <v>569.0735074</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2">
-        <v>43253</v>
+        <v>43085</v>
       </c>
       <c r="B338">
-        <v>337</v>
+        <v>169</v>
       </c>
       <c r="C338">
-        <v>1777.6393677</v>
+        <v>577.0654853999999</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2">
-        <v>43254</v>
+        <v>43085</v>
       </c>
       <c r="B339">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="C339">
-        <v>1778.6959382</v>
+        <v>577.0654853999999</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2">
-        <v>43255</v>
+        <v>43086</v>
       </c>
       <c r="B340">
-        <v>339</v>
+        <v>170</v>
       </c>
       <c r="C340">
-        <v>1779.711418</v>
+        <v>585.1194235</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2">
-        <v>43256</v>
+        <v>43086</v>
       </c>
       <c r="B341">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="C341">
-        <v>1780.6891797</v>
+        <v>585.1194235</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2">
-        <v>43257</v>
+        <v>43087</v>
       </c>
       <c r="B342">
-        <v>341</v>
+        <v>171</v>
       </c>
       <c r="C342">
-        <v>1781.6317868</v>
+        <v>593.2334289</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2">
-        <v>43258</v>
+        <v>43087</v>
       </c>
       <c r="B343">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="C343">
-        <v>1782.5409906</v>
+        <v>593.2334289</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2">
-        <v>43259</v>
+        <v>43088</v>
       </c>
       <c r="B344">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="C344">
-        <v>1783.4177705</v>
+        <v>601.4059228</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2">
-        <v>43260</v>
+        <v>43088</v>
       </c>
       <c r="B345">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="C345">
-        <v>1784.262415</v>
+        <v>601.4059228</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2">
-        <v>43261</v>
+        <v>43089</v>
       </c>
       <c r="B346">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="C346">
-        <v>1785.0746347</v>
+        <v>609.6356325</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2">
-        <v>43262</v>
+        <v>43089</v>
       </c>
       <c r="B347">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="C347">
-        <v>1785.8536987</v>
+        <v>609.6356325</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>43263</v>
+        <v>43090</v>
       </c>
       <c r="B348">
-        <v>347</v>
+        <v>174</v>
       </c>
       <c r="C348">
-        <v>1786.5985836</v>
+        <v>617.9215696</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>43264</v>
+        <v>43090</v>
       </c>
       <c r="B349">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="C349">
-        <v>1787.3081252</v>
+        <v>617.9215696</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2">
-        <v>43265</v>
+        <v>43091</v>
       </c>
       <c r="B350">
-        <v>349</v>
+        <v>175</v>
       </c>
       <c r="C350">
-        <v>1787.9811617</v>
+        <v>626.2629957</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2">
-        <v>43266</v>
+        <v>43091</v>
       </c>
       <c r="B351">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="C351">
-        <v>1788.616662</v>
+        <v>626.2629957</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2">
-        <v>43267</v>
+        <v>43092</v>
       </c>
       <c r="B352">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="C352">
-        <v>1789.2138295</v>
+        <v>634.6593764</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2">
-        <v>43268</v>
+        <v>43092</v>
       </c>
       <c r="B353">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="C353">
-        <v>1789.7721814</v>
+        <v>634.6593764</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2">
-        <v>43269</v>
+        <v>43093</v>
       </c>
       <c r="B354">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="C354">
-        <v>1790.2915979</v>
+        <v>643.1103266</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2">
-        <v>43270</v>
+        <v>43093</v>
       </c>
       <c r="B355">
-        <v>354</v>
+        <v>177</v>
       </c>
       <c r="C355">
-        <v>1790.7723457</v>
+        <v>643.1103266</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2">
-        <v>43271</v>
+        <v>43094</v>
       </c>
       <c r="B356">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C356">
-        <v>1791.215075</v>
+        <v>651.6155497</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2">
-        <v>43272</v>
+        <v>43094</v>
       </c>
       <c r="B357">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="C357">
-        <v>1791.6207972</v>
+        <v>651.6155497</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2">
-        <v>43273</v>
+        <v>43095</v>
       </c>
       <c r="B358">
-        <v>357</v>
+        <v>179</v>
       </c>
       <c r="C358">
-        <v>1791.9908455</v>
+        <v>660.174775</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2">
-        <v>43274</v>
+        <v>43095</v>
       </c>
       <c r="B359">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="C359">
-        <v>1792.3268251</v>
+        <v>660.174775</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2">
-        <v>43275</v>
+        <v>43096</v>
       </c>
       <c r="B360">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="C360">
-        <v>1792.6305569</v>
+        <v>668.7876973</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2">
-        <v>43276</v>
+        <v>43096</v>
       </c>
       <c r="B361">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="C361">
-        <v>1792.9040192</v>
+        <v>668.7876973</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2">
-        <v>43277</v>
+        <v>43097</v>
       </c>
       <c r="B362">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="C362">
-        <v>1793.1492913</v>
+        <v>677.4539236000001</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2">
-        <v>43278</v>
+        <v>43097</v>
       </c>
       <c r="B363">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="C363">
-        <v>1793.368501</v>
+        <v>677.4539236000001</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2">
-        <v>43279</v>
+        <v>43098</v>
       </c>
       <c r="B364">
-        <v>363</v>
+        <v>182</v>
       </c>
       <c r="C364">
-        <v>1793.5637784</v>
+        <v>686.1729301</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2">
-        <v>43280</v>
+        <v>43098</v>
       </c>
       <c r="B365">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="C365">
-        <v>1793.7372166</v>
+        <v>686.1729301</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2">
+        <v>43099</v>
+      </c>
+      <c r="B366">
+        <v>183</v>
+      </c>
+      <c r="C366">
+        <v>694.9440356</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>43099</v>
+      </c>
+      <c r="B367">
+        <v>183</v>
+      </c>
+      <c r="C367">
+        <v>694.9440356</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B368">
+        <v>184</v>
+      </c>
+      <c r="C368">
+        <v>703.7663907</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B369">
+        <v>184</v>
+      </c>
+      <c r="C369">
+        <v>703.7663907</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B370">
+        <v>185</v>
+      </c>
+      <c r="C370">
+        <v>712.6389884</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B371">
+        <v>185</v>
+      </c>
+      <c r="C371">
+        <v>712.6389884</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B372">
+        <v>186</v>
+      </c>
+      <c r="C372">
+        <v>721.5606935</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B373">
+        <v>186</v>
+      </c>
+      <c r="C373">
+        <v>721.5606935</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B374">
+        <v>187</v>
+      </c>
+      <c r="C374">
+        <v>730.5302913</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B375">
+        <v>187</v>
+      </c>
+      <c r="C375">
+        <v>730.5302913</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B376">
+        <v>188</v>
+      </c>
+      <c r="C376">
+        <v>739.5465525</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B377">
+        <v>188</v>
+      </c>
+      <c r="C377">
+        <v>739.5465525</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B378">
+        <v>189</v>
+      </c>
+      <c r="C378">
+        <v>748.6083106999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B379">
+        <v>189</v>
+      </c>
+      <c r="C379">
+        <v>748.6083106999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B380">
+        <v>190</v>
+      </c>
+      <c r="C380">
+        <v>757.7145487</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B381">
+        <v>190</v>
+      </c>
+      <c r="C381">
+        <v>757.7145487</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2">
+        <v>43107</v>
+      </c>
+      <c r="B382">
+        <v>191</v>
+      </c>
+      <c r="C382">
+        <v>766.8644861</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2">
+        <v>43107</v>
+      </c>
+      <c r="B383">
+        <v>191</v>
+      </c>
+      <c r="C383">
+        <v>766.8644861</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B384">
+        <v>192</v>
+      </c>
+      <c r="C384">
+        <v>776.0576649</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B385">
+        <v>192</v>
+      </c>
+      <c r="C385">
+        <v>776.0576649</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B386">
+        <v>193</v>
+      </c>
+      <c r="C386">
+        <v>785.2940261</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B387">
+        <v>193</v>
+      </c>
+      <c r="C387">
+        <v>785.2940261</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B388">
+        <v>194</v>
+      </c>
+      <c r="C388">
+        <v>794.5739724</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B389">
+        <v>194</v>
+      </c>
+      <c r="C389">
+        <v>794.5739724</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B390">
+        <v>195</v>
+      </c>
+      <c r="C390">
+        <v>803.8984137</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B391">
+        <v>195</v>
+      </c>
+      <c r="C391">
+        <v>803.8984137</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B392">
+        <v>196</v>
+      </c>
+      <c r="C392">
+        <v>813.2687899</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B393">
+        <v>196</v>
+      </c>
+      <c r="C393">
+        <v>813.2687899</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2">
+        <v>43113</v>
+      </c>
+      <c r="B394">
+        <v>197</v>
+      </c>
+      <c r="C394">
+        <v>822.6870723</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2">
+        <v>43113</v>
+      </c>
+      <c r="B395">
+        <v>197</v>
+      </c>
+      <c r="C395">
+        <v>822.6870723</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B396">
+        <v>198</v>
+      </c>
+      <c r="C396">
+        <v>832.1557392</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B397">
+        <v>198</v>
+      </c>
+      <c r="C397">
+        <v>832.1557392</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B398">
+        <v>199</v>
+      </c>
+      <c r="C398">
+        <v>841.677729</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B399">
+        <v>199</v>
+      </c>
+      <c r="C399">
+        <v>841.677729</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B400">
+        <v>200</v>
+      </c>
+      <c r="C400">
+        <v>851.2563706</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B401">
+        <v>200</v>
+      </c>
+      <c r="C401">
+        <v>851.2563706</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B402">
+        <v>201</v>
+      </c>
+      <c r="C402">
+        <v>860.8952942</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B403">
+        <v>201</v>
+      </c>
+      <c r="C403">
+        <v>860.8952942</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B404">
+        <v>202</v>
+      </c>
+      <c r="C404">
+        <v>870.5983265</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B405">
+        <v>202</v>
+      </c>
+      <c r="C405">
+        <v>870.5983265</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B406">
+        <v>203</v>
+      </c>
+      <c r="C406">
+        <v>880.3693719</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B407">
+        <v>203</v>
+      </c>
+      <c r="C407">
+        <v>880.3693719</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B408">
+        <v>204</v>
+      </c>
+      <c r="C408">
+        <v>890.2122859999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B409">
+        <v>204</v>
+      </c>
+      <c r="C409">
+        <v>890.2122859999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B410">
+        <v>205</v>
+      </c>
+      <c r="C410">
+        <v>900.1307441</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B411">
+        <v>205</v>
+      </c>
+      <c r="C411">
+        <v>900.1307441</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B412">
+        <v>206</v>
+      </c>
+      <c r="C412">
+        <v>910.1281082</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B413">
+        <v>206</v>
+      </c>
+      <c r="C413">
+        <v>910.1281082</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B414">
+        <v>207</v>
+      </c>
+      <c r="C414">
+        <v>920.2072959</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B415">
+        <v>207</v>
+      </c>
+      <c r="C415">
+        <v>920.2072959</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B416">
+        <v>208</v>
+      </c>
+      <c r="C416">
+        <v>930.3706549</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B417">
+        <v>208</v>
+      </c>
+      <c r="C417">
+        <v>930.3706549</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B418">
+        <v>209</v>
+      </c>
+      <c r="C418">
+        <v>940.6198441</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B419">
+        <v>209</v>
+      </c>
+      <c r="C419">
+        <v>940.6198441</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B420">
+        <v>210</v>
+      </c>
+      <c r="C420">
+        <v>950.955723</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B421">
+        <v>210</v>
+      </c>
+      <c r="C421">
+        <v>950.955723</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B422">
+        <v>211</v>
+      </c>
+      <c r="C422">
+        <v>961.3782521000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B423">
+        <v>211</v>
+      </c>
+      <c r="C423">
+        <v>961.3782521000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B424">
+        <v>212</v>
+      </c>
+      <c r="C424">
+        <v>971.8864038</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B425">
+        <v>212</v>
+      </c>
+      <c r="C425">
+        <v>971.8864038</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B426">
+        <v>213</v>
+      </c>
+      <c r="C426">
+        <v>982.4780847</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B427">
+        <v>213</v>
+      </c>
+      <c r="C427">
+        <v>982.4780847</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B428">
+        <v>214</v>
+      </c>
+      <c r="C428">
+        <v>993.1500708999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B429">
+        <v>214</v>
+      </c>
+      <c r="C429">
+        <v>993.1500708999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B430">
+        <v>215</v>
+      </c>
+      <c r="C430">
+        <v>1003.8979573</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B431">
+        <v>215</v>
+      </c>
+      <c r="C431">
+        <v>1003.8979573</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B432">
+        <v>216</v>
+      </c>
+      <c r="C432">
+        <v>1014.7161209</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B433">
+        <v>216</v>
+      </c>
+      <c r="C433">
+        <v>1014.7161209</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B434">
+        <v>217</v>
+      </c>
+      <c r="C434">
+        <v>1025.597702</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B435">
+        <v>217</v>
+      </c>
+      <c r="C435">
+        <v>1025.597702</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B436">
+        <v>218</v>
+      </c>
+      <c r="C436">
+        <v>1036.5346028</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B437">
+        <v>218</v>
+      </c>
+      <c r="C437">
+        <v>1036.5346028</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>43135</v>
+      </c>
+      <c r="B438">
+        <v>219</v>
+      </c>
+      <c r="C438">
+        <v>1047.5175088</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2">
+        <v>43135</v>
+      </c>
+      <c r="B439">
+        <v>219</v>
+      </c>
+      <c r="C439">
+        <v>1047.5175088</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B440">
+        <v>220</v>
+      </c>
+      <c r="C440">
+        <v>1058.535933</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B441">
+        <v>220</v>
+      </c>
+      <c r="C441">
+        <v>1058.535933</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B442">
+        <v>221</v>
+      </c>
+      <c r="C442">
+        <v>1069.578287</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B443">
+        <v>221</v>
+      </c>
+      <c r="C443">
+        <v>1069.578287</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B444">
+        <v>222</v>
+      </c>
+      <c r="C444">
+        <v>1080.6319803</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B445">
+        <v>222</v>
+      </c>
+      <c r="C445">
+        <v>1080.6319803</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B446">
+        <v>223</v>
+      </c>
+      <c r="C446">
+        <v>1091.6835497</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B447">
+        <v>223</v>
+      </c>
+      <c r="C447">
+        <v>1091.6835497</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B448">
+        <v>224</v>
+      </c>
+      <c r="C448">
+        <v>1102.7188191</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B449">
+        <v>224</v>
+      </c>
+      <c r="C449">
+        <v>1102.7188191</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2">
+        <v>43141</v>
+      </c>
+      <c r="B450">
+        <v>225</v>
+      </c>
+      <c r="C450">
+        <v>1113.7230876</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2">
+        <v>43141</v>
+      </c>
+      <c r="B451">
+        <v>225</v>
+      </c>
+      <c r="C451">
+        <v>1113.7230876</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B452">
+        <v>226</v>
+      </c>
+      <c r="C452">
+        <v>1124.6813456</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B453">
+        <v>226</v>
+      </c>
+      <c r="C453">
+        <v>1124.6813456</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B454">
+        <v>227</v>
+      </c>
+      <c r="C454">
+        <v>1135.5785122</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B455">
+        <v>227</v>
+      </c>
+      <c r="C455">
+        <v>1135.5785122</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B456">
+        <v>228</v>
+      </c>
+      <c r="C456">
+        <v>1146.3996904</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B457">
+        <v>228</v>
+      </c>
+      <c r="C457">
+        <v>1146.3996904</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B458">
+        <v>229</v>
+      </c>
+      <c r="C458">
+        <v>1157.1304303</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B459">
+        <v>229</v>
+      </c>
+      <c r="C459">
+        <v>1157.1304303</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B460">
+        <v>230</v>
+      </c>
+      <c r="C460">
+        <v>1167.7569945</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B461">
+        <v>230</v>
+      </c>
+      <c r="C461">
+        <v>1167.7569945</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B462">
+        <v>231</v>
+      </c>
+      <c r="C462">
+        <v>1178.266614</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B463">
+        <v>231</v>
+      </c>
+      <c r="C463">
+        <v>1178.266614</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B464">
+        <v>232</v>
+      </c>
+      <c r="C464">
+        <v>1188.6477261</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B465">
+        <v>232</v>
+      </c>
+      <c r="C465">
+        <v>1188.6477261</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B466">
+        <v>233</v>
+      </c>
+      <c r="C466">
+        <v>1198.8901854</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B467">
+        <v>233</v>
+      </c>
+      <c r="C467">
+        <v>1198.8901854</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B468">
+        <v>234</v>
+      </c>
+      <c r="C468">
+        <v>1208.985438</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B469">
+        <v>234</v>
+      </c>
+      <c r="C469">
+        <v>1208.985438</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B470">
+        <v>235</v>
+      </c>
+      <c r="C470">
+        <v>1218.9266535</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B471">
+        <v>235</v>
+      </c>
+      <c r="C471">
+        <v>1218.9266535</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B472">
+        <v>236</v>
+      </c>
+      <c r="C472">
+        <v>1228.7088082</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B473">
+        <v>236</v>
+      </c>
+      <c r="C473">
+        <v>1228.7088082</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B474">
+        <v>237</v>
+      </c>
+      <c r="C474">
+        <v>1238.3287174</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B475">
+        <v>237</v>
+      </c>
+      <c r="C475">
+        <v>1238.3287174</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B476">
+        <v>238</v>
+      </c>
+      <c r="C476">
+        <v>1247.785016</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B477">
+        <v>238</v>
+      </c>
+      <c r="C477">
+        <v>1247.785016</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B478">
+        <v>239</v>
+      </c>
+      <c r="C478">
+        <v>1257.078089</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B479">
+        <v>239</v>
+      </c>
+      <c r="C479">
+        <v>1257.078089</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="2">
+        <v>43156</v>
+      </c>
+      <c r="B480">
+        <v>240</v>
+      </c>
+      <c r="C480">
+        <v>1266.2099555</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="2">
+        <v>43156</v>
+      </c>
+      <c r="B481">
+        <v>240</v>
+      </c>
+      <c r="C481">
+        <v>1266.2099555</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B482">
+        <v>241</v>
+      </c>
+      <c r="C482">
+        <v>1275.184114</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B483">
+        <v>241</v>
+      </c>
+      <c r="C483">
+        <v>1275.184114</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B484">
+        <v>242</v>
+      </c>
+      <c r="C484">
+        <v>1284.0053537</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B485">
+        <v>242</v>
+      </c>
+      <c r="C485">
+        <v>1284.0053537</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B486">
+        <v>243</v>
+      </c>
+      <c r="C486">
+        <v>1292.6795427</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B487">
+        <v>243</v>
+      </c>
+      <c r="C487">
+        <v>1292.6795427</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B488">
+        <v>244</v>
+      </c>
+      <c r="C488">
+        <v>1301.2134002</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B489">
+        <v>244</v>
+      </c>
+      <c r="C489">
+        <v>1301.2134002</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B490">
+        <v>245</v>
+      </c>
+      <c r="C490">
+        <v>1309.614262</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B491">
+        <v>245</v>
+      </c>
+      <c r="C491">
+        <v>1309.614262</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="2">
+        <v>43162</v>
+      </c>
+      <c r="B492">
+        <v>246</v>
+      </c>
+      <c r="C492">
+        <v>1317.8898471</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="2">
+        <v>43162</v>
+      </c>
+      <c r="B493">
+        <v>246</v>
+      </c>
+      <c r="C493">
+        <v>1317.8898471</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B494">
+        <v>247</v>
+      </c>
+      <c r="C494">
+        <v>1326.0480331</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B495">
+        <v>247</v>
+      </c>
+      <c r="C495">
+        <v>1326.0480331</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B496">
+        <v>248</v>
+      </c>
+      <c r="C496">
+        <v>1334.0966439</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B497">
+        <v>248</v>
+      </c>
+      <c r="C497">
+        <v>1334.0966439</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B498">
+        <v>249</v>
+      </c>
+      <c r="C498">
+        <v>1342.0432577</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B499">
+        <v>249</v>
+      </c>
+      <c r="C499">
+        <v>1342.0432577</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B500">
+        <v>250</v>
+      </c>
+      <c r="C500">
+        <v>1349.8950344</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B501">
+        <v>250</v>
+      </c>
+      <c r="C501">
+        <v>1349.8950344</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B502">
+        <v>251</v>
+      </c>
+      <c r="C502">
+        <v>1357.6585675</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B503">
+        <v>251</v>
+      </c>
+      <c r="C503">
+        <v>1357.6585675</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B504">
+        <v>252</v>
+      </c>
+      <c r="C504">
+        <v>1365.3397597</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B505">
+        <v>252</v>
+      </c>
+      <c r="C505">
+        <v>1365.3397597</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="2">
+        <v>43169</v>
+      </c>
+      <c r="B506">
+        <v>253</v>
+      </c>
+      <c r="C506">
+        <v>1372.9437229</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="2">
+        <v>43169</v>
+      </c>
+      <c r="B507">
+        <v>253</v>
+      </c>
+      <c r="C507">
+        <v>1372.9437229</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="2">
+        <v>43170</v>
+      </c>
+      <c r="B508">
+        <v>254</v>
+      </c>
+      <c r="C508">
+        <v>1380.4747028</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="2">
+        <v>43170</v>
+      </c>
+      <c r="B509">
+        <v>254</v>
+      </c>
+      <c r="C509">
+        <v>1380.4747028</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B510">
+        <v>255</v>
+      </c>
+      <c r="C510">
+        <v>1387.9360282</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B511">
+        <v>255</v>
+      </c>
+      <c r="C511">
+        <v>1387.9360282</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B512">
+        <v>256</v>
+      </c>
+      <c r="C512">
+        <v>1395.3300834</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B513">
+        <v>256</v>
+      </c>
+      <c r="C513">
+        <v>1395.3300834</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B514">
+        <v>257</v>
+      </c>
+      <c r="C514">
+        <v>1402.658306</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B515">
+        <v>257</v>
+      </c>
+      <c r="C515">
+        <v>1402.658306</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B516">
+        <v>258</v>
+      </c>
+      <c r="C516">
+        <v>1409.9212085</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B517">
+        <v>258</v>
+      </c>
+      <c r="C517">
+        <v>1409.9212085</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B518">
+        <v>259</v>
+      </c>
+      <c r="C518">
+        <v>1417.1184255</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B519">
+        <v>259</v>
+      </c>
+      <c r="C519">
+        <v>1417.1184255</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B520">
+        <v>260</v>
+      </c>
+      <c r="C520">
+        <v>1424.2487853</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B521">
+        <v>260</v>
+      </c>
+      <c r="C521">
+        <v>1424.2487853</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B522">
+        <v>261</v>
+      </c>
+      <c r="C522">
+        <v>1431.3104091</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B523">
+        <v>261</v>
+      </c>
+      <c r="C523">
+        <v>1431.3104091</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B524">
+        <v>262</v>
+      </c>
+      <c r="C524">
+        <v>1438.300834</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B525">
+        <v>262</v>
+      </c>
+      <c r="C525">
+        <v>1438.300834</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B526">
+        <v>263</v>
+      </c>
+      <c r="C526">
+        <v>1445.2171625</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B527">
+        <v>263</v>
+      </c>
+      <c r="C527">
+        <v>1445.2171625</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B528">
+        <v>264</v>
+      </c>
+      <c r="C528">
+        <v>1452.0562341</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B529">
+        <v>264</v>
+      </c>
+      <c r="C529">
+        <v>1452.0562341</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B530">
+        <v>265</v>
+      </c>
+      <c r="C530">
+        <v>1458.8148176</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B531">
+        <v>265</v>
+      </c>
+      <c r="C531">
+        <v>1458.8148176</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B532">
+        <v>266</v>
+      </c>
+      <c r="C532">
+        <v>1465.4898201</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B533">
+        <v>266</v>
+      </c>
+      <c r="C533">
+        <v>1465.4898201</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B534">
+        <v>267</v>
+      </c>
+      <c r="C534">
+        <v>1472.0785062</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B535">
+        <v>267</v>
+      </c>
+      <c r="C535">
+        <v>1472.0785062</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B536">
+        <v>268</v>
+      </c>
+      <c r="C536">
+        <v>1478.5787216</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B537">
+        <v>268</v>
+      </c>
+      <c r="C537">
+        <v>1478.5787216</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B538">
+        <v>269</v>
+      </c>
+      <c r="C538">
+        <v>1484.9891145</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B539">
+        <v>269</v>
+      </c>
+      <c r="C539">
+        <v>1484.9891145</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B540">
+        <v>270</v>
+      </c>
+      <c r="C540">
+        <v>1491.3093441</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B541">
+        <v>270</v>
+      </c>
+      <c r="C541">
+        <v>1491.3093441</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B542">
+        <v>271</v>
+      </c>
+      <c r="C542">
+        <v>1497.5402706</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B543">
+        <v>271</v>
+      </c>
+      <c r="C543">
+        <v>1497.5402706</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B544">
+        <v>272</v>
+      </c>
+      <c r="C544">
+        <v>1503.6841168</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B545">
+        <v>272</v>
+      </c>
+      <c r="C545">
+        <v>1503.6841168</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B546">
+        <v>273</v>
+      </c>
+      <c r="C546">
+        <v>1509.7445937</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B547">
+        <v>273</v>
+      </c>
+      <c r="C547">
+        <v>1509.7445937</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B548">
+        <v>274</v>
+      </c>
+      <c r="C548">
+        <v>1515.7269841</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B549">
+        <v>274</v>
+      </c>
+      <c r="C549">
+        <v>1515.7269841</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B550">
+        <v>275</v>
+      </c>
+      <c r="C550">
+        <v>1521.6381781</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B551">
+        <v>275</v>
+      </c>
+      <c r="C551">
+        <v>1521.6381781</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B552">
+        <v>276</v>
+      </c>
+      <c r="C552">
+        <v>1527.4866555</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B553">
+        <v>276</v>
+      </c>
+      <c r="C553">
+        <v>1527.4866555</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B554">
+        <v>277</v>
+      </c>
+      <c r="C554">
+        <v>1533.2824131</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B555">
+        <v>277</v>
+      </c>
+      <c r="C555">
+        <v>1533.2824131</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B556">
+        <v>278</v>
+      </c>
+      <c r="C556">
+        <v>1539.0368331</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B557">
+        <v>278</v>
+      </c>
+      <c r="C557">
+        <v>1539.0368331</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B558">
+        <v>279</v>
+      </c>
+      <c r="C558">
+        <v>1544.7624907</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B559">
+        <v>279</v>
+      </c>
+      <c r="C559">
+        <v>1544.7624907</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="2">
+        <v>43196</v>
+      </c>
+      <c r="B560">
+        <v>280</v>
+      </c>
+      <c r="C560">
+        <v>1550.4729005</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="2">
+        <v>43196</v>
+      </c>
+      <c r="B561">
+        <v>280</v>
+      </c>
+      <c r="C561">
+        <v>1550.4729005</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B562">
+        <v>281</v>
+      </c>
+      <c r="C562">
+        <v>1556.1821988</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B563">
+        <v>281</v>
+      </c>
+      <c r="C563">
+        <v>1556.1821988</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>43198</v>
+      </c>
+      <c r="B564">
+        <v>282</v>
+      </c>
+      <c r="C564">
+        <v>1561.9047625</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>43198</v>
+      </c>
+      <c r="B565">
+        <v>282</v>
+      </c>
+      <c r="C565">
+        <v>1561.9047625</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B566">
+        <v>283</v>
+      </c>
+      <c r="C566">
+        <v>1567.6547623</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B567">
+        <v>283</v>
+      </c>
+      <c r="C567">
+        <v>1567.6547623</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B568">
+        <v>284</v>
+      </c>
+      <c r="C568">
+        <v>1573.4456546</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B569">
+        <v>284</v>
+      </c>
+      <c r="C569">
+        <v>1573.4456546</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B570">
+        <v>285</v>
+      </c>
+      <c r="C570">
+        <v>1579.2896146</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B571">
+        <v>285</v>
+      </c>
+      <c r="C571">
+        <v>1579.2896146</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B572">
+        <v>286</v>
+      </c>
+      <c r="C572">
+        <v>1585.1969217</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B573">
+        <v>286</v>
+      </c>
+      <c r="C573">
+        <v>1585.1969217</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B574">
+        <v>287</v>
+      </c>
+      <c r="C574">
+        <v>1591.1753137</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B575">
+        <v>287</v>
+      </c>
+      <c r="C575">
+        <v>1591.1753137</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B576">
+        <v>288</v>
+      </c>
+      <c r="C576">
+        <v>1597.2293352</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B577">
+        <v>288</v>
+      </c>
+      <c r="C577">
+        <v>1597.2293352</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B578">
+        <v>289</v>
+      </c>
+      <c r="C578">
+        <v>1603.3597178</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B579">
+        <v>290</v>
+      </c>
+      <c r="C579">
+        <v>1609.5628387</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B580">
+        <v>291</v>
+      </c>
+      <c r="C580">
+        <v>1615.8303139</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B581">
+        <v>292</v>
+      </c>
+      <c r="C581">
+        <v>1622.1487902</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B582">
+        <v>293</v>
+      </c>
+      <c r="C582">
+        <v>1628.4999946</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B583">
+        <v>294</v>
+      </c>
+      <c r="C583">
+        <v>1634.861091</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="2">
+        <v>43211</v>
+      </c>
+      <c r="B584">
+        <v>295</v>
+      </c>
+      <c r="C584">
+        <v>1641.2053705</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="2">
+        <v>43212</v>
+      </c>
+      <c r="B585">
+        <v>296</v>
+      </c>
+      <c r="C585">
+        <v>1647.5032695</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B586">
+        <v>297</v>
+      </c>
+      <c r="C586">
+        <v>1653.723667</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B587">
+        <v>298</v>
+      </c>
+      <c r="C587">
+        <v>1659.8353736</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B588">
+        <v>299</v>
+      </c>
+      <c r="C588">
+        <v>1665.8086876</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B589">
+        <v>300</v>
+      </c>
+      <c r="C589">
+        <v>1671.6168765</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B590">
+        <v>301</v>
+      </c>
+      <c r="C590">
+        <v>1677.2374406</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2">
+        <v>43218</v>
+      </c>
+      <c r="B591">
+        <v>302</v>
+      </c>
+      <c r="C591">
+        <v>1682.6530403</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="2">
+        <v>43219</v>
+      </c>
+      <c r="B592">
+        <v>303</v>
+      </c>
+      <c r="C592">
+        <v>1687.8520115</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B593">
+        <v>304</v>
+      </c>
+      <c r="C593">
+        <v>1692.828442</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B594">
+        <v>305</v>
+      </c>
+      <c r="C594">
+        <v>1697.5818396</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B595">
+        <v>306</v>
+      </c>
+      <c r="C595">
+        <v>1702.1164638</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B596">
+        <v>307</v>
+      </c>
+      <c r="C596">
+        <v>1706.44042</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B597">
+        <v>308</v>
+      </c>
+      <c r="C597">
+        <v>1710.5646298</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="2">
+        <v>43225</v>
+      </c>
+      <c r="B598">
+        <v>309</v>
+      </c>
+      <c r="C598">
+        <v>1714.5017804</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="2">
+        <v>43226</v>
+      </c>
+      <c r="B599">
+        <v>310</v>
+      </c>
+      <c r="C599">
+        <v>1718.2653417</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="2">
+        <v>43227</v>
+      </c>
+      <c r="B600">
+        <v>311</v>
+      </c>
+      <c r="C600">
+        <v>1721.8687145</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B601">
+        <v>312</v>
+      </c>
+      <c r="C601">
+        <v>1725.324546</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="2">
+        <v>43229</v>
+      </c>
+      <c r="B602">
+        <v>313</v>
+      </c>
+      <c r="C602">
+        <v>1728.6442289</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="2">
+        <v>43230</v>
+      </c>
+      <c r="B603">
+        <v>314</v>
+      </c>
+      <c r="C603">
+        <v>1731.8375798</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="2">
+        <v>43231</v>
+      </c>
+      <c r="B604">
+        <v>315</v>
+      </c>
+      <c r="C604">
+        <v>1734.91268</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="2">
+        <v>43232</v>
+      </c>
+      <c r="B605">
+        <v>316</v>
+      </c>
+      <c r="C605">
+        <v>1737.8758573</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B606">
+        <v>317</v>
+      </c>
+      <c r="C606">
+        <v>1740.7317782</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B607">
+        <v>318</v>
+      </c>
+      <c r="C607">
+        <v>1743.4836283</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B608">
+        <v>319</v>
+      </c>
+      <c r="C608">
+        <v>1746.1333506</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B609">
+        <v>320</v>
+      </c>
+      <c r="C609">
+        <v>1748.6819236</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B610">
+        <v>321</v>
+      </c>
+      <c r="C610">
+        <v>1751.1296555</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B611">
+        <v>322</v>
+      </c>
+      <c r="C611">
+        <v>1753.4764807</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="2">
+        <v>43239</v>
+      </c>
+      <c r="B612">
+        <v>323</v>
+      </c>
+      <c r="C612">
+        <v>1755.7222429</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="2">
+        <v>43240</v>
+      </c>
+      <c r="B613">
+        <v>324</v>
+      </c>
+      <c r="C613">
+        <v>1757.8669521</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="2">
+        <v>43241</v>
+      </c>
+      <c r="B614">
+        <v>325</v>
+      </c>
+      <c r="C614">
+        <v>1759.911007</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B615">
+        <v>326</v>
+      </c>
+      <c r="C615">
+        <v>1761.8553738</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B616">
+        <v>327</v>
+      </c>
+      <c r="C616">
+        <v>1763.701716</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B617">
+        <v>328</v>
+      </c>
+      <c r="C617">
+        <v>1765.4524707</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B618">
+        <v>329</v>
+      </c>
+      <c r="C618">
+        <v>1767.1108711</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="2">
+        <v>43246</v>
+      </c>
+      <c r="B619">
+        <v>330</v>
+      </c>
+      <c r="C619">
+        <v>1768.6809151</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="2">
+        <v>43247</v>
+      </c>
+      <c r="B620">
+        <v>331</v>
+      </c>
+      <c r="C620">
+        <v>1770.1672849</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B621">
+        <v>332</v>
+      </c>
+      <c r="C621">
+        <v>1771.5752228</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B622">
+        <v>333</v>
+      </c>
+      <c r="C622">
+        <v>1772.9103716</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="2">
+        <v>43250</v>
+      </c>
+      <c r="B623">
+        <v>334</v>
+      </c>
+      <c r="C623">
+        <v>1774.1785908</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B624">
+        <v>335</v>
+      </c>
+      <c r="C624">
+        <v>1775.3857587</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B625">
+        <v>336</v>
+      </c>
+      <c r="C625">
+        <v>1776.5375739</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="2">
+        <v>43253</v>
+      </c>
+      <c r="B626">
+        <v>337</v>
+      </c>
+      <c r="C626">
+        <v>1777.6393677</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="2">
+        <v>43254</v>
+      </c>
+      <c r="B627">
+        <v>338</v>
+      </c>
+      <c r="C627">
+        <v>1778.6959382</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B628">
+        <v>339</v>
+      </c>
+      <c r="C628">
+        <v>1779.711418</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B629">
+        <v>340</v>
+      </c>
+      <c r="C629">
+        <v>1780.6891797</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B630">
+        <v>341</v>
+      </c>
+      <c r="C630">
+        <v>1781.6317868</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B631">
+        <v>342</v>
+      </c>
+      <c r="C631">
+        <v>1782.5409906</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B632">
+        <v>343</v>
+      </c>
+      <c r="C632">
+        <v>1783.4177705</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="2">
+        <v>43260</v>
+      </c>
+      <c r="B633">
+        <v>344</v>
+      </c>
+      <c r="C633">
+        <v>1784.262415</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="2">
+        <v>43261</v>
+      </c>
+      <c r="B634">
+        <v>345</v>
+      </c>
+      <c r="C634">
+        <v>1785.0746347</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="2">
+        <v>43262</v>
+      </c>
+      <c r="B635">
+        <v>346</v>
+      </c>
+      <c r="C635">
+        <v>1785.8536987</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B636">
+        <v>347</v>
+      </c>
+      <c r="C636">
+        <v>1786.5985836</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="2">
+        <v>43264</v>
+      </c>
+      <c r="B637">
+        <v>348</v>
+      </c>
+      <c r="C637">
+        <v>1787.3081252</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B638">
+        <v>349</v>
+      </c>
+      <c r="C638">
+        <v>1787.9811617</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B639">
+        <v>350</v>
+      </c>
+      <c r="C639">
+        <v>1788.616662</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="2">
+        <v>43267</v>
+      </c>
+      <c r="B640">
+        <v>351</v>
+      </c>
+      <c r="C640">
+        <v>1789.2138295</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="2">
+        <v>43268</v>
+      </c>
+      <c r="B641">
+        <v>352</v>
+      </c>
+      <c r="C641">
+        <v>1789.7721814</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="2">
+        <v>43269</v>
+      </c>
+      <c r="B642">
+        <v>353</v>
+      </c>
+      <c r="C642">
+        <v>1790.2915979</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B643">
+        <v>354</v>
+      </c>
+      <c r="C643">
+        <v>1790.7723457</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B644">
+        <v>355</v>
+      </c>
+      <c r="C644">
+        <v>1791.215075</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B645">
+        <v>356</v>
+      </c>
+      <c r="C645">
+        <v>1791.6207972</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B646">
+        <v>357</v>
+      </c>
+      <c r="C646">
+        <v>1791.9908455</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="2">
+        <v>43274</v>
+      </c>
+      <c r="B647">
+        <v>358</v>
+      </c>
+      <c r="C647">
+        <v>1792.3268251</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="2">
+        <v>43275</v>
+      </c>
+      <c r="B648">
+        <v>359</v>
+      </c>
+      <c r="C648">
+        <v>1792.6305569</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B649">
+        <v>360</v>
+      </c>
+      <c r="C649">
+        <v>1792.9040192</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B650">
+        <v>361</v>
+      </c>
+      <c r="C650">
+        <v>1793.1492913</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B651">
+        <v>362</v>
+      </c>
+      <c r="C651">
+        <v>1793.368501</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B652">
+        <v>363</v>
+      </c>
+      <c r="C652">
+        <v>1793.5637784</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B653">
+        <v>364</v>
+      </c>
+      <c r="C653">
+        <v>1793.7372166</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="2">
         <v>43281</v>
       </c>
-      <c r="B366">
+      <c r="B654">
         <v>365</v>
       </c>
-      <c r="C366">
+      <c r="C654">
         <v>1793.89084</v>
       </c>
     </row>

--- a/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C654"/>
+  <dimension ref="A1:C664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
         <v>42917</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10.1054208</v>
@@ -419,7 +419,7 @@
         <v>42917</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>10.1054208</v>
@@ -430,7 +430,7 @@
         <v>42918</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>10.6488464</v>
@@ -441,7 +441,7 @@
         <v>42918</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>10.6488464</v>
@@ -452,7 +452,7 @@
         <v>42919</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>11.2250248</v>
@@ -463,7 +463,7 @@
         <v>42919</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>11.2250248</v>
@@ -474,7 +474,7 @@
         <v>42920</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>11.8360834</v>
@@ -485,7 +485,7 @@
         <v>42920</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>11.8360834</v>
@@ -496,7 +496,7 @@
         <v>42921</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>12.4842068</v>
@@ -507,7 +507,7 @@
         <v>42921</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>12.4842068</v>
@@ -518,7 +518,7 @@
         <v>42922</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>13.1716023</v>
@@ -529,7 +529,7 @@
         <v>42922</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>13.1716023</v>
@@ -540,7 +540,7 @@
         <v>42923</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>13.9004552</v>
@@ -551,7 +551,7 @@
         <v>42923</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>13.9004552</v>
@@ -562,7 +562,7 @@
         <v>42924</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>14.6728732</v>
@@ -573,7 +573,7 @@
         <v>42924</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>14.6728732</v>
@@ -584,7 +584,7 @@
         <v>42925</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>15.4908179</v>
@@ -595,7 +595,7 @@
         <v>42925</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>15.4908179</v>
@@ -606,7 +606,7 @@
         <v>42926</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>16.356026</v>
@@ -617,7 +617,7 @@
         <v>42926</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>16.356026</v>
@@ -628,7 +628,7 @@
         <v>42927</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>17.2699193</v>
@@ -639,7 +639,7 @@
         <v>42927</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>17.2699193</v>
@@ -650,7 +650,7 @@
         <v>42928</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>18.233507</v>
@@ -661,7 +661,7 @@
         <v>42928</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>18.233507</v>
@@ -672,7 +672,7 @@
         <v>42929</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>19.2472831</v>
@@ -683,7 +683,7 @@
         <v>42929</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>19.2472831</v>
@@ -694,7 +694,7 @@
         <v>42930</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>20.311124</v>
@@ -705,7 +705,7 @@
         <v>42930</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>20.311124</v>
@@ -716,7 +716,7 @@
         <v>42931</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>21.4241912</v>
@@ -727,7 +727,7 @@
         <v>42931</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>21.4241912</v>
@@ -738,7 +738,7 @@
         <v>42932</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>22.5848463</v>
@@ -749,7 +749,7 @@
         <v>42932</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>22.5848463</v>
@@ -760,7 +760,7 @@
         <v>42933</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>23.7905841</v>
@@ -771,7 +771,7 @@
         <v>42933</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>23.7905841</v>
@@ -782,7 +782,7 @@
         <v>42934</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>25.0379917</v>
@@ -793,7 +793,7 @@
         <v>42934</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>25.0379917</v>
@@ -804,7 +804,7 @@
         <v>42935</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>26.3227385</v>
@@ -815,7 +815,7 @@
         <v>42935</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>26.3227385</v>
@@ -826,7 +826,7 @@
         <v>42936</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>27.6396014</v>
@@ -837,7 +837,7 @@
         <v>42936</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>27.6396014</v>
@@ -848,7 +848,7 @@
         <v>42937</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>28.9825292</v>
@@ -859,7 +859,7 @@
         <v>42937</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>28.9825292</v>
@@ -870,7 +870,7 @@
         <v>42938</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>30.3447445</v>
@@ -881,7 +881,7 @@
         <v>42938</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>30.3447445</v>
@@ -892,7 +892,7 @@
         <v>42939</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>31.7188824</v>
@@ -903,7 +903,7 @@
         <v>42939</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>31.7188824</v>
@@ -914,7 +914,7 @@
         <v>42940</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>33.0971601</v>
@@ -925,7 +925,7 @@
         <v>42940</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>33.0971601</v>
@@ -936,7 +936,7 @@
         <v>42941</v>
       </c>
       <c r="B50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>34.4715717</v>
@@ -947,7 +947,7 @@
         <v>42941</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>34.4715717</v>
@@ -958,7 +958,7 @@
         <v>42942</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>35.8340982</v>
@@ -969,7 +969,7 @@
         <v>42942</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>35.8340982</v>
@@ -980,7 +980,7 @@
         <v>42943</v>
       </c>
       <c r="B54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>37.176925</v>
@@ -991,7 +991,7 @@
         <v>42943</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>37.176925</v>
@@ -1002,7 +1002,7 @@
         <v>42944</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>38.4926556</v>
@@ -1013,7 +1013,7 @@
         <v>42944</v>
       </c>
       <c r="B57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>38.4926556</v>
@@ -1024,7 +1024,7 @@
         <v>42945</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>39.7745129</v>
@@ -1035,7 +1035,7 @@
         <v>42945</v>
       </c>
       <c r="B59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>39.7745129</v>
@@ -1046,7 +1046,7 @@
         <v>42946</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>41.0165199</v>
@@ -1057,7 +1057,7 @@
         <v>42946</v>
       </c>
       <c r="B61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>41.0165199</v>
@@ -1068,7 +1068,7 @@
         <v>42947</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>42.2136523</v>
@@ -1079,7 +1079,7 @@
         <v>42947</v>
       </c>
       <c r="B63">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>42.2136523</v>
@@ -1090,7 +1090,7 @@
         <v>42948</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>43.3619594</v>
@@ -1101,7 +1101,7 @@
         <v>42948</v>
       </c>
       <c r="B65">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>43.3619594</v>
@@ -1112,7 +1112,7 @@
         <v>42949</v>
       </c>
       <c r="B66">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>44.4586477</v>
@@ -1123,7 +1123,7 @@
         <v>42949</v>
       </c>
       <c r="B67">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>44.4586477</v>
@@ -1134,7 +1134,7 @@
         <v>42950</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>45.502129</v>
@@ -1145,7 +1145,7 @@
         <v>42950</v>
       </c>
       <c r="B69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>45.502129</v>
@@ -1156,7 +1156,7 @@
         <v>42951</v>
       </c>
       <c r="B70">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>46.4920309</v>
@@ -1167,7 +1167,7 @@
         <v>42951</v>
       </c>
       <c r="B71">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>46.4920309</v>
@@ -1178,7 +1178,7 @@
         <v>42952</v>
       </c>
       <c r="B72">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>47.4291733</v>
@@ -1189,7 +1189,7 @@
         <v>42952</v>
       </c>
       <c r="B73">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>47.4291733</v>
@@ -1200,7 +1200,7 @@
         <v>42953</v>
       </c>
       <c r="B74">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>48.3155136</v>
@@ -1211,7 +1211,7 @@
         <v>42953</v>
       </c>
       <c r="B75">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>48.3155136</v>
@@ -1222,7 +1222,7 @@
         <v>42954</v>
       </c>
       <c r="B76">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>49.1540654</v>
@@ -1233,7 +1233,7 @@
         <v>42954</v>
       </c>
       <c r="B77">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>49.1540654</v>
@@ -1244,7 +1244,7 @@
         <v>42955</v>
       </c>
       <c r="B78">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78">
         <v>49.9487942</v>
@@ -1255,7 +1255,7 @@
         <v>42955</v>
       </c>
       <c r="B79">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79">
         <v>49.9487942</v>
@@ -1266,7 +1266,7 @@
         <v>42956</v>
       </c>
       <c r="B80">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80">
         <v>50.7044969</v>
@@ -1277,7 +1277,7 @@
         <v>42956</v>
       </c>
       <c r="B81">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81">
         <v>50.7044969</v>
@@ -1288,7 +1288,7 @@
         <v>42957</v>
       </c>
       <c r="B82">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82">
         <v>51.4266684</v>
@@ -1299,7 +1299,7 @@
         <v>42957</v>
       </c>
       <c r="B83">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83">
         <v>51.4266684</v>
@@ -1310,7 +1310,7 @@
         <v>42958</v>
       </c>
       <c r="B84">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84">
         <v>52.1213615</v>
@@ -1321,7 +1321,7 @@
         <v>42958</v>
       </c>
       <c r="B85">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85">
         <v>52.1213615</v>
@@ -1332,7 +1332,7 @@
         <v>42959</v>
       </c>
       <c r="B86">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86">
         <v>52.7950433</v>
@@ -1343,7 +1343,7 @@
         <v>42959</v>
       </c>
       <c r="B87">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C87">
         <v>52.7950433</v>
@@ -1354,7 +1354,7 @@
         <v>42960</v>
       </c>
       <c r="B88">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88">
         <v>53.4544526</v>
@@ -1365,7 +1365,7 @@
         <v>42960</v>
       </c>
       <c r="B89">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89">
         <v>53.4544526</v>
@@ -1376,7 +1376,7 @@
         <v>42961</v>
       </c>
       <c r="B90">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C90">
         <v>54.1064611</v>
@@ -1387,7 +1387,7 @@
         <v>42961</v>
       </c>
       <c r="B91">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C91">
         <v>54.1064611</v>
@@ -1398,7 +1398,7 @@
         <v>42962</v>
       </c>
       <c r="B92">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C92">
         <v>54.7579413</v>
@@ -1409,7 +1409,7 @@
         <v>42962</v>
       </c>
       <c r="B93">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93">
         <v>54.7579413</v>
@@ -1420,7 +1420,7 @@
         <v>42963</v>
       </c>
       <c r="B94">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94">
         <v>55.4156427</v>
@@ -1431,7 +1431,7 @@
         <v>42963</v>
       </c>
       <c r="B95">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95">
         <v>55.4156427</v>
@@ -1442,7 +1442,7 @@
         <v>42964</v>
       </c>
       <c r="B96">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96">
         <v>56.0860783</v>
@@ -1453,7 +1453,7 @@
         <v>42964</v>
       </c>
       <c r="B97">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97">
         <v>56.0860783</v>
@@ -1464,7 +1464,7 @@
         <v>42965</v>
       </c>
       <c r="B98">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98">
         <v>56.775422</v>
@@ -1475,7 +1475,7 @@
         <v>42965</v>
       </c>
       <c r="B99">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99">
         <v>56.775422</v>
@@ -1486,7 +1486,7 @@
         <v>42966</v>
       </c>
       <c r="B100">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100">
         <v>57.4894192</v>
@@ -1497,7 +1497,7 @@
         <v>42966</v>
       </c>
       <c r="B101">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101">
         <v>57.4894192</v>
@@ -1508,7 +1508,7 @@
         <v>42967</v>
       </c>
       <c r="B102">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C102">
         <v>58.2333101</v>
@@ -1519,7 +1519,7 @@
         <v>42967</v>
       </c>
       <c r="B103">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103">
         <v>58.2333101</v>
@@ -1530,7 +1530,7 @@
         <v>42968</v>
       </c>
       <c r="B104">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104">
         <v>59.0117673</v>
@@ -1541,7 +1541,7 @@
         <v>42968</v>
       </c>
       <c r="B105">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C105">
         <v>59.0117673</v>
@@ -1552,7 +1552,7 @@
         <v>42969</v>
       </c>
       <c r="B106">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106">
         <v>59.8288489</v>
@@ -1563,7 +1563,7 @@
         <v>42969</v>
       </c>
       <c r="B107">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C107">
         <v>59.8288489</v>
@@ -1574,7 +1574,7 @@
         <v>42970</v>
       </c>
       <c r="B108">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108">
         <v>60.6879668</v>
@@ -1585,7 +1585,7 @@
         <v>42970</v>
       </c>
       <c r="B109">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109">
         <v>60.6879668</v>
@@ -1596,7 +1596,7 @@
         <v>42971</v>
       </c>
       <c r="B110">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110">
         <v>61.5918722</v>
@@ -1607,7 +1607,7 @@
         <v>42971</v>
       </c>
       <c r="B111">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111">
         <v>61.5918722</v>
@@ -1618,7 +1618,7 @@
         <v>42972</v>
       </c>
       <c r="B112">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112">
         <v>62.542658</v>
@@ -1629,7 +1629,7 @@
         <v>42972</v>
       </c>
       <c r="B113">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C113">
         <v>62.542658</v>
@@ -1640,7 +1640,7 @@
         <v>42973</v>
       </c>
       <c r="B114">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114">
         <v>63.5417793</v>
@@ -1651,7 +1651,7 @@
         <v>42973</v>
       </c>
       <c r="B115">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115">
         <v>63.5417793</v>
@@ -1662,7 +1662,7 @@
         <v>42974</v>
       </c>
       <c r="B116">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C116">
         <v>64.59009039999999</v>
@@ -1673,7 +1673,7 @@
         <v>42974</v>
       </c>
       <c r="B117">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117">
         <v>64.59009039999999</v>
@@ -1684,7 +1684,7 @@
         <v>42975</v>
       </c>
       <c r="B118">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118">
         <v>65.6878995</v>
@@ -1695,7 +1695,7 @@
         <v>42975</v>
       </c>
       <c r="B119">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119">
         <v>65.6878995</v>
@@ -1706,7 +1706,7 @@
         <v>42976</v>
       </c>
       <c r="B120">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C120">
         <v>66.8350384</v>
@@ -1717,7 +1717,7 @@
         <v>42976</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C121">
         <v>66.8350384</v>
@@ -1728,7 +1728,7 @@
         <v>42977</v>
       </c>
       <c r="B122">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C122">
         <v>68.0309458</v>
@@ -1739,7 +1739,7 @@
         <v>42977</v>
       </c>
       <c r="B123">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123">
         <v>68.0309458</v>
@@ -1750,7 +1750,7 @@
         <v>42978</v>
       </c>
       <c r="B124">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124">
         <v>69.27476160000001</v>
@@ -1761,7 +1761,7 @@
         <v>42978</v>
       </c>
       <c r="B125">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C125">
         <v>69.27476160000001</v>
@@ -1772,7 +1772,7 @@
         <v>42979</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C126">
         <v>70.56543000000001</v>
@@ -1783,7 +1783,7 @@
         <v>42979</v>
       </c>
       <c r="B127">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C127">
         <v>70.56543000000001</v>
@@ -1794,7 +1794,7 @@
         <v>42980</v>
       </c>
       <c r="B128">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C128">
         <v>71.90180549999999</v>
@@ -1805,7 +1805,7 @@
         <v>42980</v>
       </c>
       <c r="B129">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C129">
         <v>71.90180549999999</v>
@@ -1816,7 +1816,7 @@
         <v>42981</v>
       </c>
       <c r="B130">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C130">
         <v>73.28276150000001</v>
@@ -1827,7 +1827,7 @@
         <v>42981</v>
       </c>
       <c r="B131">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C131">
         <v>73.28276150000001</v>
@@ -1838,7 +1838,7 @@
         <v>42982</v>
       </c>
       <c r="B132">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132">
         <v>74.7072938</v>
@@ -1849,7 +1849,7 @@
         <v>42982</v>
       </c>
       <c r="B133">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C133">
         <v>74.7072938</v>
@@ -1860,7 +1860,7 @@
         <v>42983</v>
       </c>
       <c r="B134">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134">
         <v>76.1746189</v>
@@ -1871,7 +1871,7 @@
         <v>42983</v>
       </c>
       <c r="B135">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135">
         <v>76.1746189</v>
@@ -1882,7 +1882,7 @@
         <v>42984</v>
       </c>
       <c r="B136">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C136">
         <v>77.6842616</v>
@@ -1893,7 +1893,7 @@
         <v>42984</v>
       </c>
       <c r="B137">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C137">
         <v>77.6842616</v>
@@ -1904,7 +1904,7 @@
         <v>42985</v>
       </c>
       <c r="B138">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C138">
         <v>79.2361293</v>
@@ -1915,7 +1915,7 @@
         <v>42985</v>
       </c>
       <c r="B139">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C139">
         <v>79.2361293</v>
@@ -1926,7 +1926,7 @@
         <v>42986</v>
       </c>
       <c r="B140">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C140">
         <v>80.830572</v>
@@ -1937,7 +1937,7 @@
         <v>42986</v>
       </c>
       <c r="B141">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C141">
         <v>80.830572</v>
@@ -1948,7 +1948,7 @@
         <v>42987</v>
       </c>
       <c r="B142">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C142">
         <v>82.468425</v>
@@ -1959,7 +1959,7 @@
         <v>42987</v>
       </c>
       <c r="B143">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C143">
         <v>82.468425</v>
@@ -1970,7 +1970,7 @@
         <v>42988</v>
       </c>
       <c r="B144">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C144">
         <v>84.1510341</v>
@@ -1981,7 +1981,7 @@
         <v>42988</v>
       </c>
       <c r="B145">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C145">
         <v>84.1510341</v>
@@ -1992,7 +1992,7 @@
         <v>42989</v>
       </c>
       <c r="B146">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C146">
         <v>85.880263</v>
@@ -2003,7 +2003,7 @@
         <v>42989</v>
       </c>
       <c r="B147">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C147">
         <v>85.880263</v>
@@ -2014,7 +2014,7 @@
         <v>42990</v>
       </c>
       <c r="B148">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C148">
         <v>87.6584828</v>
@@ -2025,7 +2025,7 @@
         <v>42990</v>
       </c>
       <c r="B149">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C149">
         <v>87.6584828</v>
@@ -2036,7 +2036,7 @@
         <v>42991</v>
       </c>
       <c r="B150">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C150">
         <v>89.4885432</v>
@@ -2047,7 +2047,7 @@
         <v>42991</v>
       </c>
       <c r="B151">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C151">
         <v>89.4885432</v>
@@ -2058,7 +2058,7 @@
         <v>42992</v>
       </c>
       <c r="B152">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C152">
         <v>91.373728</v>
@@ -2069,7 +2069,7 @@
         <v>42992</v>
       </c>
       <c r="B153">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C153">
         <v>91.373728</v>
@@ -2080,7 +2080,7 @@
         <v>42993</v>
       </c>
       <c r="B154">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C154">
         <v>93.3176935</v>
@@ -2091,7 +2091,7 @@
         <v>42993</v>
       </c>
       <c r="B155">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C155">
         <v>93.3176935</v>
@@ -2102,7 +2102,7 @@
         <v>42994</v>
       </c>
       <c r="B156">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C156">
         <v>95.32439239999999</v>
@@ -2113,7 +2113,7 @@
         <v>42994</v>
       </c>
       <c r="B157">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C157">
         <v>95.32439239999999</v>
@@ -2124,7 +2124,7 @@
         <v>42995</v>
       </c>
       <c r="B158">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C158">
         <v>97.3979835</v>
@@ -2135,7 +2135,7 @@
         <v>42995</v>
       </c>
       <c r="B159">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C159">
         <v>97.3979835</v>
@@ -2146,7 +2146,7 @@
         <v>42996</v>
       </c>
       <c r="B160">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160">
         <v>99.5427292</v>
@@ -2157,7 +2157,7 @@
         <v>42996</v>
       </c>
       <c r="B161">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C161">
         <v>99.5427292</v>
@@ -2168,7 +2168,7 @@
         <v>42997</v>
       </c>
       <c r="B162">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C162">
         <v>101.7628827</v>
@@ -2179,7 +2179,7 @@
         <v>42997</v>
       </c>
       <c r="B163">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C163">
         <v>101.7628827</v>
@@ -2190,7 +2190,7 @@
         <v>42998</v>
       </c>
       <c r="B164">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C164">
         <v>104.0625668</v>
@@ -2201,7 +2201,7 @@
         <v>42998</v>
       </c>
       <c r="B165">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C165">
         <v>104.0625668</v>
@@ -2212,7 +2212,7 @@
         <v>42999</v>
       </c>
       <c r="B166">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C166">
         <v>106.4456494</v>
@@ -2223,7 +2223,7 @@
         <v>42999</v>
       </c>
       <c r="B167">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C167">
         <v>106.4456494</v>
@@ -2234,7 +2234,7 @@
         <v>43000</v>
       </c>
       <c r="B168">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C168">
         <v>108.9156182</v>
@@ -2245,7 +2245,7 @@
         <v>43000</v>
       </c>
       <c r="B169">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C169">
         <v>108.9156182</v>
@@ -2256,7 +2256,7 @@
         <v>43001</v>
       </c>
       <c r="B170">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C170">
         <v>111.4754608</v>
@@ -2267,7 +2267,7 @@
         <v>43001</v>
       </c>
       <c r="B171">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C171">
         <v>111.4754608</v>
@@ -2278,7 +2278,7 @@
         <v>43002</v>
       </c>
       <c r="B172">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C172">
         <v>114.1275558</v>
@@ -2289,7 +2289,7 @@
         <v>43002</v>
       </c>
       <c r="B173">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C173">
         <v>114.1275558</v>
@@ -2300,7 +2300,7 @@
         <v>43003</v>
       </c>
       <c r="B174">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C174">
         <v>116.8735825</v>
@@ -2311,7 +2311,7 @@
         <v>43003</v>
       </c>
       <c r="B175">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C175">
         <v>116.8735825</v>
@@ -2322,7 +2322,7 @@
         <v>43004</v>
       </c>
       <c r="B176">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C176">
         <v>119.7144548</v>
@@ -2333,7 +2333,7 @@
         <v>43004</v>
       </c>
       <c r="B177">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C177">
         <v>119.7144548</v>
@@ -2344,7 +2344,7 @@
         <v>43005</v>
       </c>
       <c r="B178">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C178">
         <v>122.6502862</v>
@@ -2355,7 +2355,7 @@
         <v>43005</v>
       </c>
       <c r="B179">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C179">
         <v>122.6502862</v>
@@ -2366,7 +2366,7 @@
         <v>43006</v>
       </c>
       <c r="B180">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C180">
         <v>125.6803925</v>
@@ -2377,7 +2377,7 @@
         <v>43006</v>
       </c>
       <c r="B181">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C181">
         <v>125.6803925</v>
@@ -2388,7 +2388,7 @@
         <v>43007</v>
       </c>
       <c r="B182">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C182">
         <v>128.8033355</v>
@@ -2399,7 +2399,7 @@
         <v>43007</v>
       </c>
       <c r="B183">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C183">
         <v>128.8033355</v>
@@ -2410,7 +2410,7 @@
         <v>43008</v>
       </c>
       <c r="B184">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C184">
         <v>132.0170097</v>
@@ -2421,7 +2421,7 @@
         <v>43008</v>
       </c>
       <c r="B185">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C185">
         <v>132.0170097</v>
@@ -2432,7 +2432,7 @@
         <v>43009</v>
       </c>
       <c r="B186">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C186">
         <v>135.3187729</v>
@@ -2443,7 +2443,7 @@
         <v>43009</v>
       </c>
       <c r="B187">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C187">
         <v>135.3187729</v>
@@ -2454,7 +2454,7 @@
         <v>43010</v>
       </c>
       <c r="B188">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C188">
         <v>138.705615</v>
@@ -2465,7 +2465,7 @@
         <v>43010</v>
       </c>
       <c r="B189">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C189">
         <v>138.705615</v>
@@ -2476,7 +2476,7 @@
         <v>43011</v>
       </c>
       <c r="B190">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C190">
         <v>142.1743612</v>
@@ -2487,7 +2487,7 @@
         <v>43011</v>
       </c>
       <c r="B191">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C191">
         <v>142.1743612</v>
@@ -2498,7 +2498,7 @@
         <v>43012</v>
       </c>
       <c r="B192">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C192">
         <v>145.7218972</v>
@@ -2509,7 +2509,7 @@
         <v>43012</v>
       </c>
       <c r="B193">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C193">
         <v>145.7218972</v>
@@ -2520,7 +2520,7 @@
         <v>43013</v>
       </c>
       <c r="B194">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C194">
         <v>149.3454064</v>
@@ -2531,7 +2531,7 @@
         <v>43013</v>
       </c>
       <c r="B195">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C195">
         <v>149.3454064</v>
@@ -2542,7 +2542,7 @@
         <v>43014</v>
       </c>
       <c r="B196">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C196">
         <v>153.0426034</v>
@@ -2553,7 +2553,7 @@
         <v>43014</v>
       </c>
       <c r="B197">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C197">
         <v>153.0426034</v>
@@ -2564,7 +2564,7 @@
         <v>43015</v>
       </c>
       <c r="B198">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C198">
         <v>156.8119494</v>
@@ -2575,7 +2575,7 @@
         <v>43015</v>
       </c>
       <c r="B199">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C199">
         <v>156.8119494</v>
@@ -2586,7 +2586,7 @@
         <v>43016</v>
       </c>
       <c r="B200">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C200">
         <v>160.6528329</v>
@@ -2597,7 +2597,7 @@
         <v>43016</v>
       </c>
       <c r="B201">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C201">
         <v>160.6528329</v>
@@ -2608,7 +2608,7 @@
         <v>43017</v>
       </c>
       <c r="B202">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C202">
         <v>164.5657027</v>
@@ -2619,7 +2619,7 @@
         <v>43017</v>
       </c>
       <c r="B203">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C203">
         <v>164.5657027</v>
@@ -2630,7 +2630,7 @@
         <v>43018</v>
       </c>
       <c r="B204">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C204">
         <v>168.5521405</v>
@@ -2641,7 +2641,7 @@
         <v>43018</v>
       </c>
       <c r="B205">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C205">
         <v>168.5521405</v>
@@ -2652,7 +2652,7 @@
         <v>43019</v>
       </c>
       <c r="B206">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C206">
         <v>172.6148637</v>
@@ -2663,7 +2663,7 @@
         <v>43019</v>
       </c>
       <c r="B207">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C207">
         <v>172.6148637</v>
@@ -2674,7 +2674,7 @@
         <v>43020</v>
       </c>
       <c r="B208">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C208">
         <v>176.7576554</v>
@@ -2685,7 +2685,7 @@
         <v>43020</v>
       </c>
       <c r="B209">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C209">
         <v>176.7576554</v>
@@ -2696,7 +2696,7 @@
         <v>43021</v>
       </c>
       <c r="B210">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C210">
         <v>180.9852199</v>
@@ -2707,7 +2707,7 @@
         <v>43021</v>
       </c>
       <c r="B211">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C211">
         <v>180.9852199</v>
@@ -2718,7 +2718,7 @@
         <v>43022</v>
       </c>
       <c r="B212">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C212">
         <v>185.302971</v>
@@ -2729,7 +2729,7 @@
         <v>43022</v>
       </c>
       <c r="B213">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C213">
         <v>185.302971</v>
@@ -2740,7 +2740,7 @@
         <v>43023</v>
       </c>
       <c r="B214">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C214">
         <v>189.7167603</v>
@@ -2751,7 +2751,7 @@
         <v>43023</v>
       </c>
       <c r="B215">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C215">
         <v>189.7167603</v>
@@ -2762,7 +2762,7 @@
         <v>43024</v>
       </c>
       <c r="B216">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C216">
         <v>194.2325626</v>
@@ -2773,7 +2773,7 @@
         <v>43024</v>
       </c>
       <c r="B217">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C217">
         <v>194.2325626</v>
@@ -2784,7 +2784,7 @@
         <v>43025</v>
       </c>
       <c r="B218">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C218">
         <v>198.8561331</v>
@@ -2795,7 +2795,7 @@
         <v>43025</v>
       </c>
       <c r="B219">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C219">
         <v>198.8561331</v>
@@ -2806,7 +2806,7 @@
         <v>43026</v>
       </c>
       <c r="B220">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C220">
         <v>203.5926577</v>
@@ -2817,7 +2817,7 @@
         <v>43026</v>
       </c>
       <c r="B221">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C221">
         <v>203.5926577</v>
@@ -2828,7 +2828,7 @@
         <v>43027</v>
       </c>
       <c r="B222">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C222">
         <v>208.4464156</v>
@@ -2839,7 +2839,7 @@
         <v>43027</v>
       </c>
       <c r="B223">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C223">
         <v>208.4464156</v>
@@ -2850,7 +2850,7 @@
         <v>43028</v>
       </c>
       <c r="B224">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C224">
         <v>213.4204743</v>
@@ -2861,7 +2861,7 @@
         <v>43028</v>
       </c>
       <c r="B225">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C225">
         <v>213.4204743</v>
@@ -2872,7 +2872,7 @@
         <v>43029</v>
       </c>
       <c r="B226">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C226">
         <v>218.5164342</v>
@@ -2883,7 +2883,7 @@
         <v>43029</v>
       </c>
       <c r="B227">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C227">
         <v>218.5164342</v>
@@ -2894,7 +2894,7 @@
         <v>43030</v>
       </c>
       <c r="B228">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C228">
         <v>223.7342366</v>
@@ -2905,7 +2905,7 @@
         <v>43030</v>
       </c>
       <c r="B229">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C229">
         <v>223.7342366</v>
@@ -2916,7 +2916,7 @@
         <v>43031</v>
       </c>
       <c r="B230">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C230">
         <v>229.0720459</v>
@@ -2927,7 +2927,7 @@
         <v>43031</v>
       </c>
       <c r="B231">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C231">
         <v>229.0720459</v>
@@ -2938,7 +2938,7 @@
         <v>43032</v>
       </c>
       <c r="B232">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C232">
         <v>234.5262103</v>
@@ -2949,7 +2949,7 @@
         <v>43032</v>
       </c>
       <c r="B233">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C233">
         <v>234.5262103</v>
@@ -2960,7 +2960,7 @@
         <v>43033</v>
       </c>
       <c r="B234">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C234">
         <v>240.0913024</v>
@@ -2971,7 +2971,7 @@
         <v>43033</v>
       </c>
       <c r="B235">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C235">
         <v>240.0913024</v>
@@ -2982,7 +2982,7 @@
         <v>43034</v>
       </c>
       <c r="B236">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C236">
         <v>245.7602344</v>
@@ -2993,7 +2993,7 @@
         <v>43034</v>
       </c>
       <c r="B237">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C237">
         <v>245.7602344</v>
@@ -3004,7 +3004,7 @@
         <v>43035</v>
       </c>
       <c r="B238">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C238">
         <v>251.5244405</v>
@@ -3015,7 +3015,7 @@
         <v>43035</v>
       </c>
       <c r="B239">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C239">
         <v>251.5244405</v>
@@ -3026,7 +3026,7 @@
         <v>43036</v>
       </c>
       <c r="B240">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C240">
         <v>257.374114</v>
@@ -3037,7 +3037,7 @@
         <v>43036</v>
       </c>
       <c r="B241">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C241">
         <v>257.374114</v>
@@ -3048,7 +3048,7 @@
         <v>43037</v>
       </c>
       <c r="B242">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C242">
         <v>263.2984864</v>
@@ -3059,7 +3059,7 @@
         <v>43037</v>
       </c>
       <c r="B243">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C243">
         <v>263.2984864</v>
@@ -3070,7 +3070,7 @@
         <v>43038</v>
       </c>
       <c r="B244">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C244">
         <v>269.2861327</v>
@@ -3081,7 +3081,7 @@
         <v>43038</v>
       </c>
       <c r="B245">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C245">
         <v>269.2861327</v>
@@ -3092,7 +3092,7 @@
         <v>43039</v>
       </c>
       <c r="B246">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C246">
         <v>275.3252896</v>
@@ -3103,7 +3103,7 @@
         <v>43039</v>
       </c>
       <c r="B247">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C247">
         <v>275.3252896</v>
@@ -3114,7 +3114,7 @@
         <v>43040</v>
       </c>
       <c r="B248">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C248">
         <v>281.4041709</v>
@@ -3125,7 +3125,7 @@
         <v>43040</v>
       </c>
       <c r="B249">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C249">
         <v>281.4041709</v>
@@ -3136,7 +3136,7 @@
         <v>43041</v>
       </c>
       <c r="B250">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C250">
         <v>287.5112714</v>
@@ -3147,7 +3147,7 @@
         <v>43041</v>
       </c>
       <c r="B251">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C251">
         <v>287.5112714</v>
@@ -3158,7 +3158,7 @@
         <v>43042</v>
       </c>
       <c r="B252">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C252">
         <v>293.6356464</v>
@@ -3169,7 +3169,7 @@
         <v>43042</v>
       </c>
       <c r="B253">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C253">
         <v>293.6356464</v>
@@ -3180,7 +3180,7 @@
         <v>43043</v>
       </c>
       <c r="B254">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C254">
         <v>299.7671624</v>
@@ -3191,7 +3191,7 @@
         <v>43043</v>
       </c>
       <c r="B255">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C255">
         <v>299.7671624</v>
@@ -3202,7 +3202,7 @@
         <v>43044</v>
       </c>
       <c r="B256">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C256">
         <v>305.8967133</v>
@@ -3213,7 +3213,7 @@
         <v>43044</v>
       </c>
       <c r="B257">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C257">
         <v>305.8967133</v>
@@ -3224,7 +3224,7 @@
         <v>43045</v>
       </c>
       <c r="B258">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C258">
         <v>312.0164</v>
@@ -3235,7 +3235,7 @@
         <v>43045</v>
       </c>
       <c r="B259">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C259">
         <v>312.0164</v>
@@ -3246,7 +3246,7 @@
         <v>43046</v>
       </c>
       <c r="B260">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C260">
         <v>318.1196728</v>
@@ -3257,7 +3257,7 @@
         <v>43046</v>
       </c>
       <c r="B261">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C261">
         <v>318.1196728</v>
@@ -3268,7 +3268,7 @@
         <v>43047</v>
       </c>
       <c r="B262">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C262">
         <v>324.2014367</v>
@@ -3279,7 +3279,7 @@
         <v>43047</v>
       </c>
       <c r="B263">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C263">
         <v>324.2014367</v>
@@ -3290,7 +3290,7 @@
         <v>43048</v>
       </c>
       <c r="B264">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C264">
         <v>330.2581222</v>
@@ -3301,7 +3301,7 @@
         <v>43048</v>
       </c>
       <c r="B265">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C265">
         <v>330.2581222</v>
@@ -3312,7 +3312,7 @@
         <v>43049</v>
       </c>
       <c r="B266">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C266">
         <v>336.2877213</v>
@@ -3323,7 +3323,7 @@
         <v>43049</v>
       </c>
       <c r="B267">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C267">
         <v>336.2877213</v>
@@ -3334,7 +3334,7 @@
         <v>43050</v>
       </c>
       <c r="B268">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C268">
         <v>342.2897922</v>
@@ -3345,7 +3345,7 @@
         <v>43050</v>
       </c>
       <c r="B269">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C269">
         <v>342.2897922</v>
@@ -3356,7 +3356,7 @@
         <v>43051</v>
       </c>
       <c r="B270">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C270">
         <v>348.2654314</v>
@@ -3367,7 +3367,7 @@
         <v>43051</v>
       </c>
       <c r="B271">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C271">
         <v>348.2654314</v>
@@ -3378,7 +3378,7 @@
         <v>43052</v>
       </c>
       <c r="B272">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C272">
         <v>354.2172173</v>
@@ -3389,7 +3389,7 @@
         <v>43052</v>
       </c>
       <c r="B273">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C273">
         <v>354.2172173</v>
@@ -3400,7 +3400,7 @@
         <v>43053</v>
       </c>
       <c r="B274">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C274">
         <v>360.1491231</v>
@@ -3411,7 +3411,7 @@
         <v>43053</v>
       </c>
       <c r="B275">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C275">
         <v>360.1491231</v>
@@ -3422,7 +3422,7 @@
         <v>43054</v>
       </c>
       <c r="B276">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C276">
         <v>366.0664025</v>
@@ -3433,7 +3433,7 @@
         <v>43054</v>
       </c>
       <c r="B277">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C277">
         <v>366.0664025</v>
@@ -3444,7 +3444,7 @@
         <v>43055</v>
       </c>
       <c r="B278">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C278">
         <v>371.9754479</v>
@@ -3455,7 +3455,7 @@
         <v>43055</v>
       </c>
       <c r="B279">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C279">
         <v>371.9754479</v>
@@ -3466,7 +3466,7 @@
         <v>43056</v>
       </c>
       <c r="B280">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C280">
         <v>377.8836246</v>
@@ -3477,7 +3477,7 @@
         <v>43056</v>
       </c>
       <c r="B281">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C281">
         <v>377.8836246</v>
@@ -3488,7 +3488,7 @@
         <v>43057</v>
       </c>
       <c r="B282">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C282">
         <v>383.7990837</v>
@@ -3499,7 +3499,7 @@
         <v>43057</v>
       </c>
       <c r="B283">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C283">
         <v>383.7990837</v>
@@ -3510,7 +3510,7 @@
         <v>43058</v>
       </c>
       <c r="B284">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C284">
         <v>389.7305573</v>
@@ -3521,7 +3521,7 @@
         <v>43058</v>
       </c>
       <c r="B285">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C285">
         <v>389.7305573</v>
@@ -3532,7 +3532,7 @@
         <v>43059</v>
       </c>
       <c r="B286">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C286">
         <v>395.6871437</v>
@@ -3543,7 +3543,7 @@
         <v>43059</v>
       </c>
       <c r="B287">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C287">
         <v>395.6871437</v>
@@ -3554,7 +3554,7 @@
         <v>43060</v>
       </c>
       <c r="B288">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C288">
         <v>401.6780856</v>
@@ -3565,7 +3565,7 @@
         <v>43060</v>
       </c>
       <c r="B289">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C289">
         <v>401.6780856</v>
@@ -3576,7 +3576,7 @@
         <v>43061</v>
       </c>
       <c r="B290">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C290">
         <v>407.7125521</v>
@@ -3587,7 +3587,7 @@
         <v>43061</v>
       </c>
       <c r="B291">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C291">
         <v>407.7125521</v>
@@ -3598,7 +3598,7 @@
         <v>43062</v>
       </c>
       <c r="B292">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C292">
         <v>413.7994278</v>
@@ -3609,7 +3609,7 @@
         <v>43062</v>
       </c>
       <c r="B293">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C293">
         <v>413.7994278</v>
@@ -3620,7 +3620,7 @@
         <v>43063</v>
       </c>
       <c r="B294">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C294">
         <v>419.9471202</v>
@@ -3631,7 +3631,7 @@
         <v>43063</v>
       </c>
       <c r="B295">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C295">
         <v>419.9471202</v>
@@ -3642,7 +3642,7 @@
         <v>43064</v>
       </c>
       <c r="B296">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C296">
         <v>426.1633879</v>
@@ -3653,7 +3653,7 @@
         <v>43064</v>
       </c>
       <c r="B297">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C297">
         <v>426.1633879</v>
@@ -3664,7 +3664,7 @@
         <v>43065</v>
       </c>
       <c r="B298">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C298">
         <v>432.4551984</v>
@@ -3675,7 +3675,7 @@
         <v>43065</v>
       </c>
       <c r="B299">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C299">
         <v>432.4551984</v>
@@ -3686,7 +3686,7 @@
         <v>43066</v>
       </c>
       <c r="B300">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C300">
         <v>438.8286166</v>
@@ -3697,7 +3697,7 @@
         <v>43066</v>
       </c>
       <c r="B301">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C301">
         <v>438.8286166</v>
@@ -3708,7 +3708,7 @@
         <v>43067</v>
       </c>
       <c r="B302">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C302">
         <v>445.288728</v>
@@ -3719,7 +3719,7 @@
         <v>43067</v>
       </c>
       <c r="B303">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C303">
         <v>445.288728</v>
@@ -3730,7 +3730,7 @@
         <v>43068</v>
       </c>
       <c r="B304">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C304">
         <v>451.8395967</v>
@@ -3741,7 +3741,7 @@
         <v>43068</v>
       </c>
       <c r="B305">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C305">
         <v>451.8395967</v>
@@ -3752,7 +3752,7 @@
         <v>43069</v>
       </c>
       <c r="B306">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C306">
         <v>458.4842566</v>
@@ -3763,7 +3763,7 @@
         <v>43069</v>
       </c>
       <c r="B307">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C307">
         <v>458.4842566</v>
@@ -3774,7 +3774,7 @@
         <v>43070</v>
       </c>
       <c r="B308">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C308">
         <v>465.2247337</v>
@@ -3785,7 +3785,7 @@
         <v>43070</v>
       </c>
       <c r="B309">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C309">
         <v>465.2247337</v>
@@ -3796,7 +3796,7 @@
         <v>43071</v>
       </c>
       <c r="B310">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C310">
         <v>472.0620954</v>
@@ -3807,7 +3807,7 @@
         <v>43071</v>
       </c>
       <c r="B311">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C311">
         <v>472.0620954</v>
@@ -3818,7 +3818,7 @@
         <v>43072</v>
       </c>
       <c r="B312">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C312">
         <v>478.9965221</v>
@@ -3829,7 +3829,7 @@
         <v>43072</v>
       </c>
       <c r="B313">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C313">
         <v>478.9965221</v>
@@ -3840,7 +3840,7 @@
         <v>43073</v>
       </c>
       <c r="B314">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C314">
         <v>486.0273964</v>
@@ -3851,7 +3851,7 @@
         <v>43073</v>
       </c>
       <c r="B315">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C315">
         <v>486.0273964</v>
@@ -3862,7 +3862,7 @@
         <v>43074</v>
       </c>
       <c r="B316">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C316">
         <v>493.1534042</v>
@@ -3873,7 +3873,7 @@
         <v>43074</v>
       </c>
       <c r="B317">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C317">
         <v>493.1534042</v>
@@ -3884,7 +3884,7 @@
         <v>43075</v>
       </c>
       <c r="B318">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C318">
         <v>500.3726428</v>
@@ -3895,7 +3895,7 @@
         <v>43075</v>
       </c>
       <c r="B319">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C319">
         <v>500.3726428</v>
@@ -3906,7 +3906,7 @@
         <v>43076</v>
       </c>
       <c r="B320">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C320">
         <v>507.6827323</v>
@@ -3917,7 +3917,7 @@
         <v>43076</v>
       </c>
       <c r="B321">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C321">
         <v>507.6827323</v>
@@ -3928,7 +3928,7 @@
         <v>43077</v>
       </c>
       <c r="B322">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C322">
         <v>515.0809261000001</v>
@@ -3939,7 +3939,7 @@
         <v>43077</v>
       </c>
       <c r="B323">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C323">
         <v>515.0809261000001</v>
@@ -3950,7 +3950,7 @@
         <v>43078</v>
       </c>
       <c r="B324">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C324">
         <v>522.5642172</v>
@@ -3961,7 +3961,7 @@
         <v>43078</v>
       </c>
       <c r="B325">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C325">
         <v>522.5642172</v>
@@ -3972,7 +3972,7 @@
         <v>43079</v>
       </c>
       <c r="B326">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C326">
         <v>530.129439</v>
@@ -3983,7 +3983,7 @@
         <v>43079</v>
       </c>
       <c r="B327">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C327">
         <v>530.129439</v>
@@ -3994,7 +3994,7 @@
         <v>43080</v>
       </c>
       <c r="B328">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C328">
         <v>537.7733586000001</v>
@@ -4005,7 +4005,7 @@
         <v>43080</v>
       </c>
       <c r="B329">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C329">
         <v>537.7733586000001</v>
@@ -4016,7 +4016,7 @@
         <v>43081</v>
       </c>
       <c r="B330">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C330">
         <v>545.4927613</v>
@@ -4027,7 +4027,7 @@
         <v>43081</v>
       </c>
       <c r="B331">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C331">
         <v>545.4927613</v>
@@ -4038,7 +4038,7 @@
         <v>43082</v>
       </c>
       <c r="B332">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C332">
         <v>553.2845261</v>
@@ -4049,7 +4049,7 @@
         <v>43082</v>
       </c>
       <c r="B333">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C333">
         <v>553.2845261</v>
@@ -4060,7 +4060,7 @@
         <v>43083</v>
       </c>
       <c r="B334">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C334">
         <v>561.1456908</v>
@@ -4071,7 +4071,7 @@
         <v>43083</v>
       </c>
       <c r="B335">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C335">
         <v>561.1456908</v>
@@ -4082,7 +4082,7 @@
         <v>43084</v>
       </c>
       <c r="B336">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C336">
         <v>569.0735074</v>
@@ -4093,7 +4093,7 @@
         <v>43084</v>
       </c>
       <c r="B337">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C337">
         <v>569.0735074</v>
@@ -4104,7 +4104,7 @@
         <v>43085</v>
       </c>
       <c r="B338">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C338">
         <v>577.0654853999999</v>
@@ -4115,7 +4115,7 @@
         <v>43085</v>
       </c>
       <c r="B339">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C339">
         <v>577.0654853999999</v>
@@ -4126,7 +4126,7 @@
         <v>43086</v>
       </c>
       <c r="B340">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C340">
         <v>585.1194235</v>
@@ -4137,7 +4137,7 @@
         <v>43086</v>
       </c>
       <c r="B341">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C341">
         <v>585.1194235</v>
@@ -4148,7 +4148,7 @@
         <v>43087</v>
       </c>
       <c r="B342">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C342">
         <v>593.2334289</v>
@@ -4159,7 +4159,7 @@
         <v>43087</v>
       </c>
       <c r="B343">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C343">
         <v>593.2334289</v>
@@ -4170,7 +4170,7 @@
         <v>43088</v>
       </c>
       <c r="B344">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C344">
         <v>601.4059228</v>
@@ -4181,7 +4181,7 @@
         <v>43088</v>
       </c>
       <c r="B345">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C345">
         <v>601.4059228</v>
@@ -4192,7 +4192,7 @@
         <v>43089</v>
       </c>
       <c r="B346">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C346">
         <v>609.6356325</v>
@@ -4203,7 +4203,7 @@
         <v>43089</v>
       </c>
       <c r="B347">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C347">
         <v>609.6356325</v>
@@ -4214,7 +4214,7 @@
         <v>43090</v>
       </c>
       <c r="B348">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C348">
         <v>617.9215696</v>
@@ -4225,7 +4225,7 @@
         <v>43090</v>
       </c>
       <c r="B349">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C349">
         <v>617.9215696</v>
@@ -4236,7 +4236,7 @@
         <v>43091</v>
       </c>
       <c r="B350">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C350">
         <v>626.2629957</v>
@@ -4247,7 +4247,7 @@
         <v>43091</v>
       </c>
       <c r="B351">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C351">
         <v>626.2629957</v>
@@ -4258,7 +4258,7 @@
         <v>43092</v>
       </c>
       <c r="B352">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C352">
         <v>634.6593764</v>
@@ -4269,7 +4269,7 @@
         <v>43092</v>
       </c>
       <c r="B353">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C353">
         <v>634.6593764</v>
@@ -4280,7 +4280,7 @@
         <v>43093</v>
       </c>
       <c r="B354">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C354">
         <v>643.1103266</v>
@@ -4291,7 +4291,7 @@
         <v>43093</v>
       </c>
       <c r="B355">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C355">
         <v>643.1103266</v>
@@ -4302,7 +4302,7 @@
         <v>43094</v>
       </c>
       <c r="B356">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C356">
         <v>651.6155497</v>
@@ -4313,7 +4313,7 @@
         <v>43094</v>
       </c>
       <c r="B357">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C357">
         <v>651.6155497</v>
@@ -4324,7 +4324,7 @@
         <v>43095</v>
       </c>
       <c r="B358">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C358">
         <v>660.174775</v>
@@ -4335,7 +4335,7 @@
         <v>43095</v>
       </c>
       <c r="B359">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C359">
         <v>660.174775</v>
@@ -4346,7 +4346,7 @@
         <v>43096</v>
       </c>
       <c r="B360">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C360">
         <v>668.7876973</v>
@@ -4357,7 +4357,7 @@
         <v>43096</v>
       </c>
       <c r="B361">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C361">
         <v>668.7876973</v>
@@ -4368,7 +4368,7 @@
         <v>43097</v>
       </c>
       <c r="B362">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C362">
         <v>677.4539236000001</v>
@@ -4379,7 +4379,7 @@
         <v>43097</v>
       </c>
       <c r="B363">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C363">
         <v>677.4539236000001</v>
@@ -4390,7 +4390,7 @@
         <v>43098</v>
       </c>
       <c r="B364">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C364">
         <v>686.1729301</v>
@@ -4401,7 +4401,7 @@
         <v>43098</v>
       </c>
       <c r="B365">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C365">
         <v>686.1729301</v>
@@ -4412,7 +4412,7 @@
         <v>43099</v>
       </c>
       <c r="B366">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C366">
         <v>694.9440356</v>
@@ -4423,7 +4423,7 @@
         <v>43099</v>
       </c>
       <c r="B367">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C367">
         <v>694.9440356</v>
@@ -4434,7 +4434,7 @@
         <v>43100</v>
       </c>
       <c r="B368">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C368">
         <v>703.7663907</v>
@@ -4445,7 +4445,7 @@
         <v>43100</v>
       </c>
       <c r="B369">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C369">
         <v>703.7663907</v>
@@ -4456,7 +4456,7 @@
         <v>43101</v>
       </c>
       <c r="B370">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C370">
         <v>712.6389884</v>
@@ -4467,7 +4467,7 @@
         <v>43101</v>
       </c>
       <c r="B371">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C371">
         <v>712.6389884</v>
@@ -4478,7 +4478,7 @@
         <v>43102</v>
       </c>
       <c r="B372">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C372">
         <v>721.5606935</v>
@@ -4489,7 +4489,7 @@
         <v>43102</v>
       </c>
       <c r="B373">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C373">
         <v>721.5606935</v>
@@ -4500,7 +4500,7 @@
         <v>43103</v>
       </c>
       <c r="B374">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C374">
         <v>730.5302913</v>
@@ -4511,7 +4511,7 @@
         <v>43103</v>
       </c>
       <c r="B375">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C375">
         <v>730.5302913</v>
@@ -4522,7 +4522,7 @@
         <v>43104</v>
       </c>
       <c r="B376">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C376">
         <v>739.5465525</v>
@@ -4533,7 +4533,7 @@
         <v>43104</v>
       </c>
       <c r="B377">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C377">
         <v>739.5465525</v>
@@ -4544,7 +4544,7 @@
         <v>43105</v>
       </c>
       <c r="B378">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C378">
         <v>748.6083106999999</v>
@@ -4555,7 +4555,7 @@
         <v>43105</v>
       </c>
       <c r="B379">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C379">
         <v>748.6083106999999</v>
@@ -4566,7 +4566,7 @@
         <v>43106</v>
       </c>
       <c r="B380">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C380">
         <v>757.7145487</v>
@@ -4577,7 +4577,7 @@
         <v>43106</v>
       </c>
       <c r="B381">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C381">
         <v>757.7145487</v>
@@ -4588,7 +4588,7 @@
         <v>43107</v>
       </c>
       <c r="B382">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C382">
         <v>766.8644861</v>
@@ -4599,7 +4599,7 @@
         <v>43107</v>
       </c>
       <c r="B383">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C383">
         <v>766.8644861</v>
@@ -4610,7 +4610,7 @@
         <v>43108</v>
       </c>
       <c r="B384">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C384">
         <v>776.0576649</v>
@@ -4621,7 +4621,7 @@
         <v>43108</v>
       </c>
       <c r="B385">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C385">
         <v>776.0576649</v>
@@ -4632,7 +4632,7 @@
         <v>43109</v>
       </c>
       <c r="B386">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C386">
         <v>785.2940261</v>
@@ -4643,7 +4643,7 @@
         <v>43109</v>
       </c>
       <c r="B387">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C387">
         <v>785.2940261</v>
@@ -4654,7 +4654,7 @@
         <v>43110</v>
       </c>
       <c r="B388">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C388">
         <v>794.5739724</v>
@@ -4665,7 +4665,7 @@
         <v>43110</v>
       </c>
       <c r="B389">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C389">
         <v>794.5739724</v>
@@ -4676,7 +4676,7 @@
         <v>43111</v>
       </c>
       <c r="B390">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C390">
         <v>803.8984137</v>
@@ -4687,7 +4687,7 @@
         <v>43111</v>
       </c>
       <c r="B391">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C391">
         <v>803.8984137</v>
@@ -4698,7 +4698,7 @@
         <v>43112</v>
       </c>
       <c r="B392">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C392">
         <v>813.2687899</v>
@@ -4709,7 +4709,7 @@
         <v>43112</v>
       </c>
       <c r="B393">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C393">
         <v>813.2687899</v>
@@ -4720,7 +4720,7 @@
         <v>43113</v>
       </c>
       <c r="B394">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C394">
         <v>822.6870723</v>
@@ -4731,7 +4731,7 @@
         <v>43113</v>
       </c>
       <c r="B395">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C395">
         <v>822.6870723</v>
@@ -4742,7 +4742,7 @@
         <v>43114</v>
       </c>
       <c r="B396">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C396">
         <v>832.1557392</v>
@@ -4753,7 +4753,7 @@
         <v>43114</v>
       </c>
       <c r="B397">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C397">
         <v>832.1557392</v>
@@ -4764,7 +4764,7 @@
         <v>43115</v>
       </c>
       <c r="B398">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C398">
         <v>841.677729</v>
@@ -4775,7 +4775,7 @@
         <v>43115</v>
       </c>
       <c r="B399">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C399">
         <v>841.677729</v>
@@ -4786,7 +4786,7 @@
         <v>43116</v>
       </c>
       <c r="B400">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C400">
         <v>851.2563706</v>
@@ -4797,7 +4797,7 @@
         <v>43116</v>
       </c>
       <c r="B401">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C401">
         <v>851.2563706</v>
@@ -4808,7 +4808,7 @@
         <v>43117</v>
       </c>
       <c r="B402">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C402">
         <v>860.8952942</v>
@@ -4819,7 +4819,7 @@
         <v>43117</v>
       </c>
       <c r="B403">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C403">
         <v>860.8952942</v>
@@ -4830,7 +4830,7 @@
         <v>43118</v>
       </c>
       <c r="B404">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C404">
         <v>870.5983265</v>
@@ -4841,7 +4841,7 @@
         <v>43118</v>
       </c>
       <c r="B405">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C405">
         <v>870.5983265</v>
@@ -4852,7 +4852,7 @@
         <v>43119</v>
       </c>
       <c r="B406">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C406">
         <v>880.3693719</v>
@@ -4863,7 +4863,7 @@
         <v>43119</v>
       </c>
       <c r="B407">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C407">
         <v>880.3693719</v>
@@ -4874,7 +4874,7 @@
         <v>43120</v>
       </c>
       <c r="B408">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C408">
         <v>890.2122859999999</v>
@@ -4885,7 +4885,7 @@
         <v>43120</v>
       </c>
       <c r="B409">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C409">
         <v>890.2122859999999</v>
@@ -4896,7 +4896,7 @@
         <v>43121</v>
       </c>
       <c r="B410">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C410">
         <v>900.1307441</v>
@@ -4907,7 +4907,7 @@
         <v>43121</v>
       </c>
       <c r="B411">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C411">
         <v>900.1307441</v>
@@ -4918,7 +4918,7 @@
         <v>43122</v>
       </c>
       <c r="B412">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C412">
         <v>910.1281082</v>
@@ -4929,7 +4929,7 @@
         <v>43122</v>
       </c>
       <c r="B413">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C413">
         <v>910.1281082</v>
@@ -4940,7 +4940,7 @@
         <v>43123</v>
       </c>
       <c r="B414">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C414">
         <v>920.2072959</v>
@@ -4951,7 +4951,7 @@
         <v>43123</v>
       </c>
       <c r="B415">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C415">
         <v>920.2072959</v>
@@ -4962,7 +4962,7 @@
         <v>43124</v>
       </c>
       <c r="B416">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C416">
         <v>930.3706549</v>
@@ -4973,7 +4973,7 @@
         <v>43124</v>
       </c>
       <c r="B417">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C417">
         <v>930.3706549</v>
@@ -4984,7 +4984,7 @@
         <v>43125</v>
       </c>
       <c r="B418">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C418">
         <v>940.6198441</v>
@@ -4995,7 +4995,7 @@
         <v>43125</v>
       </c>
       <c r="B419">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C419">
         <v>940.6198441</v>
@@ -5006,7 +5006,7 @@
         <v>43126</v>
       </c>
       <c r="B420">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C420">
         <v>950.955723</v>
@@ -5017,7 +5017,7 @@
         <v>43126</v>
       </c>
       <c r="B421">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C421">
         <v>950.955723</v>
@@ -5028,7 +5028,7 @@
         <v>43127</v>
       </c>
       <c r="B422">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C422">
         <v>961.3782521000001</v>
@@ -5039,7 +5039,7 @@
         <v>43127</v>
       </c>
       <c r="B423">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C423">
         <v>961.3782521000001</v>
@@ -5050,7 +5050,7 @@
         <v>43128</v>
       </c>
       <c r="B424">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C424">
         <v>971.8864038</v>
@@ -5061,7 +5061,7 @@
         <v>43128</v>
       </c>
       <c r="B425">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C425">
         <v>971.8864038</v>
@@ -5072,7 +5072,7 @@
         <v>43129</v>
       </c>
       <c r="B426">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C426">
         <v>982.4780847</v>
@@ -5083,7 +5083,7 @@
         <v>43129</v>
       </c>
       <c r="B427">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C427">
         <v>982.4780847</v>
@@ -5094,7 +5094,7 @@
         <v>43130</v>
       </c>
       <c r="B428">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C428">
         <v>993.1500708999999</v>
@@ -5105,7 +5105,7 @@
         <v>43130</v>
       </c>
       <c r="B429">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C429">
         <v>993.1500708999999</v>
@@ -5116,7 +5116,7 @@
         <v>43131</v>
       </c>
       <c r="B430">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C430">
         <v>1003.8979573</v>
@@ -5127,7 +5127,7 @@
         <v>43131</v>
       </c>
       <c r="B431">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C431">
         <v>1003.8979573</v>
@@ -5138,7 +5138,7 @@
         <v>43132</v>
       </c>
       <c r="B432">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C432">
         <v>1014.7161209</v>
@@ -5149,7 +5149,7 @@
         <v>43132</v>
       </c>
       <c r="B433">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C433">
         <v>1014.7161209</v>
@@ -5160,7 +5160,7 @@
         <v>43133</v>
       </c>
       <c r="B434">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C434">
         <v>1025.597702</v>
@@ -5171,7 +5171,7 @@
         <v>43133</v>
       </c>
       <c r="B435">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C435">
         <v>1025.597702</v>
@@ -5182,7 +5182,7 @@
         <v>43134</v>
       </c>
       <c r="B436">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C436">
         <v>1036.5346028</v>
@@ -5193,7 +5193,7 @@
         <v>43134</v>
       </c>
       <c r="B437">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C437">
         <v>1036.5346028</v>
@@ -5204,7 +5204,7 @@
         <v>43135</v>
       </c>
       <c r="B438">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C438">
         <v>1047.5175088</v>
@@ -5215,7 +5215,7 @@
         <v>43135</v>
       </c>
       <c r="B439">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C439">
         <v>1047.5175088</v>
@@ -5226,7 +5226,7 @@
         <v>43136</v>
       </c>
       <c r="B440">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C440">
         <v>1058.535933</v>
@@ -5237,7 +5237,7 @@
         <v>43136</v>
       </c>
       <c r="B441">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C441">
         <v>1058.535933</v>
@@ -5248,7 +5248,7 @@
         <v>43137</v>
       </c>
       <c r="B442">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C442">
         <v>1069.578287</v>
@@ -5259,7 +5259,7 @@
         <v>43137</v>
       </c>
       <c r="B443">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C443">
         <v>1069.578287</v>
@@ -5270,7 +5270,7 @@
         <v>43138</v>
       </c>
       <c r="B444">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C444">
         <v>1080.6319803</v>
@@ -5281,7 +5281,7 @@
         <v>43138</v>
       </c>
       <c r="B445">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C445">
         <v>1080.6319803</v>
@@ -5292,10 +5292,10 @@
         <v>43139</v>
       </c>
       <c r="B446">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C446">
-        <v>1091.6835497</v>
+        <v>1091.6835498</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5303,10 +5303,10 @@
         <v>43139</v>
       </c>
       <c r="B447">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C447">
-        <v>1091.6835497</v>
+        <v>1091.6835498</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>43140</v>
       </c>
       <c r="B448">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C448">
         <v>1102.7188191</v>
@@ -5325,7 +5325,7 @@
         <v>43140</v>
       </c>
       <c r="B449">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C449">
         <v>1102.7188191</v>
@@ -5336,10 +5336,10 @@
         <v>43141</v>
       </c>
       <c r="B450">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C450">
-        <v>1113.7230876</v>
+        <v>1113.7230877</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5347,10 +5347,10 @@
         <v>43141</v>
       </c>
       <c r="B451">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C451">
-        <v>1113.7230876</v>
+        <v>1113.7230877</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>43142</v>
       </c>
       <c r="B452">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C452">
         <v>1124.6813456</v>
@@ -5369,7 +5369,7 @@
         <v>43142</v>
       </c>
       <c r="B453">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C453">
         <v>1124.6813456</v>
@@ -5380,10 +5380,10 @@
         <v>43143</v>
       </c>
       <c r="B454">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C454">
-        <v>1135.5785122</v>
+        <v>1135.5785123</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5391,10 +5391,10 @@
         <v>43143</v>
       </c>
       <c r="B455">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C455">
-        <v>1135.5785122</v>
+        <v>1135.5785123</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5402,10 +5402,10 @@
         <v>43144</v>
       </c>
       <c r="B456">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C456">
-        <v>1146.3996904</v>
+        <v>1146.3996905</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5413,10 +5413,10 @@
         <v>43144</v>
       </c>
       <c r="B457">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C457">
-        <v>1146.3996904</v>
+        <v>1146.3996905</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5424,10 +5424,10 @@
         <v>43145</v>
       </c>
       <c r="B458">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C458">
-        <v>1157.1304303</v>
+        <v>1157.1304306</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5435,10 +5435,10 @@
         <v>43145</v>
       </c>
       <c r="B459">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C459">
-        <v>1157.1304303</v>
+        <v>1157.1304306</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5446,10 +5446,10 @@
         <v>43146</v>
       </c>
       <c r="B460">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C460">
-        <v>1167.7569945</v>
+        <v>1167.756995</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5457,10 +5457,10 @@
         <v>43146</v>
       </c>
       <c r="B461">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C461">
-        <v>1167.7569945</v>
+        <v>1167.756995</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5468,10 +5468,10 @@
         <v>43147</v>
       </c>
       <c r="B462">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C462">
-        <v>1178.266614</v>
+        <v>1178.2666149</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5479,10 +5479,10 @@
         <v>43147</v>
       </c>
       <c r="B463">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C463">
-        <v>1178.266614</v>
+        <v>1178.2666149</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5490,10 +5490,10 @@
         <v>43148</v>
       </c>
       <c r="B464">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C464">
-        <v>1188.6477261</v>
+        <v>1188.6477277</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5501,10 +5501,10 @@
         <v>43148</v>
       </c>
       <c r="B465">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C465">
-        <v>1188.6477261</v>
+        <v>1188.6477277</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5512,10 +5512,10 @@
         <v>43149</v>
       </c>
       <c r="B466">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C466">
-        <v>1198.8901854</v>
+        <v>1198.890188</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5523,10 +5523,10 @@
         <v>43149</v>
       </c>
       <c r="B467">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C467">
-        <v>1198.8901854</v>
+        <v>1198.890188</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5534,10 +5534,10 @@
         <v>43150</v>
       </c>
       <c r="B468">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C468">
-        <v>1208.985438</v>
+        <v>1208.9854425</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5545,10 +5545,10 @@
         <v>43150</v>
       </c>
       <c r="B469">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C469">
-        <v>1208.985438</v>
+        <v>1208.9854425</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5556,10 +5556,10 @@
         <v>43151</v>
       </c>
       <c r="B470">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C470">
-        <v>1218.9266535</v>
+        <v>1218.9266611</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5567,10 +5567,10 @@
         <v>43151</v>
       </c>
       <c r="B471">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C471">
-        <v>1218.9266535</v>
+        <v>1218.9266611</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5578,10 +5578,10 @@
         <v>43152</v>
       </c>
       <c r="B472">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C472">
-        <v>1228.7088082</v>
+        <v>1228.708821</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5589,10 +5589,10 @@
         <v>43152</v>
       </c>
       <c r="B473">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C473">
-        <v>1228.7088082</v>
+        <v>1228.708821</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5600,10 +5600,10 @@
         <v>43153</v>
       </c>
       <c r="B474">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C474">
-        <v>1238.3287174</v>
+        <v>1238.3287387</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5611,10 +5611,10 @@
         <v>43153</v>
       </c>
       <c r="B475">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C475">
-        <v>1238.3287174</v>
+        <v>1238.3287387</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5622,10 +5622,10 @@
         <v>43154</v>
       </c>
       <c r="B476">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C476">
-        <v>1247.785016</v>
+        <v>1247.7850512</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5633,10 +5633,10 @@
         <v>43154</v>
       </c>
       <c r="B477">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C477">
-        <v>1247.785016</v>
+        <v>1247.7850512</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5644,10 +5644,10 @@
         <v>43155</v>
       </c>
       <c r="B478">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C478">
-        <v>1257.078089</v>
+        <v>1257.0781463</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5655,10 +5655,10 @@
         <v>43155</v>
       </c>
       <c r="B479">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C479">
-        <v>1257.078089</v>
+        <v>1257.0781463</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5666,10 +5666,10 @@
         <v>43156</v>
       </c>
       <c r="B480">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C480">
-        <v>1266.2099555</v>
+        <v>1266.2100482</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5677,10 +5677,10 @@
         <v>43156</v>
       </c>
       <c r="B481">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C481">
-        <v>1266.2099555</v>
+        <v>1266.2100482</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5688,10 +5688,10 @@
         <v>43157</v>
       </c>
       <c r="B482">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C482">
-        <v>1275.184114</v>
+        <v>1275.1842622</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5699,10 +5699,10 @@
         <v>43157</v>
       </c>
       <c r="B483">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C483">
-        <v>1275.184114</v>
+        <v>1275.1842622</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5710,10 +5710,10 @@
         <v>43158</v>
       </c>
       <c r="B484">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C484">
-        <v>1284.0053537</v>
+        <v>1284.0055885</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5721,10 +5721,10 @@
         <v>43158</v>
       </c>
       <c r="B485">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C485">
-        <v>1284.0053537</v>
+        <v>1284.0055885</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5732,10 +5732,10 @@
         <v>43159</v>
       </c>
       <c r="B486">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C486">
-        <v>1292.6795427</v>
+        <v>1292.6799108</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5743,10 +5743,10 @@
         <v>43159</v>
       </c>
       <c r="B487">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C487">
-        <v>1292.6795427</v>
+        <v>1292.6799108</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5754,10 +5754,10 @@
         <v>43160</v>
       </c>
       <c r="B488">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C488">
-        <v>1301.2134002</v>
+        <v>1301.2139715</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5765,10 +5765,10 @@
         <v>43160</v>
       </c>
       <c r="B489">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C489">
-        <v>1301.2134002</v>
+        <v>1301.2139715</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5776,10 +5776,10 @@
         <v>43161</v>
       </c>
       <c r="B490">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C490">
-        <v>1309.614262</v>
+        <v>1309.6151396</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5787,10 +5787,10 @@
         <v>43161</v>
       </c>
       <c r="B491">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C491">
-        <v>1309.614262</v>
+        <v>1309.6151396</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5798,10 +5798,10 @@
         <v>43162</v>
       </c>
       <c r="B492">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C492">
-        <v>1317.8898471</v>
+        <v>1317.891182</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5809,10 +5809,10 @@
         <v>43162</v>
       </c>
       <c r="B493">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C493">
-        <v>1317.8898471</v>
+        <v>1317.891182</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5820,10 +5820,10 @@
         <v>43163</v>
       </c>
       <c r="B494">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C494">
-        <v>1326.0480331</v>
+        <v>1326.0500426</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5831,10 +5831,10 @@
         <v>43163</v>
       </c>
       <c r="B495">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C495">
-        <v>1326.0480331</v>
+        <v>1326.0500426</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5842,10 +5842,10 @@
         <v>43164</v>
       </c>
       <c r="B496">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C496">
-        <v>1334.0966439</v>
+        <v>1334.0996383</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5853,10 +5853,10 @@
         <v>43164</v>
       </c>
       <c r="B497">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C497">
-        <v>1334.0966439</v>
+        <v>1334.0996383</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5864,10 +5864,10 @@
         <v>43165</v>
       </c>
       <c r="B498">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C498">
-        <v>1342.0432577</v>
+        <v>1342.0476741</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5875,10 +5875,10 @@
         <v>43165</v>
       </c>
       <c r="B499">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C499">
-        <v>1342.0432577</v>
+        <v>1342.0476741</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5886,10 +5886,10 @@
         <v>43166</v>
       </c>
       <c r="B500">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C500">
-        <v>1349.8950344</v>
+        <v>1349.9014811</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5897,10 +5897,10 @@
         <v>43166</v>
       </c>
       <c r="B501">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C501">
-        <v>1349.8950344</v>
+        <v>1349.9014811</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5908,10 +5908,10 @@
         <v>43167</v>
       </c>
       <c r="B502">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C502">
-        <v>1357.6585675</v>
+        <v>1357.6678806</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5919,10 +5919,10 @@
         <v>43167</v>
       </c>
       <c r="B503">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C503">
-        <v>1357.6585675</v>
+        <v>1357.6678806</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5930,10 +5930,10 @@
         <v>43168</v>
       </c>
       <c r="B504">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C504">
-        <v>1365.3397597</v>
+        <v>1365.3530739</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5941,10 +5941,10 @@
         <v>43168</v>
       </c>
       <c r="B505">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C505">
-        <v>1365.3397597</v>
+        <v>1365.3530739</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5952,10 +5952,10 @@
         <v>43169</v>
       </c>
       <c r="B506">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C506">
-        <v>1372.9437229</v>
+        <v>1372.9625582</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5963,10 +5963,10 @@
         <v>43169</v>
       </c>
       <c r="B507">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C507">
-        <v>1372.9437229</v>
+        <v>1372.9625582</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5974,10 +5974,10 @@
         <v>43170</v>
       </c>
       <c r="B508">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C508">
-        <v>1380.4747028</v>
+        <v>1380.5010686</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5985,10 +5985,10 @@
         <v>43170</v>
       </c>
       <c r="B509">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C509">
-        <v>1380.4747028</v>
+        <v>1380.5010686</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5996,10 +5996,10 @@
         <v>43171</v>
       </c>
       <c r="B510">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C510">
-        <v>1387.9360282</v>
+        <v>1387.9725444</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6007,10 +6007,10 @@
         <v>43171</v>
       </c>
       <c r="B511">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C511">
-        <v>1387.9360282</v>
+        <v>1387.9725444</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6018,10 +6018,10 @@
         <v>43172</v>
       </c>
       <c r="B512">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C512">
-        <v>1395.3300834</v>
+        <v>1395.3801191</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6029,10 +6029,10 @@
         <v>43172</v>
       </c>
       <c r="B513">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C513">
-        <v>1395.3300834</v>
+        <v>1395.3801191</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6040,10 +6040,10 @@
         <v>43173</v>
       </c>
       <c r="B514">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C514">
-        <v>1402.658306</v>
+        <v>1402.7261308</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6051,10 +6051,10 @@
         <v>43173</v>
       </c>
       <c r="B515">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C515">
-        <v>1402.658306</v>
+        <v>1402.7261308</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6062,10 +6062,10 @@
         <v>43174</v>
       </c>
       <c r="B516">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C516">
-        <v>1409.9212085</v>
+        <v>1410.0121532</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6073,10 +6073,10 @@
         <v>43174</v>
       </c>
       <c r="B517">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C517">
-        <v>1409.9212085</v>
+        <v>1410.0121532</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6084,10 +6084,10 @@
         <v>43175</v>
       </c>
       <c r="B518">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C518">
-        <v>1417.1184255</v>
+        <v>1417.2390424</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6095,10 +6095,10 @@
         <v>43175</v>
       </c>
       <c r="B519">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C519">
-        <v>1417.1184255</v>
+        <v>1417.2390424</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6106,10 +6106,10 @@
         <v>43176</v>
       </c>
       <c r="B520">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C520">
-        <v>1424.2487853</v>
+        <v>1424.4069987</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6117,10 +6117,10 @@
         <v>43176</v>
       </c>
       <c r="B521">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C521">
-        <v>1424.2487853</v>
+        <v>1424.4069987</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6128,10 +6128,10 @@
         <v>43177</v>
       </c>
       <c r="B522">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C522">
-        <v>1431.3104091</v>
+        <v>1431.5156388</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6139,10 +6139,10 @@
         <v>43177</v>
       </c>
       <c r="B523">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C523">
-        <v>1431.3104091</v>
+        <v>1431.5156388</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6150,10 +6150,10 @@
         <v>43178</v>
       </c>
       <c r="B524">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C524">
-        <v>1438.300834</v>
+        <v>1438.5640748</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6161,10 +6161,10 @@
         <v>43178</v>
       </c>
       <c r="B525">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C525">
-        <v>1438.300834</v>
+        <v>1438.5640748</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6172,10 +6172,10 @@
         <v>43179</v>
       </c>
       <c r="B526">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C526">
-        <v>1445.2171625</v>
+        <v>1445.5509976</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6183,10 +6183,10 @@
         <v>43179</v>
       </c>
       <c r="B527">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C527">
-        <v>1445.2171625</v>
+        <v>1445.5509976</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6194,10 +6194,10 @@
         <v>43180</v>
       </c>
       <c r="B528">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C528">
-        <v>1452.0562341</v>
+        <v>1452.4747585</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6205,10 +6205,10 @@
         <v>43180</v>
       </c>
       <c r="B529">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C529">
-        <v>1452.0562341</v>
+        <v>1452.4747585</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6216,10 +6216,10 @@
         <v>43181</v>
       </c>
       <c r="B530">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C530">
-        <v>1458.8148176</v>
+        <v>1459.3334461</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6227,10 +6227,10 @@
         <v>43181</v>
       </c>
       <c r="B531">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C531">
-        <v>1458.8148176</v>
+        <v>1459.3334461</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6238,10 +6238,10 @@
         <v>43182</v>
       </c>
       <c r="B532">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C532">
-        <v>1465.4898201</v>
+        <v>1466.1249553</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6249,10 +6249,10 @@
         <v>43182</v>
       </c>
       <c r="B533">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C533">
-        <v>1465.4898201</v>
+        <v>1466.1249553</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6260,10 +6260,10 @@
         <v>43183</v>
       </c>
       <c r="B534">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C534">
-        <v>1472.0785062</v>
+        <v>1472.8470439</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6271,10 +6271,10 @@
         <v>43183</v>
       </c>
       <c r="B535">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C535">
-        <v>1472.0785062</v>
+        <v>1472.8470439</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6282,10 +6282,10 @@
         <v>43184</v>
       </c>
       <c r="B536">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C536">
-        <v>1478.5787216</v>
+        <v>1479.4973773</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6293,10 +6293,10 @@
         <v>43184</v>
       </c>
       <c r="B537">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C537">
-        <v>1478.5787216</v>
+        <v>1479.4973773</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6304,10 +6304,10 @@
         <v>43185</v>
       </c>
       <c r="B538">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C538">
-        <v>1484.9891145</v>
+        <v>1486.0735591</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6315,10 +6315,10 @@
         <v>43185</v>
       </c>
       <c r="B539">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C539">
-        <v>1484.9891145</v>
+        <v>1486.0735591</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6326,10 +6326,10 @@
         <v>43186</v>
       </c>
       <c r="B540">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C540">
-        <v>1491.3093441</v>
+        <v>1492.5731499</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6337,10 +6337,10 @@
         <v>43186</v>
       </c>
       <c r="B541">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C541">
-        <v>1491.3093441</v>
+        <v>1492.5731499</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6348,10 +6348,10 @@
         <v>43187</v>
       </c>
       <c r="B542">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C542">
-        <v>1497.5402706</v>
+        <v>1498.9936772</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6359,10 +6359,10 @@
         <v>43187</v>
       </c>
       <c r="B543">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C543">
-        <v>1497.5402706</v>
+        <v>1498.9936772</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6370,10 +6370,10 @@
         <v>43188</v>
       </c>
       <c r="B544">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C544">
-        <v>1503.6841168</v>
+        <v>1505.3326405</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6381,10 +6381,10 @@
         <v>43188</v>
       </c>
       <c r="B545">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C545">
-        <v>1503.6841168</v>
+        <v>1505.3326405</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6392,10 +6392,10 @@
         <v>43189</v>
       </c>
       <c r="B546">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C546">
-        <v>1509.7445937</v>
+        <v>1511.5875187</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6403,10 +6403,10 @@
         <v>43189</v>
       </c>
       <c r="B547">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C547">
-        <v>1509.7445937</v>
+        <v>1511.5875187</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6414,10 +6414,10 @@
         <v>43190</v>
       </c>
       <c r="B548">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C548">
-        <v>1515.7269841</v>
+        <v>1517.7557843</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6425,10 +6425,10 @@
         <v>43190</v>
       </c>
       <c r="B549">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C549">
-        <v>1515.7269841</v>
+        <v>1517.7557843</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6436,10 +6436,10 @@
         <v>43191</v>
       </c>
       <c r="B550">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C550">
-        <v>1521.6381781</v>
+        <v>1523.8349341</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6447,10 +6447,10 @@
         <v>43191</v>
       </c>
       <c r="B551">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C551">
-        <v>1521.6381781</v>
+        <v>1523.8349341</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6458,10 +6458,10 @@
         <v>43192</v>
       </c>
       <c r="B552">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C552">
-        <v>1527.4866555</v>
+        <v>1529.8225392</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6469,10 +6469,10 @@
         <v>43192</v>
       </c>
       <c r="B553">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C553">
-        <v>1527.4866555</v>
+        <v>1529.8225392</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6480,10 +6480,10 @@
         <v>43193</v>
       </c>
       <c r="B554">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C554">
-        <v>1533.2824131</v>
+        <v>1535.7163219</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6491,10 +6491,10 @@
         <v>43193</v>
       </c>
       <c r="B555">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C555">
-        <v>1533.2824131</v>
+        <v>1535.7163219</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6502,10 +6502,10 @@
         <v>43194</v>
       </c>
       <c r="B556">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C556">
-        <v>1539.0368331</v>
+        <v>1541.5142602</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6513,10 +6513,10 @@
         <v>43194</v>
       </c>
       <c r="B557">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C557">
-        <v>1539.0368331</v>
+        <v>1541.5142602</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6524,10 +6524,10 @@
         <v>43195</v>
       </c>
       <c r="B558">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C558">
-        <v>1544.7624907</v>
+        <v>1547.2147202</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6535,10 +6535,10 @@
         <v>43195</v>
       </c>
       <c r="B559">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C559">
-        <v>1544.7624907</v>
+        <v>1547.2147202</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6546,10 +6546,10 @@
         <v>43196</v>
       </c>
       <c r="B560">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C560">
-        <v>1550.4729005</v>
+        <v>1552.8166142</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6557,10 +6557,10 @@
         <v>43196</v>
       </c>
       <c r="B561">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C561">
-        <v>1550.4729005</v>
+        <v>1552.8166142</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6568,10 +6568,10 @@
         <v>43197</v>
       </c>
       <c r="B562">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C562">
-        <v>1556.1821988</v>
+        <v>1558.3195771</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6579,10 +6579,10 @@
         <v>43197</v>
       </c>
       <c r="B563">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C563">
-        <v>1556.1821988</v>
+        <v>1558.3195771</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6590,10 +6590,10 @@
         <v>43198</v>
       </c>
       <c r="B564">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C564">
-        <v>1561.9047625</v>
+        <v>1563.7241546</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6601,10 +6601,10 @@
         <v>43198</v>
       </c>
       <c r="B565">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C565">
-        <v>1561.9047625</v>
+        <v>1563.7241546</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6612,10 +6612,10 @@
         <v>43199</v>
       </c>
       <c r="B566">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C566">
-        <v>1567.6547623</v>
+        <v>1569.0319907</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6623,10 +6623,10 @@
         <v>43199</v>
       </c>
       <c r="B567">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C567">
-        <v>1567.6547623</v>
+        <v>1569.0319907</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6634,10 +6634,10 @@
         <v>43200</v>
       </c>
       <c r="B568">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C568">
-        <v>1573.4456546</v>
+        <v>1574.2460043</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6645,10 +6645,10 @@
         <v>43200</v>
       </c>
       <c r="B569">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C569">
-        <v>1573.4456546</v>
+        <v>1574.2460043</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6656,10 +6656,10 @@
         <v>43201</v>
       </c>
       <c r="B570">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C570">
-        <v>1579.2896146</v>
+        <v>1579.3705425</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6667,10 +6667,10 @@
         <v>43201</v>
       </c>
       <c r="B571">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C571">
-        <v>1579.2896146</v>
+        <v>1579.3705425</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6678,10 +6678,10 @@
         <v>43202</v>
       </c>
       <c r="B572">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C572">
-        <v>1585.1969217</v>
+        <v>1584.411499</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6689,10 +6689,10 @@
         <v>43202</v>
       </c>
       <c r="B573">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C573">
-        <v>1585.1969217</v>
+        <v>1584.411499</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6700,10 +6700,10 @@
         <v>43203</v>
       </c>
       <c r="B574">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C574">
-        <v>1591.1753137</v>
+        <v>1589.3763857</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6711,10 +6711,10 @@
         <v>43203</v>
       </c>
       <c r="B575">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C575">
-        <v>1591.1753137</v>
+        <v>1589.3763857</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6722,10 +6722,10 @@
         <v>43204</v>
       </c>
       <c r="B576">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C576">
-        <v>1597.2293352</v>
+        <v>1594.2743503</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6733,10 +6733,10 @@
         <v>43204</v>
       </c>
       <c r="B577">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C577">
-        <v>1597.2293352</v>
+        <v>1594.2743503</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6744,845 +6744,955 @@
         <v>43205</v>
       </c>
       <c r="B578">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C578">
-        <v>1603.3597178</v>
+        <v>1599.1161298</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="2">
-        <v>43206</v>
+        <v>43205</v>
       </c>
       <c r="B579">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C579">
-        <v>1609.5628387</v>
+        <v>1599.1161298</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="2">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="B580">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C580">
-        <v>1615.8303139</v>
+        <v>1603.9139351</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="2">
-        <v>43208</v>
+        <v>43206</v>
       </c>
       <c r="B581">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C581">
-        <v>1622.1487902</v>
+        <v>1603.9139351</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="2">
-        <v>43209</v>
+        <v>43207</v>
       </c>
       <c r="B582">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C582">
-        <v>1628.4999946</v>
+        <v>1608.6812603</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="2">
-        <v>43210</v>
+        <v>43207</v>
       </c>
       <c r="B583">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C583">
-        <v>1634.861091</v>
+        <v>1608.6812603</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="2">
-        <v>43211</v>
+        <v>43208</v>
       </c>
       <c r="B584">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C584">
-        <v>1641.2053705</v>
+        <v>1613.4326135</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="2">
-        <v>43212</v>
+        <v>43208</v>
       </c>
       <c r="B585">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C585">
-        <v>1647.5032695</v>
+        <v>1613.4326135</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="2">
-        <v>43213</v>
+        <v>43209</v>
       </c>
       <c r="B586">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C586">
-        <v>1653.723667</v>
+        <v>1618.1831656</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="2">
-        <v>43214</v>
+        <v>43209</v>
       </c>
       <c r="B587">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C587">
-        <v>1659.8353736</v>
+        <v>1618.1831656</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="2">
-        <v>43215</v>
+        <v>43210</v>
       </c>
       <c r="B588">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C588">
-        <v>1665.8086876</v>
+        <v>1622.9483167</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="2">
-        <v>43216</v>
+        <v>43210</v>
       </c>
       <c r="B589">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C589">
-        <v>1671.6168765</v>
+        <v>1622.9483167</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="2">
-        <v>43217</v>
+        <v>43211</v>
       </c>
       <c r="B590">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C590">
-        <v>1677.2374406</v>
+        <v>1627.7431803</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="2">
-        <v>43218</v>
+        <v>43211</v>
       </c>
       <c r="B591">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C591">
-        <v>1682.6530403</v>
+        <v>1627.7431803</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="2">
-        <v>43219</v>
+        <v>43212</v>
       </c>
       <c r="B592">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C592">
-        <v>1687.8520115</v>
+        <v>1632.5819912</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="2">
-        <v>43220</v>
+        <v>43212</v>
       </c>
       <c r="B593">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C593">
-        <v>1692.828442</v>
+        <v>1632.5819912</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="2">
-        <v>43221</v>
+        <v>43213</v>
       </c>
       <c r="B594">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C594">
-        <v>1697.5818396</v>
+        <v>1637.4774466</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="2">
-        <v>43222</v>
+        <v>43213</v>
       </c>
       <c r="B595">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C595">
-        <v>1702.1164638</v>
+        <v>1637.4774466</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="2">
-        <v>43223</v>
+        <v>43214</v>
       </c>
       <c r="B596">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C596">
-        <v>1706.44042</v>
+        <v>1642.4400004</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="2">
-        <v>43224</v>
+        <v>43214</v>
       </c>
       <c r="B597">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C597">
-        <v>1710.5646298</v>
+        <v>1642.4400004</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="2">
-        <v>43225</v>
+        <v>43215</v>
       </c>
       <c r="B598">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C598">
-        <v>1714.5017804</v>
+        <v>1647.4771376</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="2">
-        <v>43226</v>
+        <v>43216</v>
       </c>
       <c r="B599">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C599">
-        <v>1718.2653417</v>
+        <v>1652.5926707</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="2">
-        <v>43227</v>
+        <v>43217</v>
       </c>
       <c r="B600">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C600">
-        <v>1721.8687145</v>
+        <v>1657.7861082</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="2">
-        <v>43228</v>
+        <v>43218</v>
       </c>
       <c r="B601">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C601">
-        <v>1725.324546</v>
+        <v>1663.0521578</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="2">
-        <v>43229</v>
+        <v>43219</v>
       </c>
       <c r="B602">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C602">
-        <v>1728.6442289</v>
+        <v>1668.3804302</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="2">
-        <v>43230</v>
+        <v>43220</v>
       </c>
       <c r="B603">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C603">
-        <v>1731.8375798</v>
+        <v>1673.7554068</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="2">
-        <v>43231</v>
+        <v>43221</v>
       </c>
       <c r="B604">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C604">
-        <v>1734.91268</v>
+        <v>1679.1567211</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="2">
-        <v>43232</v>
+        <v>43222</v>
       </c>
       <c r="B605">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C605">
-        <v>1737.8758573</v>
+        <v>1684.5597763</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="2">
-        <v>43233</v>
+        <v>43223</v>
       </c>
       <c r="B606">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C606">
-        <v>1740.7317782</v>
+        <v>1689.9366914</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="2">
-        <v>43234</v>
+        <v>43224</v>
       </c>
       <c r="B607">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C607">
-        <v>1743.4836283</v>
+        <v>1695.2575205</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="2">
-        <v>43235</v>
+        <v>43225</v>
       </c>
       <c r="B608">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C608">
-        <v>1746.1333506</v>
+        <v>1700.4916568</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="2">
-        <v>43236</v>
+        <v>43226</v>
       </c>
       <c r="B609">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C609">
-        <v>1748.6819236</v>
+        <v>1705.6092978</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="2">
-        <v>43237</v>
+        <v>43227</v>
       </c>
       <c r="B610">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C610">
-        <v>1751.1296555</v>
+        <v>1710.5828378</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="2">
-        <v>43238</v>
+        <v>43228</v>
       </c>
       <c r="B611">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C611">
-        <v>1753.4764807</v>
+        <v>1715.3880592</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="2">
-        <v>43239</v>
+        <v>43229</v>
       </c>
       <c r="B612">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C612">
-        <v>1755.7222429</v>
+        <v>1720.0050202</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="2">
-        <v>43240</v>
+        <v>43230</v>
       </c>
       <c r="B613">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C613">
-        <v>1757.8669521</v>
+        <v>1724.41858</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="2">
-        <v>43241</v>
+        <v>43231</v>
       </c>
       <c r="B614">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C614">
-        <v>1759.911007</v>
+        <v>1728.6185495</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="2">
-        <v>43242</v>
+        <v>43232</v>
       </c>
       <c r="B615">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C615">
-        <v>1761.8553738</v>
+        <v>1732.5994999</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="2">
-        <v>43243</v>
+        <v>43233</v>
       </c>
       <c r="B616">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C616">
-        <v>1763.701716</v>
+        <v>1736.3602993</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="2">
-        <v>43244</v>
+        <v>43234</v>
       </c>
       <c r="B617">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C617">
-        <v>1765.4524707</v>
+        <v>1739.9034637</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="2">
-        <v>43245</v>
+        <v>43235</v>
       </c>
       <c r="B618">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C618">
-        <v>1767.1108711</v>
+        <v>1743.2344164</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="2">
-        <v>43246</v>
+        <v>43236</v>
       </c>
       <c r="B619">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C619">
-        <v>1768.6809151</v>
+        <v>1746.3607402</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="2">
-        <v>43247</v>
+        <v>43237</v>
       </c>
       <c r="B620">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C620">
-        <v>1770.1672849</v>
+        <v>1749.2914875</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="2">
-        <v>43248</v>
+        <v>43238</v>
       </c>
       <c r="B621">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C621">
-        <v>1771.5752228</v>
+        <v>1752.0365945</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="2">
-        <v>43249</v>
+        <v>43239</v>
       </c>
       <c r="B622">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C622">
-        <v>1772.9103716</v>
+        <v>1754.6064214</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="2">
-        <v>43250</v>
+        <v>43240</v>
       </c>
       <c r="B623">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C623">
-        <v>1774.1785908</v>
+        <v>1757.0114222</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="2">
-        <v>43251</v>
+        <v>43241</v>
       </c>
       <c r="B624">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C624">
-        <v>1775.3857587</v>
+        <v>1759.2619325</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="2">
-        <v>43252</v>
+        <v>43242</v>
       </c>
       <c r="B625">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C625">
-        <v>1776.5375739</v>
+        <v>1761.3680554</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="2">
-        <v>43253</v>
+        <v>43243</v>
       </c>
       <c r="B626">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C626">
-        <v>1777.6393677</v>
+        <v>1763.339618</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="2">
-        <v>43254</v>
+        <v>43244</v>
       </c>
       <c r="B627">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C627">
-        <v>1778.6959382</v>
+        <v>1765.186173</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="2">
-        <v>43255</v>
+        <v>43245</v>
       </c>
       <c r="B628">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C628">
-        <v>1779.711418</v>
+        <v>1766.9170206</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="2">
-        <v>43256</v>
+        <v>43246</v>
       </c>
       <c r="B629">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C629">
-        <v>1780.6891797</v>
+        <v>1768.5412292</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="2">
-        <v>43257</v>
+        <v>43247</v>
       </c>
       <c r="B630">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C630">
-        <v>1781.6317868</v>
+        <v>1770.0676407</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="2">
-        <v>43258</v>
+        <v>43248</v>
       </c>
       <c r="B631">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C631">
-        <v>1782.5409906</v>
+        <v>1771.5048523</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="2">
-        <v>43259</v>
+        <v>43249</v>
       </c>
       <c r="B632">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C632">
-        <v>1783.4177705</v>
+        <v>1772.8611683</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="2">
-        <v>43260</v>
+        <v>43250</v>
       </c>
       <c r="B633">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C633">
-        <v>1784.262415</v>
+        <v>1774.1445273</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="2">
-        <v>43261</v>
+        <v>43251</v>
       </c>
       <c r="B634">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C634">
-        <v>1785.0746347</v>
+        <v>1775.362408</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="2">
-        <v>43262</v>
+        <v>43252</v>
       </c>
       <c r="B635">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C635">
-        <v>1785.8536987</v>
+        <v>1776.521723</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="2">
-        <v>43263</v>
+        <v>43253</v>
       </c>
       <c r="B636">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C636">
-        <v>1786.5985836</v>
+        <v>1777.628712</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="2">
-        <v>43264</v>
+        <v>43254</v>
       </c>
       <c r="B637">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C637">
-        <v>1787.3081252</v>
+        <v>1778.688844</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="2">
-        <v>43265</v>
+        <v>43255</v>
       </c>
       <c r="B638">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C638">
-        <v>1787.9811617</v>
+        <v>1779.7067399</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="2">
-        <v>43266</v>
+        <v>43256</v>
       </c>
       <c r="B639">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C639">
-        <v>1788.616662</v>
+        <v>1780.6861241</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="2">
-        <v>43267</v>
+        <v>43257</v>
       </c>
       <c r="B640">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C640">
-        <v>1789.2138295</v>
+        <v>1781.6298098</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="2">
-        <v>43268</v>
+        <v>43258</v>
       </c>
       <c r="B641">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C641">
-        <v>1789.7721814</v>
+        <v>1782.5397233</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="2">
-        <v>43269</v>
+        <v>43259</v>
       </c>
       <c r="B642">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C642">
-        <v>1790.2915979</v>
+        <v>1783.4169655</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="2">
-        <v>43270</v>
+        <v>43260</v>
       </c>
       <c r="B643">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C643">
-        <v>1790.7723457</v>
+        <v>1784.2619083</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="2">
-        <v>43271</v>
+        <v>43261</v>
       </c>
       <c r="B644">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C644">
-        <v>1791.215075</v>
+        <v>1785.0743187</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="2">
-        <v>43272</v>
+        <v>43262</v>
       </c>
       <c r="B645">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C645">
-        <v>1791.6207972</v>
+        <v>1785.8535033</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="2">
-        <v>43273</v>
+        <v>43263</v>
       </c>
       <c r="B646">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C646">
-        <v>1791.9908455</v>
+        <v>1786.5984638</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="2">
-        <v>43274</v>
+        <v>43264</v>
       </c>
       <c r="B647">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C647">
-        <v>1792.3268251</v>
+        <v>1787.3080524</v>
       </c>
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="2">
-        <v>43275</v>
+        <v>43265</v>
       </c>
       <c r="B648">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C648">
-        <v>1792.6305569</v>
+        <v>1787.9811179</v>
       </c>
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="2">
-        <v>43276</v>
+        <v>43266</v>
       </c>
       <c r="B649">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C649">
-        <v>1792.9040192</v>
+        <v>1788.6166357</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="2">
-        <v>43277</v>
+        <v>43267</v>
       </c>
       <c r="B650">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C650">
-        <v>1793.1492913</v>
+        <v>1789.2138139</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="2">
-        <v>43278</v>
+        <v>43268</v>
       </c>
       <c r="B651">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C651">
-        <v>1793.368501</v>
+        <v>1789.7721722</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="2">
-        <v>43279</v>
+        <v>43269</v>
       </c>
       <c r="B652">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C652">
-        <v>1793.5637784</v>
+        <v>1790.2915926</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="2">
-        <v>43280</v>
+        <v>43270</v>
       </c>
       <c r="B653">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C653">
-        <v>1793.7372166</v>
+        <v>1790.7723426</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B654">
+        <v>354</v>
+      </c>
+      <c r="C654">
+        <v>1791.2150732</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B655">
+        <v>355</v>
+      </c>
+      <c r="C655">
+        <v>1791.6207961</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B656">
+        <v>356</v>
+      </c>
+      <c r="C656">
+        <v>1791.9908449</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="2">
+        <v>43274</v>
+      </c>
+      <c r="B657">
+        <v>357</v>
+      </c>
+      <c r="C657">
+        <v>1792.3268248</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="2">
+        <v>43275</v>
+      </c>
+      <c r="B658">
+        <v>358</v>
+      </c>
+      <c r="C658">
+        <v>1792.6305567</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B659">
+        <v>359</v>
+      </c>
+      <c r="C659">
+        <v>1792.9040191</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B660">
+        <v>360</v>
+      </c>
+      <c r="C660">
+        <v>1793.1492912</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B661">
+        <v>361</v>
+      </c>
+      <c r="C661">
+        <v>1793.3685009</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B662">
+        <v>362</v>
+      </c>
+      <c r="C662">
+        <v>1793.5637783</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B663">
+        <v>363</v>
+      </c>
+      <c r="C663">
+        <v>1793.7372166</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="2">
         <v>43281</v>
       </c>
-      <c r="B654">
-        <v>365</v>
-      </c>
-      <c r="C654">
+      <c r="B664">
+        <v>364</v>
+      </c>
+      <c r="C664">
         <v>1793.89084</v>
       </c>
     </row>
